--- a/results/correlation.xlsx
+++ b/results/correlation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61ADFF9-B9ED-44C1-99A3-42BA4C16872D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7D42E-4BAD-437C-897D-691EE58522A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2130" windowWidth="22050" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38437,8 +38437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/correlation.xlsx
+++ b/results/correlation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936A24F-0DA1-44F9-AC20-BB2A6338B168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70C65A-3C1E-4169-B860-E6969D652EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -1413,14 +1413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JM69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:273" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -3614,37 +3609,37 @@
         <v>14.8</v>
       </c>
       <c r="JC4">
-        <v>0.15789473684210531</v>
+        <v>0.25</v>
       </c>
       <c r="JD4">
-        <v>0.10526315789473679</v>
+        <v>0.25</v>
       </c>
       <c r="JE4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JF4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JG4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JH4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JI4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JJ4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JK4">
-        <v>0.15789473684210531</v>
+        <v>0.25</v>
       </c>
       <c r="JL4">
-        <v>5.2631578947368418E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JM4">
-        <v>0.73684210526315785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:273" x14ac:dyDescent="0.35">
@@ -4117,37 +4112,37 @@
         <v>7.15</v>
       </c>
       <c r="JC5">
-        <v>1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM5">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="6" spans="1:273" x14ac:dyDescent="0.35">
@@ -4593,37 +4588,37 @@
         <v>21.65</v>
       </c>
       <c r="JC6">
-        <v>8.2644628099173556E-2</v>
+        <v>0.102827763496144</v>
       </c>
       <c r="JD6">
-        <v>8.2644628099173556E-3</v>
+        <v>8.9974293059125965E-2</v>
       </c>
       <c r="JE6">
-        <v>0.33884297520661161</v>
+        <v>0.11053984575835479</v>
       </c>
       <c r="JF6">
-        <v>8.2644628099173556E-3</v>
+        <v>5.1413881748071976E-3</v>
       </c>
       <c r="JG6">
-        <v>8.2644628099173556E-3</v>
+        <v>1.542416452442159E-2</v>
       </c>
       <c r="JH6">
-        <v>0.1487603305785124</v>
+        <v>8.7403598971722368E-2</v>
       </c>
       <c r="JI6">
-        <v>8.2644628099173556E-3</v>
+        <v>5.1413881748071976E-3</v>
       </c>
       <c r="JJ6">
-        <v>8.2644628099173556E-3</v>
+        <v>2.5706940874035988E-3</v>
       </c>
       <c r="JK6">
-        <v>2.479338842975207E-2</v>
+        <v>0.15424164524421591</v>
       </c>
       <c r="JL6">
-        <v>8.2644628099173556E-3</v>
+        <v>2.5706940874035988E-3</v>
       </c>
       <c r="JM6">
-        <v>0.43801652892561982</v>
+        <v>0.44987146529562982</v>
       </c>
     </row>
     <row r="7" spans="1:273" x14ac:dyDescent="0.35">
@@ -5060,37 +5055,37 @@
         <v>6.35</v>
       </c>
       <c r="JC7">
-        <v>0.125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="JD7">
-        <v>0.875</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JE7">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JF7">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JG7">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JH7">
-        <v>0.125</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI7">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JJ7">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JK7">
-        <v>0.125</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL7">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JM7">
-        <v>0.25</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="8" spans="1:273" x14ac:dyDescent="0.35">
@@ -5527,37 +5522,37 @@
         <v>11.95</v>
       </c>
       <c r="JC8">
-        <v>0.58024691358024694</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD8">
-        <v>0.26337448559670779</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE8">
-        <v>2.469135802469136E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF8">
-        <v>4.5267489711934158E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG8">
-        <v>2.469135802469136E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH8">
-        <v>5.3497942386831282E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI8">
-        <v>4.11522633744856E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ8">
-        <v>4.11522633744856E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK8">
-        <v>8.23045267489712E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL8">
-        <v>4.11522633744856E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM8">
-        <v>2.8806584362139918E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="9" spans="1:273" x14ac:dyDescent="0.35">
@@ -5991,37 +5986,37 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="JC9">
-        <v>9.7560975609756101E-2</v>
+        <v>4.6511627906976737E-2</v>
       </c>
       <c r="JD9">
-        <v>2.4390243902439029E-2</v>
+        <v>3.6544850498338867E-2</v>
       </c>
       <c r="JE9">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JF9">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JG9">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JH9">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JI9">
-        <v>4.878048780487805E-2</v>
+        <v>3.6544850498338867E-2</v>
       </c>
       <c r="JJ9">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JK9">
-        <v>0.12195121951219511</v>
+        <v>2.9900332225913619E-2</v>
       </c>
       <c r="JL9">
-        <v>2.4390243902439029E-2</v>
+        <v>6.6445182724252493E-3</v>
       </c>
       <c r="JM9">
-        <v>0.80487804878048785</v>
+        <v>0.86046511627906974</v>
       </c>
     </row>
     <row r="10" spans="1:273" x14ac:dyDescent="0.35">
@@ -6518,37 +6513,37 @@
         <v>25</v>
       </c>
       <c r="JC10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG10">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH10">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK10">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL10">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM10">
-        <v>0.90909090909090906</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:273" x14ac:dyDescent="0.35">
@@ -6952,37 +6947,37 @@
         <v>27.15</v>
       </c>
       <c r="JC11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL11">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM11">
-        <v>1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:273" x14ac:dyDescent="0.35">
@@ -7455,37 +7450,37 @@
         <v>6.15</v>
       </c>
       <c r="JC12">
-        <v>0.6</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI12">
-        <v>0.4</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL12">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM12">
-        <v>0.4</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="13" spans="1:273" x14ac:dyDescent="0.35">
@@ -7943,37 +7938,37 @@
         <v>24.95</v>
       </c>
       <c r="JC13">
-        <v>0.25</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="JD13">
-        <v>0.25</v>
+        <v>0.10526315789473679</v>
       </c>
       <c r="JE13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JF13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JG13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JH13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JI13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JJ13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JK13">
-        <v>0.25</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="JL13">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JM13">
-        <v>1</v>
+        <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="14" spans="1:273" x14ac:dyDescent="0.35">
@@ -8410,37 +8405,37 @@
         <v>-5.35</v>
       </c>
       <c r="JC14">
-        <v>0.3125</v>
+        <v>8.2644628099173556E-2</v>
       </c>
       <c r="JD14">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JE14">
-        <v>3.125E-2</v>
+        <v>0.33884297520661161</v>
       </c>
       <c r="JF14">
-        <v>0.15625</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JG14">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JH14">
-        <v>3.125E-2</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="JI14">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JJ14">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JK14">
-        <v>3.125E-2</v>
+        <v>2.479338842975207E-2</v>
       </c>
       <c r="JL14">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JM14">
-        <v>0.59375</v>
+        <v>0.43801652892561982</v>
       </c>
     </row>
     <row r="15" spans="1:273" x14ac:dyDescent="0.35">
@@ -8871,37 +8866,37 @@
         <v>0</v>
       </c>
       <c r="JC15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JD15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JE15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JF15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JG15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JH15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JI15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JJ15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JK15">
-        <v>9.0909090909090912E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="JL15">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JM15">
-        <v>9.0909090909090912E-2</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="16" spans="1:273" x14ac:dyDescent="0.35">
@@ -9350,37 +9345,37 @@
         <v>6.95</v>
       </c>
       <c r="JC16">
-        <v>3.515625E-2</v>
+        <v>0.58024691358024694</v>
       </c>
       <c r="JD16">
-        <v>9.765625E-3</v>
+        <v>0.26337448559670779</v>
       </c>
       <c r="JE16">
-        <v>1.953125E-3</v>
+        <v>2.469135802469136E-2</v>
       </c>
       <c r="JF16">
-        <v>1.953125E-3</v>
+        <v>4.5267489711934158E-2</v>
       </c>
       <c r="JG16">
-        <v>7.8125E-3</v>
+        <v>2.469135802469136E-2</v>
       </c>
       <c r="JH16">
-        <v>5.859375E-3</v>
+        <v>5.3497942386831282E-2</v>
       </c>
       <c r="JI16">
-        <v>0.208984375</v>
+        <v>4.11522633744856E-3</v>
       </c>
       <c r="JJ16">
-        <v>1.953125E-3</v>
+        <v>4.11522633744856E-3</v>
       </c>
       <c r="JK16">
-        <v>9.765625E-2</v>
+        <v>8.23045267489712E-3</v>
       </c>
       <c r="JL16">
-        <v>3.90625E-3</v>
+        <v>4.11522633744856E-3</v>
       </c>
       <c r="JM16">
-        <v>0.64453125</v>
+        <v>2.8806584362139918E-2</v>
       </c>
     </row>
     <row r="17" spans="1:273" x14ac:dyDescent="0.35">
@@ -9859,37 +9854,37 @@
         <v>24.6</v>
       </c>
       <c r="JC17">
-        <v>7.8947368421052627E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL17">
-        <v>2.6315789473684209E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM17">
-        <v>0.94736842105263153</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="18" spans="1:273" x14ac:dyDescent="0.35">
@@ -10853,37 +10848,37 @@
         <v>8.5</v>
       </c>
       <c r="JC19">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="JD19">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JE19">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JF19">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JG19">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JH19">
-        <v>9.0909090909090912E-2</v>
+        <v>3.9473684210526307E-2</v>
       </c>
       <c r="JI19">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JJ19">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JK19">
-        <v>9.0909090909090912E-2</v>
+        <v>3.9473684210526307E-2</v>
       </c>
       <c r="JL19">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JM19">
-        <v>9.0909090909090912E-2</v>
+        <v>0.72368421052631582</v>
       </c>
     </row>
     <row r="20" spans="1:273" x14ac:dyDescent="0.35">
@@ -11329,37 +11324,37 @@
         <v>7.5</v>
       </c>
       <c r="JC20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="JD20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JE20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JF20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JG20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JH20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JI20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JJ20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JK20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JL20">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JM20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:273" x14ac:dyDescent="0.35">
@@ -11841,37 +11836,37 @@
         <v>24.55</v>
       </c>
       <c r="JC21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI21">
-        <v>0.4</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL21">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM21">
-        <v>0.8</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="22" spans="1:273" x14ac:dyDescent="0.35">
@@ -13177,37 +13172,37 @@
         <v>22.1</v>
       </c>
       <c r="JC23">
-        <v>8.6956521739130432E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD23">
-        <v>0.86956521739130432</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK23">
-        <v>8.6956521739130432E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL23">
-        <v>4.3478260869565223E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM23">
-        <v>8.6956521739130432E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="24" spans="1:273" x14ac:dyDescent="0.35">
@@ -13671,37 +13666,37 @@
         <v>13.3</v>
       </c>
       <c r="JC24">
-        <v>9.0909090909090912E-2</v>
+        <v>6.4102564102564097E-2</v>
       </c>
       <c r="JD24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JE24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JF24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JG24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JH24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JI24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JJ24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JK24">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JL24">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JM24">
-        <v>9.0909090909090912E-2</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="25" spans="1:273" x14ac:dyDescent="0.35">
@@ -14156,37 +14151,37 @@
         <v>1.7</v>
       </c>
       <c r="JC25">
-        <v>0.16666666666666671</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="JD25">
-        <v>0.33333333333333331</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JE25">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JF25">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JG25">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JH25">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JI25">
-        <v>0.16666666666666671</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="JJ25">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JK25">
-        <v>0.16666666666666671</v>
+        <v>0.12195121951219511</v>
       </c>
       <c r="JL25">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="JM25">
-        <v>0.83333333333333337</v>
+        <v>0.80487804878048785</v>
       </c>
     </row>
     <row r="26" spans="1:273" x14ac:dyDescent="0.35">
@@ -14650,37 +14645,37 @@
         <v>10.7</v>
       </c>
       <c r="JC26">
-        <v>0.5</v>
+        <v>5.0251256281407038E-2</v>
       </c>
       <c r="JD26">
-        <v>0.5</v>
+        <v>1.0050251256281411E-2</v>
       </c>
       <c r="JE26">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JF26">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JG26">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JH26">
-        <v>1</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JI26">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JJ26">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JK26">
-        <v>0.5</v>
+        <v>1.0050251256281411E-2</v>
       </c>
       <c r="JL26">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JM26">
-        <v>0.5</v>
+        <v>0.94472361809045224</v>
       </c>
     </row>
     <row r="27" spans="1:273" x14ac:dyDescent="0.35">
@@ -15126,37 +15121,37 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="JC27">
-        <v>9.0909090909090912E-2</v>
+        <v>0.23943661971830979</v>
       </c>
       <c r="JD27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.9014084507042249E-2</v>
       </c>
       <c r="JE27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.408450704225352E-3</v>
       </c>
       <c r="JF27">
-        <v>9.0909090909090912E-2</v>
+        <v>7.0422535211267609E-4</v>
       </c>
       <c r="JG27">
-        <v>9.0909090909090912E-2</v>
+        <v>7.0422535211267609E-4</v>
       </c>
       <c r="JH27">
-        <v>9.0909090909090912E-2</v>
+        <v>2.8169014084507039E-3</v>
       </c>
       <c r="JI27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.0563380281690141E-2</v>
       </c>
       <c r="JJ27">
-        <v>9.0909090909090912E-2</v>
+        <v>7.0422535211267609E-4</v>
       </c>
       <c r="JK27">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1626760563380282</v>
       </c>
       <c r="JL27">
-        <v>9.0909090909090912E-2</v>
+        <v>3.5211267605633799E-3</v>
       </c>
       <c r="JM27">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5654929577464789</v>
       </c>
     </row>
     <row r="28" spans="1:273" x14ac:dyDescent="0.35">
@@ -15674,37 +15669,37 @@
         <v>27.2</v>
       </c>
       <c r="JC28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JD28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JE28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JF28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JG28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="JH28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JI28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JJ28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JK28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="JL28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="JM28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="29" spans="1:273" x14ac:dyDescent="0.35">
@@ -16135,37 +16130,37 @@
         <v>15.4</v>
       </c>
       <c r="JC29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JD29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JF29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JG29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JH29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JI29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JJ29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JK29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JL29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JM29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:273" x14ac:dyDescent="0.35">
@@ -16620,37 +16615,37 @@
         <v>10.9</v>
       </c>
       <c r="JC30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL30">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM30">
-        <v>1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="31" spans="1:273" x14ac:dyDescent="0.35">
@@ -17114,37 +17109,37 @@
         <v>9.75</v>
       </c>
       <c r="JC31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JD31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JE31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JF31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JG31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JH31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JI31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JJ31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JK31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JL31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JM31">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:273" x14ac:dyDescent="0.35">
@@ -18156,37 +18151,37 @@
         <v>23.65</v>
       </c>
       <c r="JC33">
-        <v>9.0909090909090912E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="JD33">
-        <v>9.0909090909090912E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="JE33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JF33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JG33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JH33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="JI33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JJ33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JK33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JL33">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JM33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="34" spans="1:273" x14ac:dyDescent="0.35">
@@ -18656,37 +18651,37 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="JC34">
-        <v>9.0909090909090912E-2</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="JD34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JE34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JF34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JG34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JH34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JI34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JJ34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JK34">
-        <v>9.0909090909090912E-2</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="JL34">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JM34">
-        <v>9.0909090909090912E-2</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="35" spans="1:273" x14ac:dyDescent="0.35">
@@ -19477,37 +19472,37 @@
         <v>17.25</v>
       </c>
       <c r="JC35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH35">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JI35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM35">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:273" x14ac:dyDescent="0.35">
@@ -20447,37 +20442,37 @@
         <v>19.2</v>
       </c>
       <c r="JC37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="JD37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JE37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JF37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JG37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JH37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JI37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JJ37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JK37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JL37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JM37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:273" x14ac:dyDescent="0.35">
@@ -20947,37 +20942,37 @@
         <v>13.45</v>
       </c>
       <c r="JC38">
-        <v>9.0909090909090912E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="JD38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JE38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JF38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JG38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JH38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JI38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JJ38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JK38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JL38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JM38">
-        <v>9.0909090909090912E-2</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="39" spans="1:273" x14ac:dyDescent="0.35">
@@ -21414,37 +21409,37 @@
         <v>11.15</v>
       </c>
       <c r="JC39">
-        <v>9.0909090909090912E-2</v>
+        <v>0.3125</v>
       </c>
       <c r="JD39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JE39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JF39">
-        <v>9.0909090909090912E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="JG39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JH39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JI39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JJ39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JK39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JL39">
-        <v>9.0909090909090912E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="JM39">
-        <v>9.0909090909090912E-2</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="40" spans="1:273" x14ac:dyDescent="0.35">
@@ -22741,37 +22736,37 @@
         <v>11.5</v>
       </c>
       <c r="JC41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="JD41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.87012987012987009</v>
       </c>
       <c r="JE41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JF41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JG41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JH41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JI41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JJ41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JK41">
-        <v>9.0909090909090912E-2</v>
+        <v>5.1948051948051951E-2</v>
       </c>
       <c r="JL41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JM41">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
     </row>
     <row r="42" spans="1:273" x14ac:dyDescent="0.35">
@@ -23244,37 +23239,37 @@
         <v>8.65</v>
       </c>
       <c r="JC42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JD42">
-        <v>9.0909090909090912E-2</v>
+        <v>2.298850574712644E-2</v>
       </c>
       <c r="JE42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JF42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JG42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JH42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JI42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JJ42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JK42">
-        <v>9.0909090909090912E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="JL42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JM42">
-        <v>9.0909090909090912E-2</v>
+        <v>0.93103448275862066</v>
       </c>
     </row>
     <row r="43" spans="1:273" x14ac:dyDescent="0.35">
@@ -24810,37 +24805,37 @@
         <v>21</v>
       </c>
       <c r="JC45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JD45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.3</v>
       </c>
       <c r="JE45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.3</v>
       </c>
       <c r="JF45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JG45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JH45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JI45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JJ45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JK45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JL45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JM45">
-        <v>9.0909090909090912E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:273" x14ac:dyDescent="0.35">
@@ -25307,37 +25302,37 @@
         <v>25.4</v>
       </c>
       <c r="JC46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="JD46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="JE46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="JF46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JG46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JH46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JI46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JJ46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JK46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JL46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JM46">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="47" spans="1:273" x14ac:dyDescent="0.35">
@@ -25870,37 +25865,37 @@
         <v>26.8</v>
       </c>
       <c r="JC47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JI47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM47">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:273" x14ac:dyDescent="0.35">
@@ -26364,37 +26359,37 @@
         <v>9.25</v>
       </c>
       <c r="JC48">
-        <v>9.0909090909090912E-2</v>
+        <v>3.515625E-2</v>
       </c>
       <c r="JD48">
-        <v>9.0909090909090912E-2</v>
+        <v>9.765625E-3</v>
       </c>
       <c r="JE48">
-        <v>9.0909090909090912E-2</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="JF48">
-        <v>9.0909090909090912E-2</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="JG48">
-        <v>9.0909090909090912E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="JH48">
-        <v>9.0909090909090912E-2</v>
+        <v>5.859375E-3</v>
       </c>
       <c r="JI48">
-        <v>9.0909090909090912E-2</v>
+        <v>0.208984375</v>
       </c>
       <c r="JJ48">
-        <v>9.0909090909090912E-2</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="JK48">
-        <v>9.0909090909090912E-2</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="JL48">
-        <v>9.0909090909090912E-2</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="JM48">
-        <v>9.0909090909090912E-2</v>
+        <v>0.64453125</v>
       </c>
     </row>
     <row r="49" spans="1:273" x14ac:dyDescent="0.35">
@@ -26855,37 +26850,37 @@
         <v>1.5</v>
       </c>
       <c r="JC49">
-        <v>9.0909090909090912E-2</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="JD49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JE49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JF49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JG49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JH49">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JI49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JJ49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JK49">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="JL49">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JM49">
-        <v>9.0909090909090912E-2</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="50" spans="1:273" x14ac:dyDescent="0.35">
@@ -27876,37 +27871,37 @@
         <v>20.2</v>
       </c>
       <c r="JC51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="JD51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JE51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JF51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JG51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JH51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="JI51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JJ51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JK51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JL51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JM51">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:273" x14ac:dyDescent="0.35">
@@ -28370,37 +28365,37 @@
         <v>25.4</v>
       </c>
       <c r="JC52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JI52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL52">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM52">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:273" x14ac:dyDescent="0.35">
@@ -29412,37 +29407,37 @@
         <v>7.85</v>
       </c>
       <c r="JC54">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JD54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JI54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM54">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:273" x14ac:dyDescent="0.35">
@@ -29903,37 +29898,37 @@
         <v>15.15</v>
       </c>
       <c r="JC55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.05</v>
       </c>
       <c r="JD55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.04</v>
       </c>
       <c r="JE55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.01</v>
       </c>
       <c r="JF55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.01</v>
       </c>
       <c r="JG55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.01</v>
       </c>
       <c r="JH55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.01</v>
       </c>
       <c r="JI55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.03</v>
       </c>
       <c r="JJ55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.01</v>
       </c>
       <c r="JK55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.06</v>
       </c>
       <c r="JL55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.01</v>
       </c>
       <c r="JM55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="56" spans="1:273" x14ac:dyDescent="0.35">
@@ -31658,37 +31653,37 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="JC58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JD58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JE58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JF58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JG58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JH58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JI58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JJ58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JK58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JL58">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JM58">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:273" x14ac:dyDescent="0.35">
@@ -32098,37 +32093,37 @@
         <v>24.65</v>
       </c>
       <c r="JC59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JE59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JF59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JG59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JH59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JI59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JJ59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JK59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JL59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JM59">
-        <v>9.0909090909090912E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="60" spans="1:273" x14ac:dyDescent="0.35">
@@ -32568,37 +32563,37 @@
         <v>26.45</v>
       </c>
       <c r="JC60">
-        <v>9.0909090909090912E-2</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="JD60">
-        <v>9.0909090909090912E-2</v>
+        <v>0.21739130434782611</v>
       </c>
       <c r="JE60">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JF60">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JG60">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JH60">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JI60">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JJ60">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JK60">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JL60">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JM60">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="61" spans="1:273" x14ac:dyDescent="0.35">
@@ -33535,37 +33530,37 @@
         <v>2.1</v>
       </c>
       <c r="JC62">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JD62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JE62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JF62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JG62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JH62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JI62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JJ62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JK62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JL62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JM62">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="63" spans="1:273" x14ac:dyDescent="0.35">
@@ -34068,37 +34063,37 @@
         <v>26.3</v>
       </c>
       <c r="JC63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JD63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JE63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JF63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JG63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JH63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JI63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JJ63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JK63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JL63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="JM63">
-        <v>9.0909090909090912E-2</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="64" spans="1:273" x14ac:dyDescent="0.35">
@@ -34538,37 +34533,37 @@
         <v>11.1</v>
       </c>
       <c r="JC64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH64">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JI64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM64">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:273" x14ac:dyDescent="0.35">
@@ -35502,37 +35497,37 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="JC66">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1813224267212002E-2</v>
       </c>
       <c r="JD66">
-        <v>9.0909090909090912E-2</v>
+        <v>1.976823449216087E-2</v>
       </c>
       <c r="JE66">
-        <v>9.0909090909090912E-2</v>
+        <v>0.30470347648261759</v>
       </c>
       <c r="JF66">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3633265167007501E-3</v>
       </c>
       <c r="JG66">
-        <v>9.0909090909090912E-2</v>
+        <v>1.9086571233810499E-2</v>
       </c>
       <c r="JH66">
-        <v>9.0909090909090912E-2</v>
+        <v>2.7266530334015002E-3</v>
       </c>
       <c r="JI66">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0449897750511249E-3</v>
       </c>
       <c r="JJ66">
-        <v>9.0909090909090912E-2</v>
+        <v>3.408316291751875E-3</v>
       </c>
       <c r="JK66">
-        <v>9.0909090909090912E-2</v>
+        <v>2.9311520109066121E-2</v>
       </c>
       <c r="JL66">
-        <v>9.0909090909090912E-2</v>
+        <v>6.8166325835037494E-4</v>
       </c>
       <c r="JM66">
-        <v>9.0909090909090912E-2</v>
+        <v>0.60190865712338104</v>
       </c>
     </row>
     <row r="67" spans="1:273" x14ac:dyDescent="0.35">
@@ -36562,37 +36557,37 @@
         <v>17.75</v>
       </c>
       <c r="JC68">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="JD68">
-        <v>9.0909090909090912E-2</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="JE68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JF68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JG68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JH68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JI68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JJ68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JK68">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="JL68">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JM68">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="69" spans="1:273" x14ac:dyDescent="0.35">
@@ -37038,37 +37033,37 @@
         <v>0</v>
       </c>
       <c r="JC69">
-        <v>9.0909090909090912E-2</v>
+        <v>0.12924619864121639</v>
       </c>
       <c r="JD69">
-        <v>9.0909090909090912E-2</v>
+        <v>4.7395664833387252E-2</v>
       </c>
       <c r="JE69">
-        <v>9.0909090909090912E-2</v>
+        <v>8.9453251374959561E-2</v>
       </c>
       <c r="JF69">
-        <v>9.0909090909090912E-2</v>
+        <v>2.9116790682626979E-3</v>
       </c>
       <c r="JG69">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6027175671303784E-3</v>
       </c>
       <c r="JH69">
-        <v>9.0909090909090912E-2</v>
+        <v>1.7631834357813E-2</v>
       </c>
       <c r="JI69">
-        <v>9.0909090909090912E-2</v>
+        <v>2.3131672597864771E-2</v>
       </c>
       <c r="JJ69">
-        <v>9.0909090909090912E-2</v>
+        <v>8.0879974118408277E-4</v>
       </c>
       <c r="JK69">
-        <v>9.0909090909090912E-2</v>
+        <v>8.2497573600776447E-2</v>
       </c>
       <c r="JL69">
-        <v>9.0909090909090912E-2</v>
+        <v>1.294079585894533E-3</v>
       </c>
       <c r="JM69">
-        <v>9.0909090909090912E-2</v>
+        <v>0.59964412811387902</v>
       </c>
     </row>
   </sheetData>
@@ -37080,17 +37075,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="93.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="2" max="2" width="96.08984375" customWidth="1"/>
+    <col min="3" max="14" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -46050,40 +46043,40 @@
         <v>261</v>
       </c>
       <c r="C247">
-        <v>-0.33619734257272638</v>
+        <v>0.1020925605653708</v>
       </c>
       <c r="D247">
-        <v>5.5556236552755101E-2</v>
+        <v>-3.2168633310410331E-2</v>
       </c>
       <c r="E247">
-        <v>-5.4092670010232519E-2</v>
+        <v>-5.0470492620391813E-2</v>
       </c>
       <c r="F247">
-        <v>-5.3543961925557861E-2</v>
+        <v>0.2353467311223883</v>
       </c>
       <c r="G247">
-        <v>5.5399866395237911E-2</v>
+        <v>-3.2798373803724357E-2</v>
       </c>
       <c r="H247">
-        <v>-7.4229099079760996E-2</v>
+        <v>4.8928624206057439E-2</v>
       </c>
       <c r="I247">
-        <v>-3.5961547110162452E-2</v>
+        <v>-1.5786699749937658E-2</v>
       </c>
       <c r="J247">
-        <v>0.26523942015467672</v>
+        <v>-0.1207989181974059</v>
       </c>
       <c r="K247">
-        <v>-5.415385201431875E-2</v>
+        <v>-5.0749795417058749E-2</v>
       </c>
       <c r="L247">
-        <v>0.12877597222990311</v>
+        <v>-0.1466892032559968</v>
       </c>
       <c r="M247">
-        <v>-3.0447364311216189E-2</v>
+        <v>-7.2006493372572353E-2</v>
       </c>
       <c r="N247">
-        <v>0.20433554355701039</v>
+        <v>-2.5744185099473869E-2</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
@@ -46094,40 +46087,40 @@
         <v>262</v>
       </c>
       <c r="C248">
-        <v>-0.32031795252082262</v>
+        <v>-0.23173500591653501</v>
       </c>
       <c r="D248">
-        <v>6.4096673641753282E-2</v>
+        <v>-2.2026877121673921E-2</v>
       </c>
       <c r="E248">
-        <v>-4.9316221672498377E-2</v>
+        <v>-6.3893842544102672E-2</v>
       </c>
       <c r="F248">
-        <v>-5.5269810930922279E-2</v>
+        <v>2.220257828154943E-2</v>
       </c>
       <c r="G248">
-        <v>6.3851792193568194E-2</v>
+        <v>-1.971823975527957E-2</v>
       </c>
       <c r="H248">
-        <v>9.401330468942836E-4</v>
+        <v>-0.109795605829201</v>
       </c>
       <c r="I248">
-        <v>4.3398081084270929E-2</v>
+        <v>-5.6312039997578479E-2</v>
       </c>
       <c r="J248">
-        <v>0.13525335012140219</v>
+        <v>-6.2216806620292248E-2</v>
       </c>
       <c r="K248">
-        <v>-4.9372472704557142E-2</v>
+        <v>-6.3968988798547163E-2</v>
       </c>
       <c r="L248">
-        <v>9.7269086107123939E-2</v>
+        <v>-0.29357014156243272</v>
       </c>
       <c r="M248">
-        <v>-3.7160027763555571E-2</v>
+        <v>-6.4887676205304903E-2</v>
       </c>
       <c r="N248">
-        <v>0.1356325009466787</v>
+        <v>-3.6960028712060118E-2</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.35">
@@ -46138,40 +46131,40 @@
         <v>263</v>
       </c>
       <c r="C249">
-        <v>-0.263420429713285</v>
+        <v>6.9681688429997238E-2</v>
       </c>
       <c r="D249">
-        <v>0.13827655928450819</v>
+        <v>-9.029184116311674E-2</v>
       </c>
       <c r="E249">
-        <v>-4.1471573621081712E-2</v>
+        <v>-0.1023374002774833</v>
       </c>
       <c r="F249">
-        <v>-5.4125085557085312E-2</v>
+        <v>-9.2902967672254616E-2</v>
       </c>
       <c r="G249">
-        <v>0.13806269408514291</v>
+        <v>-9.0821987048757019E-2</v>
       </c>
       <c r="H249">
-        <v>3.6545506955033009E-2</v>
+        <v>-0.2185809602461064</v>
       </c>
       <c r="I249">
-        <v>0.11993632636780489</v>
+        <v>-0.25930429083352868</v>
       </c>
       <c r="J249">
-        <v>0.18345044215581621</v>
+        <v>-4.9366398547484418E-2</v>
       </c>
       <c r="K249">
-        <v>-4.1533371268857512E-2</v>
+        <v>-0.1022621034669034</v>
       </c>
       <c r="L249">
-        <v>8.8931454370672139E-2</v>
+        <v>-0.16313260650053391</v>
       </c>
       <c r="M249">
-        <v>-3.3563904521083057E-2</v>
+        <v>-3.5967439312134072E-2</v>
       </c>
       <c r="N249">
-        <v>0.25639811755549191</v>
+        <v>4.4269748592370428E-2</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
@@ -46182,40 +46175,40 @@
         <v>264</v>
       </c>
       <c r="C250">
-        <v>-0.28244903209934608</v>
+        <v>4.5063510636592509E-2</v>
       </c>
       <c r="D250">
-        <v>0.1484908244882519</v>
+        <v>-7.2561797025008576E-2</v>
       </c>
       <c r="E250">
-        <v>-3.8617724253102961E-2</v>
+        <v>-9.0694770625029578E-2</v>
       </c>
       <c r="F250">
-        <v>-5.2052737435406837E-2</v>
+        <v>-9.9269885787471715E-2</v>
       </c>
       <c r="G250">
-        <v>0.1483158624290111</v>
+        <v>-7.2922086545568601E-2</v>
       </c>
       <c r="H250">
-        <v>-7.5537507666282575E-2</v>
+        <v>-0.20225203641684231</v>
       </c>
       <c r="I250">
-        <v>-2.9287918497305949E-2</v>
+        <v>-0.25912537320674761</v>
       </c>
       <c r="J250">
-        <v>0.20351796312202231</v>
+        <v>-3.9125953569706308E-2</v>
       </c>
       <c r="K250">
-        <v>-3.8678412930336678E-2</v>
+        <v>-9.0572113534367713E-2</v>
       </c>
       <c r="L250">
-        <v>7.9035264580689171E-2</v>
+        <v>-0.1338433934357966</v>
       </c>
       <c r="M250">
-        <v>-3.5713997877080822E-2</v>
+        <v>-1.471320326107738E-2</v>
       </c>
       <c r="N250">
-        <v>0.18808299077125279</v>
+        <v>5.3805060792313418E-2</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -46226,40 +46219,40 @@
         <v>265</v>
       </c>
       <c r="C251">
-        <v>-0.28644051716523872</v>
+        <v>4.0666073601087781E-2</v>
       </c>
       <c r="D251">
-        <v>0.1511330911217218</v>
+        <v>-6.450364085387679E-2</v>
       </c>
       <c r="E251">
-        <v>-3.5971453526314763E-2</v>
+        <v>-8.8480054962355323E-2</v>
       </c>
       <c r="F251">
-        <v>-4.957281157353826E-2</v>
+        <v>-7.9554963358242775E-2</v>
       </c>
       <c r="G251">
-        <v>0.15098608580133421</v>
+        <v>-6.3956712649167913E-2</v>
       </c>
       <c r="H251">
-        <v>-7.6152468624729408E-2</v>
+        <v>-0.2313607055413385</v>
       </c>
       <c r="I251">
-        <v>-2.979181835996203E-2</v>
+        <v>-0.30084951770833768</v>
       </c>
       <c r="J251">
-        <v>0.1932875462975252</v>
+        <v>-4.8583040856127933E-2</v>
       </c>
       <c r="K251">
-        <v>-3.6029891404050489E-2</v>
+        <v>-8.838340716276398E-2</v>
       </c>
       <c r="L251">
-        <v>7.6230053348472299E-2</v>
+        <v>-0.12085223543184689</v>
       </c>
       <c r="M251">
-        <v>-3.3116548714702758E-2</v>
+        <v>0.2236507093336243</v>
       </c>
       <c r="N251">
-        <v>0.18341050208031831</v>
+        <v>5.7245315153341622E-2</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
@@ -46270,40 +46263,40 @@
         <v>266</v>
       </c>
       <c r="C252">
-        <v>-0.1841170215179932</v>
+        <v>5.496357941437098E-2</v>
       </c>
       <c r="D252">
-        <v>9.4101958116492843E-2</v>
+        <v>2.9457533792746741E-2</v>
       </c>
       <c r="E252">
-        <v>-3.6514024397796399E-2</v>
+        <v>0.21227045748837081</v>
       </c>
       <c r="F252">
-        <v>-4.5262829516579457E-2</v>
+        <v>-8.6702569826204126E-2</v>
       </c>
       <c r="G252">
-        <v>9.3877978048614918E-2</v>
+        <v>2.9193078196438221E-2</v>
       </c>
       <c r="H252">
-        <v>2.3448673330096689E-2</v>
+        <v>-0.22797871539770781</v>
       </c>
       <c r="I252">
-        <v>7.0586949415123709E-2</v>
+        <v>-0.25656818924047442</v>
       </c>
       <c r="J252">
-        <v>0.1507999807222947</v>
+        <v>-8.7050055743557356E-2</v>
       </c>
       <c r="K252">
-        <v>-3.6569006482927879E-2</v>
+        <v>0.21237182042464989</v>
       </c>
       <c r="L252">
-        <v>0.1330885814591779</v>
+        <v>-0.26081265132404102</v>
       </c>
       <c r="M252">
-        <v>-2.19453319593544E-2</v>
+        <v>-5.5282631815669198E-2</v>
       </c>
       <c r="N252">
-        <v>0.13743087275473601</v>
+        <v>1.2401684651237701E-2</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
@@ -46314,40 +46307,40 @@
         <v>267</v>
       </c>
       <c r="C253">
-        <v>-0.23477844536036671</v>
+        <v>4.7017302126996403E-2</v>
       </c>
       <c r="D253">
-        <v>0.1217537436958156</v>
+        <v>-7.5636643524003455E-2</v>
       </c>
       <c r="E253">
-        <v>-4.4527422211191173E-2</v>
+        <v>-9.3358080696032589E-2</v>
       </c>
       <c r="F253">
-        <v>-5.5851586930814823E-2</v>
+        <v>-0.1018328537612133</v>
       </c>
       <c r="G253">
-        <v>0.1214904845189651</v>
+        <v>-7.6023686247624012E-2</v>
       </c>
       <c r="H253">
-        <v>-8.1885305397954092E-2</v>
+        <v>-0.21578037599950539</v>
       </c>
       <c r="I253">
-        <v>-3.3945910084226739E-2</v>
+        <v>-0.27516375757024553</v>
       </c>
       <c r="J253">
-        <v>0.149225581296833</v>
+        <v>-4.2969788795105053E-2</v>
       </c>
       <c r="K253">
-        <v>-4.4591259968094793E-2</v>
+        <v>-9.3238328340415358E-2</v>
       </c>
       <c r="L253">
-        <v>1.913890544094805E-2</v>
+        <v>-0.14743301528525471</v>
       </c>
       <c r="M253">
-        <v>-4.5290321130502111E-2</v>
+        <v>-1.9037206877066049E-2</v>
       </c>
       <c r="N253">
-        <v>0.20873981237538841</v>
+        <v>5.0202969712198481E-2</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
@@ -46358,40 +46351,40 @@
         <v>268</v>
       </c>
       <c r="C254">
-        <v>-0.28581059899571443</v>
+        <v>3.7951653807121163E-2</v>
       </c>
       <c r="D254">
-        <v>0.1515447422875163</v>
+        <v>-6.8376034740460515E-2</v>
       </c>
       <c r="E254">
-        <v>-3.4378950196918737E-2</v>
+        <v>-8.6970892163101304E-2</v>
       </c>
       <c r="F254">
-        <v>-4.7975018871980663E-2</v>
+        <v>-9.5712913089650936E-2</v>
       </c>
       <c r="G254">
-        <v>0.151413005852264</v>
+        <v>-6.8700833121326216E-2</v>
       </c>
       <c r="H254">
-        <v>-7.131527787063982E-2</v>
+        <v>-0.2298008501762937</v>
       </c>
       <c r="I254">
-        <v>-2.7045027162175599E-2</v>
+        <v>-0.28148710948068401</v>
       </c>
       <c r="J254">
-        <v>0.18287968094208121</v>
+        <v>-3.3883572876458691E-2</v>
       </c>
       <c r="K254">
-        <v>-3.4435838415397088E-2</v>
+        <v>-8.6846273102012844E-2</v>
       </c>
       <c r="L254">
-        <v>7.4377614194307218E-2</v>
+        <v>-0.15958005411937959</v>
       </c>
       <c r="M254">
-        <v>-3.2365948892851153E-2</v>
+        <v>-1.5460246837544619E-2</v>
       </c>
       <c r="N254">
-        <v>0.1820685862254528</v>
+        <v>5.8950866938104918E-2</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
@@ -46402,40 +46395,40 @@
         <v>269</v>
       </c>
       <c r="C255">
-        <v>-0.2953216772047344</v>
+        <v>3.2433441007367142E-2</v>
       </c>
       <c r="D255">
-        <v>0.14571437764773509</v>
+        <v>1.1233762468369881E-3</v>
       </c>
       <c r="E255">
-        <v>-4.4831900310982373E-2</v>
+        <v>-0.1138743910881754</v>
       </c>
       <c r="F255">
-        <v>-5.8100901762357292E-2</v>
+        <v>-0.1049087446794635</v>
       </c>
       <c r="G255">
-        <v>0.14549143272240361</v>
+        <v>1.190305085123746E-3</v>
       </c>
       <c r="H255">
-        <v>-7.9731726654116736E-2</v>
+        <v>-0.15832757049533511</v>
       </c>
       <c r="I255">
-        <v>-4.1059361069397511E-2</v>
+        <v>-0.2153702890945233</v>
       </c>
       <c r="J255">
-        <v>0.16424149415848871</v>
+        <v>-4.1583913167556913E-2</v>
       </c>
       <c r="K255">
-        <v>-4.4897687898412558E-2</v>
+        <v>-0.11380428286225119</v>
       </c>
       <c r="L255">
-        <v>6.6010024410218998E-2</v>
+        <v>-0.10878922424645419</v>
       </c>
       <c r="M255">
-        <v>-4.5276417175923102E-2</v>
+        <v>9.8075142725455824E-2</v>
       </c>
       <c r="N255">
-        <v>0.15923180695655401</v>
+        <v>6.3224916210596172E-2</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -46446,40 +46439,40 @@
         <v>270</v>
       </c>
       <c r="C256">
-        <v>-0.28576001597882572</v>
+        <v>3.8142534054319423E-2</v>
       </c>
       <c r="D256">
-        <v>0.15154295945214369</v>
+        <v>-6.8531321003275844E-2</v>
       </c>
       <c r="E256">
-        <v>-3.4436062619835603E-2</v>
+        <v>-8.7116764467540742E-2</v>
       </c>
       <c r="F256">
-        <v>-4.8033236212513993E-2</v>
+        <v>-9.5854870267548659E-2</v>
       </c>
       <c r="G256">
-        <v>0.15141068409828001</v>
+        <v>-6.885736133577855E-2</v>
       </c>
       <c r="H256">
-        <v>-7.145283135836443E-2</v>
+        <v>-0.2293422471302573</v>
       </c>
       <c r="I256">
-        <v>-2.703002815353904E-2</v>
+        <v>-0.2813665457738273</v>
       </c>
       <c r="J256">
-        <v>0.18279950903709441</v>
+        <v>-3.4170480313292152E-2</v>
       </c>
       <c r="K256">
-        <v>-3.4493023425541947E-2</v>
+        <v>-8.6992177152230302E-2</v>
       </c>
       <c r="L256">
-        <v>7.4046420928937123E-2</v>
+        <v>-0.15913551559919581</v>
       </c>
       <c r="M256">
-        <v>-3.2451230946575517E-2</v>
+        <v>-1.5494502727415141E-2</v>
       </c>
       <c r="N256">
-        <v>0.18196098493013779</v>
+        <v>5.8770900295190137E-2</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
@@ -46490,56 +46483,44 @@
         <v>271</v>
       </c>
       <c r="C257">
-        <v>-0.1090728186313932</v>
+        <v>0.191650529816805</v>
       </c>
       <c r="D257">
-        <v>0.23321667673034319</v>
+        <v>6.8247030450241844E-2</v>
       </c>
       <c r="E257">
-        <v>-7.9099428889704809E-2</v>
+        <v>-3.3489218498709721E-2</v>
       </c>
       <c r="F257">
-        <v>-2.8614619890105251E-2</v>
+        <v>-0.14912005056326269</v>
       </c>
       <c r="G257">
-        <v>0.232268699606416</v>
+        <v>6.7111248906791141E-2</v>
       </c>
       <c r="H257">
-        <v>-0.12980720608464361</v>
+        <v>0.2390118283376817</v>
       </c>
       <c r="I257">
-        <v>-5.234072892468921E-2</v>
+        <v>0.19091969715952831</v>
       </c>
       <c r="J257">
-        <v>2.7232038174823149E-2</v>
+        <v>5.0476236473967137E-2</v>
       </c>
       <c r="K257">
-        <v>-7.9217115361124774E-2</v>
+        <v>-3.3648218869295893E-2</v>
       </c>
       <c r="L257">
-        <v>0.13670008150283169</v>
+        <v>0.27163659325524681</v>
       </c>
       <c r="M257">
-        <v>2.479523185181241E-3</v>
+        <v>4.2792456049322497E-2</v>
       </c>
       <c r="N257">
-        <v>0.32745937678202969</v>
+        <v>0.1818697606986012</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -48749,37 +48730,37 @@
         <v>21.65</v>
       </c>
       <c r="JC4">
-        <v>8.2644628099173556E-2</v>
+        <v>0.102827763496144</v>
       </c>
       <c r="JD4">
-        <v>8.2644628099173556E-3</v>
+        <v>8.9974293059125965E-2</v>
       </c>
       <c r="JE4">
-        <v>0.33884297520661161</v>
+        <v>0.11053984575835479</v>
       </c>
       <c r="JF4">
-        <v>8.2644628099173556E-3</v>
+        <v>5.1413881748071976E-3</v>
       </c>
       <c r="JG4">
-        <v>8.2644628099173556E-3</v>
+        <v>1.542416452442159E-2</v>
       </c>
       <c r="JH4">
-        <v>0.1487603305785124</v>
+        <v>8.7403598971722368E-2</v>
       </c>
       <c r="JI4">
-        <v>8.2644628099173556E-3</v>
+        <v>5.1413881748071976E-3</v>
       </c>
       <c r="JJ4">
-        <v>8.2644628099173556E-3</v>
+        <v>2.5706940874035988E-3</v>
       </c>
       <c r="JK4">
-        <v>2.479338842975207E-2</v>
+        <v>0.15424164524421591</v>
       </c>
       <c r="JL4">
-        <v>8.2644628099173556E-3</v>
+        <v>2.5706940874035988E-3</v>
       </c>
       <c r="JM4">
-        <v>0.43801652892561982</v>
+        <v>0.44987146529562982</v>
       </c>
     </row>
     <row r="5" spans="1:273" x14ac:dyDescent="0.35">
@@ -49216,37 +49197,37 @@
         <v>6.35</v>
       </c>
       <c r="JC5">
-        <v>0.125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="JD5">
-        <v>0.875</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JE5">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JF5">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JG5">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JH5">
-        <v>0.125</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI5">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JJ5">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JK5">
-        <v>0.125</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL5">
-        <v>0.125</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="JM5">
-        <v>0.25</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="6" spans="1:273" x14ac:dyDescent="0.35">
@@ -49683,37 +49664,37 @@
         <v>11.95</v>
       </c>
       <c r="JC6">
-        <v>0.58024691358024694</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD6">
-        <v>0.26337448559670779</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE6">
-        <v>2.469135802469136E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF6">
-        <v>4.5267489711934158E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG6">
-        <v>2.469135802469136E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH6">
-        <v>5.3497942386831282E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI6">
-        <v>4.11522633744856E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ6">
-        <v>4.11522633744856E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK6">
-        <v>8.23045267489712E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL6">
-        <v>4.11522633744856E-3</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM6">
-        <v>2.8806584362139918E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="7" spans="1:273" x14ac:dyDescent="0.35">
@@ -50147,37 +50128,37 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="JC7">
-        <v>9.7560975609756101E-2</v>
+        <v>4.6511627906976737E-2</v>
       </c>
       <c r="JD7">
-        <v>2.4390243902439029E-2</v>
+        <v>3.6544850498338867E-2</v>
       </c>
       <c r="JE7">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JF7">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JG7">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JH7">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JI7">
-        <v>4.878048780487805E-2</v>
+        <v>3.6544850498338867E-2</v>
       </c>
       <c r="JJ7">
-        <v>2.4390243902439029E-2</v>
+        <v>3.3222591362126251E-3</v>
       </c>
       <c r="JK7">
-        <v>0.12195121951219511</v>
+        <v>2.9900332225913619E-2</v>
       </c>
       <c r="JL7">
-        <v>2.4390243902439029E-2</v>
+        <v>6.6445182724252493E-3</v>
       </c>
       <c r="JM7">
-        <v>0.80487804878048785</v>
+        <v>0.86046511627906974</v>
       </c>
     </row>
     <row r="8" spans="1:273" x14ac:dyDescent="0.35">
@@ -50674,37 +50655,37 @@
         <v>25</v>
       </c>
       <c r="JC8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG8">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH8">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK8">
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL8">
-        <v>3.03030303030303E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM8">
-        <v>0.90909090909090906</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="9" spans="1:273" x14ac:dyDescent="0.35">
@@ -51177,37 +51158,37 @@
         <v>6.15</v>
       </c>
       <c r="JC9">
-        <v>0.6</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI9">
-        <v>0.4</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL9">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM9">
-        <v>0.4</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="10" spans="1:273" x14ac:dyDescent="0.35">
@@ -51665,37 +51646,37 @@
         <v>24.95</v>
       </c>
       <c r="JC10">
-        <v>0.25</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="JD10">
-        <v>0.25</v>
+        <v>0.10526315789473679</v>
       </c>
       <c r="JE10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JF10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JG10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JH10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JI10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JJ10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JK10">
-        <v>0.25</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="JL10">
-        <v>0.25</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="JM10">
-        <v>1</v>
+        <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="11" spans="1:273" x14ac:dyDescent="0.35">
@@ -52132,37 +52113,37 @@
         <v>-5.35</v>
       </c>
       <c r="JC11">
-        <v>0.3125</v>
+        <v>8.2644628099173556E-2</v>
       </c>
       <c r="JD11">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JE11">
-        <v>3.125E-2</v>
+        <v>0.33884297520661161</v>
       </c>
       <c r="JF11">
-        <v>0.15625</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JG11">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JH11">
-        <v>3.125E-2</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="JI11">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JJ11">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JK11">
-        <v>3.125E-2</v>
+        <v>2.479338842975207E-2</v>
       </c>
       <c r="JL11">
-        <v>3.125E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="JM11">
-        <v>0.59375</v>
+        <v>0.43801652892561982</v>
       </c>
     </row>
     <row r="12" spans="1:273" x14ac:dyDescent="0.35">
@@ -52593,37 +52574,37 @@
         <v>0</v>
       </c>
       <c r="JC12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JD12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JE12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JF12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JG12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JH12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JI12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JJ12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JK12">
-        <v>9.0909090909090912E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="JL12">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="JM12">
-        <v>9.0909090909090912E-2</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="13" spans="1:273" x14ac:dyDescent="0.35">
@@ -53587,37 +53568,37 @@
         <v>8.5</v>
       </c>
       <c r="JC14">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="JD14">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JE14">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JF14">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JG14">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JH14">
-        <v>9.0909090909090912E-2</v>
+        <v>3.9473684210526307E-2</v>
       </c>
       <c r="JI14">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JJ14">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JK14">
-        <v>9.0909090909090912E-2</v>
+        <v>3.9473684210526307E-2</v>
       </c>
       <c r="JL14">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3157894736842099E-2</v>
       </c>
       <c r="JM14">
-        <v>9.0909090909090912E-2</v>
+        <v>0.72368421052631582</v>
       </c>
     </row>
     <row r="15" spans="1:273" x14ac:dyDescent="0.35">
@@ -54063,37 +54044,37 @@
         <v>7.5</v>
       </c>
       <c r="JC15">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="JD15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JE15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JF15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JG15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JH15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JI15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JJ15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JK15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JL15">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="JM15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:273" x14ac:dyDescent="0.35">
@@ -54575,37 +54556,37 @@
         <v>24.55</v>
       </c>
       <c r="JC16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI16">
-        <v>0.4</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL16">
-        <v>0.2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM16">
-        <v>0.8</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="17" spans="1:273" x14ac:dyDescent="0.35">
@@ -55584,37 +55565,37 @@
         <v>13.3</v>
       </c>
       <c r="JC18">
-        <v>9.0909090909090912E-2</v>
+        <v>6.4102564102564097E-2</v>
       </c>
       <c r="JD18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JE18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JF18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JG18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JH18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JI18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JJ18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JK18">
-        <v>9.0909090909090912E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="JL18">
-        <v>9.0909090909090912E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="JM18">
-        <v>9.0909090909090912E-2</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="19" spans="1:273" x14ac:dyDescent="0.35">
@@ -56078,37 +56059,37 @@
         <v>10.7</v>
       </c>
       <c r="JC19">
-        <v>0.5</v>
+        <v>5.0251256281407038E-2</v>
       </c>
       <c r="JD19">
-        <v>0.5</v>
+        <v>1.0050251256281411E-2</v>
       </c>
       <c r="JE19">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JF19">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JG19">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JH19">
-        <v>1</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JI19">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JJ19">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JK19">
-        <v>0.5</v>
+        <v>1.0050251256281411E-2</v>
       </c>
       <c r="JL19">
-        <v>0.5</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="JM19">
-        <v>0.5</v>
+        <v>0.94472361809045224</v>
       </c>
     </row>
     <row r="20" spans="1:273" x14ac:dyDescent="0.35">
@@ -56554,37 +56535,37 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="JC20">
-        <v>9.0909090909090912E-2</v>
+        <v>0.23943661971830979</v>
       </c>
       <c r="JD20">
-        <v>9.0909090909090912E-2</v>
+        <v>1.9014084507042249E-2</v>
       </c>
       <c r="JE20">
-        <v>9.0909090909090912E-2</v>
+        <v>1.408450704225352E-3</v>
       </c>
       <c r="JF20">
-        <v>9.0909090909090912E-2</v>
+        <v>7.0422535211267609E-4</v>
       </c>
       <c r="JG20">
-        <v>9.0909090909090912E-2</v>
+        <v>7.0422535211267609E-4</v>
       </c>
       <c r="JH20">
-        <v>9.0909090909090912E-2</v>
+        <v>2.8169014084507039E-3</v>
       </c>
       <c r="JI20">
-        <v>9.0909090909090912E-2</v>
+        <v>1.0563380281690141E-2</v>
       </c>
       <c r="JJ20">
-        <v>9.0909090909090912E-2</v>
+        <v>7.0422535211267609E-4</v>
       </c>
       <c r="JK20">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1626760563380282</v>
       </c>
       <c r="JL20">
-        <v>9.0909090909090912E-2</v>
+        <v>3.5211267605633799E-3</v>
       </c>
       <c r="JM20">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5654929577464789</v>
       </c>
     </row>
     <row r="21" spans="1:273" x14ac:dyDescent="0.35">
@@ -57039,37 +57020,37 @@
         <v>10.9</v>
       </c>
       <c r="JC21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JD21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JE21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JF21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JG21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JH21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JI21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JJ21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JK21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JL21">
-        <v>0.5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="JM21">
-        <v>1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="22" spans="1:273" x14ac:dyDescent="0.35">
@@ -58081,37 +58062,37 @@
         <v>23.65</v>
       </c>
       <c r="JC23">
-        <v>9.0909090909090912E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="JD23">
-        <v>9.0909090909090912E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="JE23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JF23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JG23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JH23">
-        <v>9.0909090909090912E-2</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="JI23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JJ23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JK23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JL23">
-        <v>9.0909090909090912E-2</v>
+        <v>3.7037037037037028E-2</v>
       </c>
       <c r="JM23">
-        <v>9.0909090909090912E-2</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="24" spans="1:273" x14ac:dyDescent="0.35">
@@ -58581,37 +58562,37 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="JC24">
-        <v>9.0909090909090912E-2</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="JD24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JE24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JF24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JG24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JH24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JI24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JJ24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JK24">
-        <v>9.0909090909090912E-2</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="JL24">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="JM24">
-        <v>9.0909090909090912E-2</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="25" spans="1:273" x14ac:dyDescent="0.35">
@@ -59081,37 +59062,37 @@
         <v>13.45</v>
       </c>
       <c r="JC25">
-        <v>9.0909090909090912E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="JD25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JE25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JF25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JG25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JH25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JI25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JJ25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JK25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JL25">
-        <v>9.0909090909090912E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="JM25">
-        <v>9.0909090909090912E-2</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="26" spans="1:273" x14ac:dyDescent="0.35">
@@ -59902,37 +59883,37 @@
         <v>11.5</v>
       </c>
       <c r="JC26">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="JD26">
-        <v>9.0909090909090912E-2</v>
+        <v>0.87012987012987009</v>
       </c>
       <c r="JE26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JF26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JG26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JH26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JI26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JJ26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JK26">
-        <v>9.0909090909090912E-2</v>
+        <v>5.1948051948051951E-2</v>
       </c>
       <c r="JL26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="JM26">
-        <v>9.0909090909090912E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
     </row>
     <row r="27" spans="1:273" x14ac:dyDescent="0.35">
@@ -60405,37 +60386,37 @@
         <v>8.65</v>
       </c>
       <c r="JC27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JD27">
-        <v>9.0909090909090912E-2</v>
+        <v>2.298850574712644E-2</v>
       </c>
       <c r="JE27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JF27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JG27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JH27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JI27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JJ27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JK27">
-        <v>9.0909090909090912E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="JL27">
-        <v>9.0909090909090912E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="JM27">
-        <v>9.0909090909090912E-2</v>
+        <v>0.93103448275862066</v>
       </c>
     </row>
     <row r="28" spans="1:273" x14ac:dyDescent="0.35">
@@ -60917,37 +60898,37 @@
         <v>21</v>
       </c>
       <c r="JC28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JD28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.3</v>
       </c>
       <c r="JE28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.3</v>
       </c>
       <c r="JF28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JG28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JH28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JI28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JJ28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JK28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JL28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="JM28">
-        <v>9.0909090909090912E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:273" x14ac:dyDescent="0.35">
@@ -61414,37 +61395,37 @@
         <v>25.4</v>
       </c>
       <c r="JC29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="JD29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="JE29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="JF29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JG29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JH29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JI29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JJ29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JK29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JL29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="JM29">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:273" x14ac:dyDescent="0.35">
@@ -61977,37 +61958,37 @@
         <v>26.8</v>
       </c>
       <c r="JC30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JI30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL30">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM30">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:273" x14ac:dyDescent="0.35">
@@ -62471,37 +62452,37 @@
         <v>9.25</v>
       </c>
       <c r="JC31">
-        <v>9.0909090909090912E-2</v>
+        <v>3.515625E-2</v>
       </c>
       <c r="JD31">
-        <v>9.0909090909090912E-2</v>
+        <v>9.765625E-3</v>
       </c>
       <c r="JE31">
-        <v>9.0909090909090912E-2</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="JF31">
-        <v>9.0909090909090912E-2</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="JG31">
-        <v>9.0909090909090912E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="JH31">
-        <v>9.0909090909090912E-2</v>
+        <v>5.859375E-3</v>
       </c>
       <c r="JI31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.208984375</v>
       </c>
       <c r="JJ31">
-        <v>9.0909090909090912E-2</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="JK31">
-        <v>9.0909090909090912E-2</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="JL31">
-        <v>9.0909090909090912E-2</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="JM31">
-        <v>9.0909090909090912E-2</v>
+        <v>0.64453125</v>
       </c>
     </row>
     <row r="32" spans="1:273" x14ac:dyDescent="0.35">
@@ -62989,37 +62970,37 @@
         <v>20.2</v>
       </c>
       <c r="JC32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="JD32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JE32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JF32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JG32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JH32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="JI32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JJ32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JK32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JL32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JM32">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:273" x14ac:dyDescent="0.35">
@@ -63447,37 +63428,37 @@
         <v>7.85</v>
       </c>
       <c r="JC33">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JD33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JI33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM33">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:273" x14ac:dyDescent="0.35">
@@ -65202,37 +65183,37 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="JC36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JD36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JE36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JF36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JG36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JH36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JI36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JJ36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JK36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JL36">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="JM36">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:273" x14ac:dyDescent="0.35">
@@ -65642,37 +65623,37 @@
         <v>24.65</v>
       </c>
       <c r="JC37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JE37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JF37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JG37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JH37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JI37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JJ37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JK37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JL37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="JM37">
-        <v>9.0909090909090912E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:273" x14ac:dyDescent="0.35">
@@ -66112,37 +66093,37 @@
         <v>26.45</v>
       </c>
       <c r="JC38">
-        <v>9.0909090909090912E-2</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="JD38">
-        <v>9.0909090909090912E-2</v>
+        <v>0.21739130434782611</v>
       </c>
       <c r="JE38">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JF38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JG38">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JH38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JI38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JJ38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JK38">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="JL38">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="JM38">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="39" spans="1:273" x14ac:dyDescent="0.35">
@@ -67079,37 +67060,37 @@
         <v>2.1</v>
       </c>
       <c r="JC40">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JD40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JE40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JF40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JG40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JH40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JI40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JJ40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JK40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JL40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="JM40">
-        <v>9.0909090909090912E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:273" x14ac:dyDescent="0.35">
@@ -67549,37 +67530,37 @@
         <v>11.1</v>
       </c>
       <c r="JC41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JD41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JE41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JF41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JG41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JH41">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
       <c r="JI41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JJ41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JK41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JL41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="JM41">
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:273" x14ac:dyDescent="0.35">
@@ -68019,37 +68000,37 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="JC42">
-        <v>9.0909090909090912E-2</v>
+        <v>2.1813224267212002E-2</v>
       </c>
       <c r="JD42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.976823449216087E-2</v>
       </c>
       <c r="JE42">
-        <v>9.0909090909090912E-2</v>
+        <v>0.30470347648261759</v>
       </c>
       <c r="JF42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.3633265167007501E-3</v>
       </c>
       <c r="JG42">
-        <v>9.0909090909090912E-2</v>
+        <v>1.9086571233810499E-2</v>
       </c>
       <c r="JH42">
-        <v>9.0909090909090912E-2</v>
+        <v>2.7266530334015002E-3</v>
       </c>
       <c r="JI42">
-        <v>9.0909090909090912E-2</v>
+        <v>2.0449897750511249E-3</v>
       </c>
       <c r="JJ42">
-        <v>9.0909090909090912E-2</v>
+        <v>3.408316291751875E-3</v>
       </c>
       <c r="JK42">
-        <v>9.0909090909090912E-2</v>
+        <v>2.9311520109066121E-2</v>
       </c>
       <c r="JL42">
-        <v>9.0909090909090912E-2</v>
+        <v>6.8166325835037494E-4</v>
       </c>
       <c r="JM42">
-        <v>9.0909090909090912E-2</v>
+        <v>0.60190865712338104</v>
       </c>
     </row>
     <row r="43" spans="1:273" x14ac:dyDescent="0.35">
@@ -68495,37 +68476,37 @@
         <v>0</v>
       </c>
       <c r="JC43">
-        <v>9.0909090909090912E-2</v>
+        <v>0.12924619864121639</v>
       </c>
       <c r="JD43">
-        <v>9.0909090909090912E-2</v>
+        <v>4.7395664833387252E-2</v>
       </c>
       <c r="JE43">
-        <v>9.0909090909090912E-2</v>
+        <v>8.9453251374959561E-2</v>
       </c>
       <c r="JF43">
-        <v>9.0909090909090912E-2</v>
+        <v>2.9116790682626979E-3</v>
       </c>
       <c r="JG43">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6027175671303784E-3</v>
       </c>
       <c r="JH43">
-        <v>9.0909090909090912E-2</v>
+        <v>1.7631834357813E-2</v>
       </c>
       <c r="JI43">
-        <v>9.0909090909090912E-2</v>
+        <v>2.3131672597864771E-2</v>
       </c>
       <c r="JJ43">
-        <v>9.0909090909090912E-2</v>
+        <v>8.0879974118408277E-4</v>
       </c>
       <c r="JK43">
-        <v>9.0909090909090912E-2</v>
+        <v>8.2497573600776447E-2</v>
       </c>
       <c r="JL43">
-        <v>9.0909090909090912E-2</v>
+        <v>1.294079585894533E-3</v>
       </c>
       <c r="JM43">
-        <v>9.0909090909090912E-2</v>
+        <v>0.59964412811387902</v>
       </c>
     </row>
   </sheetData>
@@ -68537,16 +68518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="93.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="103" customWidth="1"/>
+    <col min="3" max="14" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -76786,40 +76766,40 @@
         <v>261</v>
       </c>
       <c r="C247">
-        <v>-9.2417703337183701E-2</v>
+        <v>-9.827108893578998E-2</v>
       </c>
       <c r="D247">
-        <v>5.9692433320967749E-2</v>
+        <v>-3.4046147085243707E-2</v>
       </c>
       <c r="E247">
-        <v>-8.9059451890822955E-2</v>
+        <v>-6.2677896182176937E-2</v>
       </c>
       <c r="F247">
-        <v>-7.4282324514814133E-2</v>
+        <v>0.27802204313366907</v>
       </c>
       <c r="G247">
-        <v>5.9599362225272033E-2</v>
+        <v>-3.3914744574373032E-2</v>
       </c>
       <c r="H247">
-        <v>8.5321938598693775E-3</v>
+        <v>-0.12526271877024531</v>
       </c>
       <c r="I247">
-        <v>4.3866245825384433E-2</v>
+        <v>-0.18044420893324409</v>
       </c>
       <c r="J247">
-        <v>0.36640158509429449</v>
+        <v>-0.13564876779053561</v>
       </c>
       <c r="K247">
-        <v>-8.9158689845645733E-2</v>
+        <v>-6.3001483686213555E-2</v>
       </c>
       <c r="L247">
-        <v>0.19318877866385431</v>
+        <v>-0.201513156942077</v>
       </c>
       <c r="M247">
-        <v>0.252041109221184</v>
+        <v>-0.2177765130747025</v>
       </c>
       <c r="N247">
-        <v>0.25336961037677269</v>
+        <v>-4.5341159596340462E-2</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
@@ -76830,40 +76810,40 @@
         <v>262</v>
       </c>
       <c r="C248">
-        <v>-6.3586886429583656E-2</v>
+        <v>-6.3848469919037976E-2</v>
       </c>
       <c r="D248">
-        <v>7.9347544837249429E-2</v>
+        <v>-4.5025433244086553E-2</v>
       </c>
       <c r="E248">
-        <v>-6.6695884515730289E-2</v>
+        <v>-6.7309585542430855E-2</v>
       </c>
       <c r="F248">
-        <v>-5.6184064035679569E-2</v>
+        <v>5.733224290500865E-2</v>
       </c>
       <c r="G248">
-        <v>7.9271040727424691E-2</v>
+        <v>-4.4951543945160093E-2</v>
       </c>
       <c r="H248">
-        <v>0.21559003580053779</v>
+        <v>-0.15492355424813861</v>
       </c>
       <c r="I248">
-        <v>0.2390533630684526</v>
+        <v>-3.867359544604039E-2</v>
       </c>
       <c r="J248">
-        <v>0.19889334455362381</v>
+        <v>-7.6780779219935452E-2</v>
       </c>
       <c r="K248">
-        <v>-6.6775709567167413E-2</v>
+        <v>-6.7401449688802961E-2</v>
       </c>
       <c r="L248">
-        <v>0.15401355883914011</v>
+        <v>-0.28079046724230272</v>
       </c>
       <c r="M248">
-        <v>0.20869423500050591</v>
+        <v>-0.25350432631723852</v>
       </c>
       <c r="N248">
-        <v>0.17563624328562291</v>
+        <v>1.165100649598633E-2</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.35">
@@ -76874,40 +76854,40 @@
         <v>263</v>
       </c>
       <c r="C249">
-        <v>-0.132335476302362</v>
+        <v>-0.1109526914840024</v>
       </c>
       <c r="D249">
-        <v>0.14805564062398821</v>
+        <v>-0.1042080335589441</v>
       </c>
       <c r="E249">
-        <v>-6.8291650828583544E-2</v>
+        <v>-0.12709850798558439</v>
       </c>
       <c r="F249">
-        <v>-5.867868204532168E-2</v>
+        <v>-0.10771915281519021</v>
       </c>
       <c r="G249">
-        <v>0.14796447594065959</v>
+        <v>-0.1041123050363278</v>
       </c>
       <c r="H249">
-        <v>0.1198621924672344</v>
+        <v>-0.40136316391622839</v>
       </c>
       <c r="I249">
-        <v>0.22476417074566399</v>
+        <v>-0.41040986319290629</v>
       </c>
       <c r="J249">
-        <v>0.1936925958705733</v>
+        <v>-6.3513609210874428E-2</v>
       </c>
       <c r="K249">
-        <v>-6.8384640846335734E-2</v>
+        <v>-0.1270099114062114</v>
       </c>
       <c r="L249">
-        <v>8.391066739143907E-2</v>
+        <v>-0.1576908630588251</v>
       </c>
       <c r="M249">
-        <v>0.15360534759976191</v>
+        <v>-0.18989463530496409</v>
       </c>
       <c r="N249">
-        <v>0.26587806711867229</v>
+        <v>8.1127880353041734E-2</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
@@ -76918,40 +76898,40 @@
         <v>264</v>
       </c>
       <c r="C250">
-        <v>-0.1481593172688451</v>
+        <v>-0.1226795888951292</v>
       </c>
       <c r="D250">
-        <v>0.16488965085329371</v>
+        <v>-6.5275587453600126E-2</v>
       </c>
       <c r="E250">
-        <v>-6.304907366593078E-2</v>
+        <v>-9.6044641602117259E-2</v>
       </c>
       <c r="F250">
-        <v>-5.4623360676195387E-2</v>
+        <v>-0.10511887760097639</v>
       </c>
       <c r="G250">
-        <v>0.16480008028712331</v>
+        <v>-6.5147152259828131E-2</v>
       </c>
       <c r="H250">
-        <v>-4.1965407979777193E-2</v>
+        <v>-0.38529679860684279</v>
       </c>
       <c r="I250">
-        <v>1.0467164533845229E-2</v>
+        <v>-0.40901208905211989</v>
       </c>
       <c r="J250">
-        <v>0.22552695999785111</v>
+        <v>-2.3281284515887929E-2</v>
       </c>
       <c r="K250">
-        <v>-6.313979447278352E-2</v>
+        <v>-9.5880154270893608E-2</v>
       </c>
       <c r="L250">
-        <v>6.3480985628640504E-2</v>
+        <v>-0.16497587985226619</v>
       </c>
       <c r="M250">
-        <v>0.1083087115584247</v>
+        <v>-0.1737748888669379</v>
       </c>
       <c r="N250">
-        <v>0.18412798198975119</v>
+        <v>0.1271272577209015</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -76962,40 +76942,40 @@
         <v>265</v>
       </c>
       <c r="C251">
-        <v>-0.15070804710535171</v>
+        <v>-0.11935786393888891</v>
       </c>
       <c r="D251">
-        <v>0.1694604769866605</v>
+        <v>-6.7420376342182953E-2</v>
       </c>
       <c r="E251">
-        <v>-5.7261590666503097E-2</v>
+        <v>-9.5626226812609294E-2</v>
       </c>
       <c r="F251">
-        <v>-4.9948656505994733E-2</v>
+        <v>-8.1946965573975628E-2</v>
       </c>
       <c r="G251">
-        <v>0.169375343463115</v>
+        <v>-6.7292427095946003E-2</v>
       </c>
       <c r="H251">
-        <v>-3.6677211406144418E-2</v>
+        <v>-0.37681874999611559</v>
       </c>
       <c r="I251">
-        <v>1.503169306746369E-2</v>
+        <v>-0.4013922121792049</v>
       </c>
       <c r="J251">
-        <v>0.214859362087258</v>
+        <v>-2.3993763200476002E-2</v>
       </c>
       <c r="K251">
-        <v>-5.7347154800082387E-2</v>
+        <v>-9.5487515298848538E-2</v>
       </c>
       <c r="L251">
-        <v>5.9225894117999667E-2</v>
+        <v>-0.16916299381772659</v>
       </c>
       <c r="M251">
-        <v>0.1090199742993853</v>
+        <v>-0.17800284191963739</v>
       </c>
       <c r="N251">
-        <v>0.18157160237928671</v>
+        <v>0.127544983460153</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
@@ -77006,40 +76986,40 @@
         <v>266</v>
       </c>
       <c r="C252">
-        <v>-8.9209631339541129E-2</v>
+        <v>-0.1126325098181962</v>
       </c>
       <c r="D252">
-        <v>8.7231920956433701E-2</v>
+        <v>4.8940217935807918E-2</v>
       </c>
       <c r="E252">
-        <v>-5.6632753956117207E-2</v>
+        <v>0.27354028757299392</v>
       </c>
       <c r="F252">
-        <v>-4.7976363979300413E-2</v>
+        <v>-9.996464235984355E-2</v>
       </c>
       <c r="G252">
-        <v>8.7162594872272708E-2</v>
+        <v>4.9311688333217557E-2</v>
       </c>
       <c r="H252">
-        <v>6.4065500297372555E-2</v>
+        <v>-0.42313646650919751</v>
       </c>
       <c r="I252">
-        <v>0.11498841171388829</v>
+        <v>-0.42614353554068962</v>
       </c>
       <c r="J252">
-        <v>0.142847033592581</v>
+        <v>-0.1046455794304849</v>
       </c>
       <c r="K252">
-        <v>-5.6709215942495332E-2</v>
+        <v>0.27367308258779161</v>
       </c>
       <c r="L252">
-        <v>0.16529326398631011</v>
+        <v>-0.33409081991500222</v>
       </c>
       <c r="M252">
-        <v>0.1843785110478201</v>
+        <v>-0.32526620548629692</v>
       </c>
       <c r="N252">
-        <v>0.1118195836720329</v>
+        <v>4.0083538380774143E-2</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
@@ -77050,40 +77030,40 @@
         <v>267</v>
       </c>
       <c r="C253">
-        <v>-0.1372787966775009</v>
+        <v>-0.1239061096813876</v>
       </c>
       <c r="D253">
-        <v>0.13011839919686041</v>
+        <v>-7.5622660718634771E-2</v>
       </c>
       <c r="E253">
-        <v>-6.441814633922717E-2</v>
+        <v>-0.1057308681476669</v>
       </c>
       <c r="F253">
-        <v>-5.5193257584238278E-2</v>
+        <v>-0.1131960417034335</v>
       </c>
       <c r="G253">
-        <v>0.13003431582292241</v>
+        <v>-7.5499777135082741E-2</v>
       </c>
       <c r="H253">
-        <v>-5.1711452830729317E-2</v>
+        <v>-0.36855545265558692</v>
       </c>
       <c r="I253">
-        <v>-1.6483311046645289E-2</v>
+        <v>-0.40655474035416722</v>
       </c>
       <c r="J253">
-        <v>0.16306022455342281</v>
+        <v>-3.9790431723022122E-2</v>
       </c>
       <c r="K253">
-        <v>-6.4504205240830323E-2</v>
+        <v>-0.1055746290510151</v>
       </c>
       <c r="L253">
-        <v>2.775485279032805E-2</v>
+        <v>-0.14305776228385589</v>
       </c>
       <c r="M253">
-        <v>8.4375200009786461E-2</v>
+        <v>-0.16178838398960699</v>
       </c>
       <c r="N253">
-        <v>0.2205182081423421</v>
+        <v>0.1092130254780907</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
@@ -77094,40 +77074,40 @@
         <v>268</v>
       </c>
       <c r="C254">
-        <v>-0.14711605759803939</v>
+        <v>-0.12293169875154369</v>
       </c>
       <c r="D254">
-        <v>0.1702239394157781</v>
+        <v>-6.4562033560513765E-2</v>
       </c>
       <c r="E254">
-        <v>-5.4331806288891837E-2</v>
+        <v>-9.5329687438701294E-2</v>
       </c>
       <c r="F254">
-        <v>-4.7546571188316657E-2</v>
+        <v>-0.10448384851240219</v>
       </c>
       <c r="G254">
-        <v>0.1701413110960506</v>
+        <v>-6.4433405829071505E-2</v>
       </c>
       <c r="H254">
-        <v>-2.7732632790844688E-2</v>
+        <v>-0.38652660364640601</v>
       </c>
       <c r="I254">
-        <v>2.126604954544567E-2</v>
+        <v>-0.41080748686291729</v>
       </c>
       <c r="J254">
-        <v>0.2018639336579251</v>
+        <v>-2.3258886119929489E-2</v>
       </c>
       <c r="K254">
-        <v>-5.441456972026186E-2</v>
+        <v>-9.5164862642650533E-2</v>
       </c>
       <c r="L254">
-        <v>5.4077002527438231E-2</v>
+        <v>-0.1659300776884168</v>
       </c>
       <c r="M254">
-        <v>9.9040795485094799E-2</v>
+        <v>-0.17423686796660079</v>
       </c>
       <c r="N254">
-        <v>0.180635924071501</v>
+        <v>0.12731188091943421</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
@@ -77138,40 +77118,40 @@
         <v>269</v>
       </c>
       <c r="C255">
-        <v>-0.1525727338048653</v>
+        <v>-0.1973284149347552</v>
       </c>
       <c r="D255">
-        <v>0.16647132674849771</v>
+        <v>1.299164345583011E-2</v>
       </c>
       <c r="E255">
-        <v>-6.2494715856771993E-2</v>
+        <v>-0.13571667124327011</v>
       </c>
       <c r="F255">
-        <v>-5.4166509632302663E-2</v>
+        <v>-0.116923810529142</v>
       </c>
       <c r="G255">
-        <v>0.1663819544882538</v>
+        <v>1.3079042165022771E-2</v>
       </c>
       <c r="H255">
-        <v>-6.0864978210403986E-3</v>
+        <v>-0.28746328455688841</v>
       </c>
       <c r="I255">
-        <v>3.3807233637356757E-2</v>
+        <v>-0.30750590422298107</v>
       </c>
       <c r="J255">
-        <v>0.19514131988197431</v>
+        <v>-3.675908902885288E-2</v>
       </c>
       <c r="K255">
-        <v>-6.2585442246957876E-2</v>
+        <v>-0.13562423466557469</v>
       </c>
       <c r="L255">
-        <v>9.3437605333963364E-2</v>
+        <v>-0.1153036835857342</v>
       </c>
       <c r="M255">
-        <v>0.13048044602612191</v>
+        <v>-0.1545447280436511</v>
       </c>
       <c r="N255">
-        <v>0.17281227684748371</v>
+        <v>0.10341508160894319</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -77182,40 +77162,40 @@
         <v>270</v>
       </c>
       <c r="C256">
-        <v>-0.14711605759803939</v>
+        <v>-0.1229568249302968</v>
       </c>
       <c r="D256">
-        <v>0.1702239394157781</v>
+        <v>-6.4834151330928486E-2</v>
       </c>
       <c r="E256">
-        <v>-5.4331806288891837E-2</v>
+        <v>-9.5606054994469114E-2</v>
       </c>
       <c r="F256">
-        <v>-4.7546571188316657E-2</v>
+        <v>-0.10472710216865271</v>
       </c>
       <c r="G256">
-        <v>0.1701413110960506</v>
+        <v>-6.470557557787239E-2</v>
       </c>
       <c r="H256">
-        <v>-2.7732632790844688E-2</v>
+        <v>-0.38610849446939738</v>
       </c>
       <c r="I256">
-        <v>2.126604954544567E-2</v>
+        <v>-0.41091366949858982</v>
       </c>
       <c r="J256">
-        <v>0.2018639336579251</v>
+        <v>-2.3747612217107861E-2</v>
       </c>
       <c r="K256">
-        <v>-5.441456972026186E-2</v>
+        <v>-9.5441289241140773E-2</v>
       </c>
       <c r="L256">
-        <v>5.4077002527438231E-2</v>
+        <v>-0.1650671833460878</v>
       </c>
       <c r="M256">
-        <v>9.9040795485094799E-2</v>
+        <v>-0.1736546195388334</v>
       </c>
       <c r="N256">
-        <v>0.180635924071501</v>
+        <v>0.1269970855082351</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
@@ -77226,40 +77206,40 @@
         <v>271</v>
       </c>
       <c r="C257">
-        <v>-0.30254876091860872</v>
+        <v>-0.1880586372525668</v>
       </c>
       <c r="D257">
-        <v>0.29027969593217862</v>
+        <v>7.6581001202606663E-2</v>
       </c>
       <c r="E257">
-        <v>-0.1075618830488573</v>
+        <v>-6.7418099570299025E-2</v>
       </c>
       <c r="F257">
-        <v>-9.3471548017253062E-2</v>
+        <v>-0.1891759048689283</v>
       </c>
       <c r="G257">
-        <v>0.29012654791154929</v>
+        <v>7.6493855995913726E-2</v>
       </c>
       <c r="H257">
-        <v>-0.1011733541642334</v>
+        <v>0.13653167669675861</v>
       </c>
       <c r="I257">
-        <v>-4.9404448910622699E-2</v>
+        <v>0.1143489498999522</v>
       </c>
       <c r="J257">
-        <v>3.3914160283464563E-2</v>
+        <v>1.5362200838148481E-2</v>
       </c>
       <c r="K257">
-        <v>-0.1077101860340996</v>
+        <v>-6.765285790842912E-2</v>
       </c>
       <c r="L257">
-        <v>8.8171539013235573E-2</v>
+        <v>0.40965728269539448</v>
       </c>
       <c r="M257">
-        <v>0.21580341770122791</v>
+        <v>0.28707935067148732</v>
       </c>
       <c r="N257">
-        <v>0.3858874328628833</v>
+        <v>0.1879425581051026</v>
       </c>
     </row>
   </sheetData>

--- a/results/correlation.xlsx
+++ b/results/correlation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8CCF45-4059-49E1-8004-2444AC035FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEA70A-8673-4F7A-B6B3-B950F993F052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="341">
   <si>
     <t>Country</t>
   </si>
@@ -45913,9 +45913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:JM43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:273" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -67166,11 +67171,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P257"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F242" sqref="F242"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70328,5963 +70333,4951 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C64">
+        <v>5.8283352341516492E-2</v>
+      </c>
+      <c r="D64">
+        <v>-0.17491259884500521</v>
+      </c>
+      <c r="E64">
+        <v>-0.19615102815694921</v>
+      </c>
+      <c r="F64">
+        <v>-0.15263522666908641</v>
+      </c>
+      <c r="G64">
+        <v>0.1120279585701832</v>
+      </c>
+      <c r="H64">
+        <v>0.1643446003909074</v>
+      </c>
+      <c r="I64">
+        <v>-0.17508683491095331</v>
+      </c>
+      <c r="J64">
+        <v>0.50238093090684277</v>
+      </c>
+      <c r="K64">
+        <v>0.49840563155844758</v>
+      </c>
+      <c r="L64">
+        <v>-7.8342822957654296E-2</v>
+      </c>
+      <c r="M64">
+        <v>-0.1969220920950403</v>
+      </c>
+      <c r="N64">
+        <v>0.28645383899004501</v>
+      </c>
+      <c r="O64">
+        <v>0.28658624799410132</v>
+      </c>
+      <c r="P64">
+        <v>-3.389924450533964E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="C65">
+        <v>-2.0421920222159679E-2</v>
+      </c>
+      <c r="D65">
+        <v>-0.1355467949652959</v>
+      </c>
+      <c r="E65">
+        <v>-0.26301257976039072</v>
+      </c>
+      <c r="F65">
+        <v>-0.1013583888444033</v>
+      </c>
+      <c r="G65">
+        <v>6.8326032012318544E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.13232792800822099</v>
+      </c>
+      <c r="I65">
+        <v>-0.13581285489188161</v>
+      </c>
+      <c r="J65">
+        <v>0.4598866604991263</v>
+      </c>
+      <c r="K65">
+        <v>0.46470967579907307</v>
+      </c>
+      <c r="L65">
+        <v>-9.0196166390404536E-2</v>
+      </c>
+      <c r="M65">
+        <v>-0.26391311804884232</v>
+      </c>
+      <c r="N65">
+        <v>0.24528982607007341</v>
+      </c>
+      <c r="O65">
+        <v>0.2280530946398672</v>
+      </c>
+      <c r="P65">
+        <v>-6.8593132800200116E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="C66">
+        <v>0.1100844977600559</v>
+      </c>
+      <c r="D66">
+        <v>1.0653564294303169E-2</v>
+      </c>
+      <c r="E66">
+        <v>9.0078765258839483E-2</v>
+      </c>
+      <c r="F66">
+        <v>2.6449892821619581E-2</v>
+      </c>
+      <c r="G66">
+        <v>-7.4788303638951226E-2</v>
+      </c>
+      <c r="H66">
+        <v>-0.1515065101867098</v>
+      </c>
+      <c r="I66">
+        <v>1.0880940350746139E-2</v>
+      </c>
+      <c r="J66">
+        <v>-0.37719089732419359</v>
+      </c>
+      <c r="K66">
+        <v>-0.38077546531968109</v>
+      </c>
+      <c r="L66">
+        <v>4.4782446022872083E-2</v>
+      </c>
+      <c r="M66">
+        <v>9.1313353745684639E-2</v>
+      </c>
+      <c r="N66">
+        <v>-9.5792700676653075E-2</v>
+      </c>
+      <c r="O66">
+        <v>-6.3456259145087415E-2</v>
+      </c>
+      <c r="P66">
+        <v>0.21438724551845251</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="C67">
+        <v>4.06736075845891E-2</v>
+      </c>
+      <c r="D67">
+        <v>-0.15562186947635751</v>
+      </c>
+      <c r="E67">
+        <v>-0.19987668788795401</v>
+      </c>
+      <c r="F67">
+        <v>-0.1340942563626833</v>
+      </c>
+      <c r="G67">
+        <v>0.1056153287743109</v>
+      </c>
+      <c r="H67">
+        <v>0.16183796220391991</v>
+      </c>
+      <c r="I67">
+        <v>-0.15583459755106391</v>
+      </c>
+      <c r="J67">
+        <v>0.52615968262191892</v>
+      </c>
+      <c r="K67">
+        <v>0.52007381165639177</v>
+      </c>
+      <c r="L67">
+        <v>-0.10454065240397881</v>
+      </c>
+      <c r="M67">
+        <v>-0.20071613580235839</v>
+      </c>
+      <c r="N67">
+        <v>0.29500510835460902</v>
+      </c>
+      <c r="O67">
+        <v>0.27531929125643728</v>
+      </c>
+      <c r="P67">
+        <v>-4.9879237828438693E-2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="C68">
+        <v>6.3315298627779123E-3</v>
+      </c>
+      <c r="D68">
+        <v>-0.1321452219149902</v>
+      </c>
+      <c r="E68">
+        <v>-0.229730786779721</v>
+      </c>
+      <c r="F68">
+        <v>-0.1039897300987784</v>
+      </c>
+      <c r="G68">
+        <v>9.769455709694802E-2</v>
+      </c>
+      <c r="H68">
+        <v>0.15783871523310761</v>
+      </c>
+      <c r="I68">
+        <v>-0.13239708788501639</v>
+      </c>
+      <c r="J68">
+        <v>0.51596682433296259</v>
+      </c>
+      <c r="K68">
+        <v>0.51890373355867003</v>
+      </c>
+      <c r="L68">
+        <v>-0.1004899227878736</v>
+      </c>
+      <c r="M68">
+        <v>-0.23061825904097419</v>
+      </c>
+      <c r="N68">
+        <v>0.28676313993688302</v>
+      </c>
+      <c r="O68">
+        <v>0.25871533867575358</v>
+      </c>
+      <c r="P68">
+        <v>-6.8826283588686893E-2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C69">
-        <v>5.8283352341516492E-2</v>
+        <v>-2.4751132084215199E-2</v>
       </c>
       <c r="D69">
-        <v>-0.17491259884500521</v>
+        <v>-0.1094248697913638</v>
       </c>
       <c r="E69">
-        <v>-0.19615102815694921</v>
+        <v>-0.25427726712267368</v>
       </c>
       <c r="F69">
-        <v>-0.15263522666908641</v>
+        <v>-7.5445575373672913E-2</v>
       </c>
       <c r="G69">
-        <v>0.1120279585701832</v>
+        <v>8.6525352120720059E-2</v>
       </c>
       <c r="H69">
-        <v>0.1643446003909074</v>
+        <v>0.14919808180717839</v>
       </c>
       <c r="I69">
-        <v>-0.17508683491095331</v>
+        <v>-0.10970929308584609</v>
       </c>
       <c r="J69">
-        <v>0.50238093090684277</v>
+        <v>0.49502041588988882</v>
       </c>
       <c r="K69">
-        <v>0.49840563155844758</v>
+        <v>0.50293071093444441</v>
       </c>
       <c r="L69">
-        <v>-7.8342822957654296E-2</v>
+        <v>-9.8594834604625897E-2</v>
       </c>
       <c r="M69">
-        <v>-0.1969220920950403</v>
+        <v>-0.25519054381628248</v>
       </c>
       <c r="N69">
-        <v>0.28645383899004501</v>
+        <v>0.27101861117365911</v>
       </c>
       <c r="O69">
-        <v>0.28658624799410132</v>
+        <v>0.2372168217690607</v>
       </c>
       <c r="P69">
-        <v>-3.389924450533964E-2</v>
+        <v>-8.701741624706634E-2</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C70">
-        <v>-2.0421920222159679E-2</v>
+        <v>-2.2949366176273779E-2</v>
       </c>
       <c r="D70">
-        <v>-0.1355467949652959</v>
+        <v>0.1154963790274145</v>
       </c>
       <c r="E70">
-        <v>-0.26301257976039072</v>
+        <v>0.22221267128376429</v>
       </c>
       <c r="F70">
-        <v>-0.1013583888444033</v>
+        <v>9.2803355508599403E-2</v>
       </c>
       <c r="G70">
-        <v>6.8326032012318544E-2</v>
+        <v>-3.2650606098859447E-2</v>
       </c>
       <c r="H70">
-        <v>0.13232792800822099</v>
+        <v>-9.5712856842805741E-2</v>
       </c>
       <c r="I70">
-        <v>-0.13581285489188161</v>
+        <v>0.115856228919706</v>
       </c>
       <c r="J70">
-        <v>0.4598866604991263</v>
+        <v>-0.41116159077155928</v>
       </c>
       <c r="K70">
-        <v>0.46470967579907307</v>
+        <v>-0.39218330083548503</v>
       </c>
       <c r="L70">
-        <v>-9.0196166390404536E-2</v>
+        <v>9.5339128592350914E-2</v>
       </c>
       <c r="M70">
-        <v>-0.26391311804884232</v>
+        <v>0.2231385594003962</v>
       </c>
       <c r="N70">
-        <v>0.24528982607007341</v>
+        <v>-0.23252235360755871</v>
       </c>
       <c r="O70">
-        <v>0.2280530946398672</v>
+        <v>-0.17989137042425879</v>
       </c>
       <c r="P70">
-        <v>-6.8593132800200116E-2</v>
+        <v>0.1057246237843424</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C71">
-        <v>0.1100844977600559</v>
+        <v>-2.060225288723265E-2</v>
       </c>
       <c r="D71">
-        <v>1.0653564294303169E-2</v>
+        <v>-9.6694641856004543E-2</v>
       </c>
       <c r="E71">
-        <v>9.0078765258839483E-2</v>
+        <v>-6.5128286346277875E-2</v>
       </c>
       <c r="F71">
-        <v>2.6449892821619581E-2</v>
+        <v>-9.4607833840945982E-2</v>
       </c>
       <c r="G71">
-        <v>-7.4788303638951226E-2</v>
+        <v>-0.16549817354893021</v>
       </c>
       <c r="H71">
-        <v>-0.1515065101867098</v>
+        <v>-0.1535148018943098</v>
       </c>
       <c r="I71">
-        <v>1.0880940350746139E-2</v>
+        <v>-9.6731710661382128E-2</v>
       </c>
       <c r="J71">
-        <v>-0.37719089732419359</v>
+        <v>6.3606188897099764E-2</v>
       </c>
       <c r="K71">
-        <v>-0.38077546531968109</v>
+        <v>8.1567273064256984E-2</v>
       </c>
       <c r="L71">
-        <v>4.4782446022872083E-2</v>
+        <v>0.13828040872103911</v>
       </c>
       <c r="M71">
-        <v>9.1313353745684639E-2</v>
+        <v>-6.5129478915654626E-2</v>
       </c>
       <c r="N71">
-        <v>-9.5792700676653075E-2</v>
+        <v>9.0346709540826284E-2</v>
       </c>
       <c r="O71">
-        <v>-6.3456259145087415E-2</v>
+        <v>-5.0885950166647792E-2</v>
       </c>
       <c r="P71">
-        <v>0.21438724551845251</v>
+        <v>-9.3450820826940589E-2</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C72">
-        <v>4.06736075845891E-2</v>
+        <v>4.2444726863380279E-2</v>
       </c>
       <c r="D72">
-        <v>-0.15562186947635751</v>
+        <v>6.7365519557424411E-2</v>
       </c>
       <c r="E72">
-        <v>-0.19987668788795401</v>
+        <v>0.13080175870158331</v>
       </c>
       <c r="F72">
-        <v>-0.1340942563626833</v>
+        <v>7.1677582018777733E-2</v>
       </c>
       <c r="G72">
-        <v>0.1056153287743109</v>
+        <v>-5.1403299988635243E-2</v>
       </c>
       <c r="H72">
-        <v>0.16183796220391991</v>
+        <v>-0.1225246769339471</v>
       </c>
       <c r="I72">
-        <v>-0.15583459755106391</v>
+        <v>6.7625020948400186E-2</v>
       </c>
       <c r="J72">
-        <v>0.52615968262191892</v>
+        <v>-0.45704045722962111</v>
       </c>
       <c r="K72">
-        <v>0.52007381165639177</v>
+        <v>-0.43930032063243241</v>
       </c>
       <c r="L72">
-        <v>-0.10454065240397881</v>
+        <v>2.5401704637217509E-2</v>
       </c>
       <c r="M72">
-        <v>-0.20071613580235839</v>
+        <v>0.13190652626849891</v>
       </c>
       <c r="N72">
-        <v>0.29500510835460902</v>
+        <v>-0.18184295188049879</v>
       </c>
       <c r="O72">
-        <v>0.27531929125643728</v>
+        <v>-0.12703323112463219</v>
       </c>
       <c r="P72">
-        <v>-4.9879237828438693E-2</v>
+        <v>0.23695837304418749</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C73">
-        <v>6.3315298627779123E-3</v>
+        <v>-4.1707649725690181E-2</v>
       </c>
       <c r="D73">
-        <v>-0.1321452219149902</v>
+        <v>0.21918310045158851</v>
       </c>
       <c r="E73">
-        <v>-0.229730786779721</v>
+        <v>0.22069741400851711</v>
       </c>
       <c r="F73">
-        <v>-0.1039897300987784</v>
+        <v>0.19030773363833031</v>
       </c>
       <c r="G73">
-        <v>9.769455709694802E-2</v>
+        <v>-0.15557252920177081</v>
       </c>
       <c r="H73">
-        <v>0.15783871523310761</v>
+        <v>-0.2088134451560183</v>
       </c>
       <c r="I73">
-        <v>-0.13239708788501639</v>
+        <v>0.21933003836179579</v>
       </c>
       <c r="J73">
-        <v>0.51596682433296259</v>
+        <v>-0.4594579330772085</v>
       </c>
       <c r="K73">
-        <v>0.51890373355867003</v>
+        <v>-0.44761562592624071</v>
       </c>
       <c r="L73">
-        <v>-0.1004899227878736</v>
+        <v>5.2329672146109937E-2</v>
       </c>
       <c r="M73">
-        <v>-0.23061825904097419</v>
+        <v>0.22148552905960259</v>
       </c>
       <c r="N73">
-        <v>0.28676313993688302</v>
+        <v>-0.24751437433482101</v>
       </c>
       <c r="O73">
-        <v>0.25871533867575358</v>
+        <v>-0.241228365987114</v>
       </c>
       <c r="P73">
-        <v>-6.8826283588686893E-2</v>
+        <v>3.9411514248421882E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C74">
-        <v>-2.4751132084215199E-2</v>
+        <v>5.4651369266371139E-2</v>
       </c>
       <c r="D74">
-        <v>-0.1094248697913638</v>
+        <v>8.6456723547992873E-2</v>
       </c>
       <c r="E74">
-        <v>-0.25427726712267368</v>
+        <v>0.1794248242724672</v>
       </c>
       <c r="F74">
-        <v>-7.5445575373672913E-2</v>
+        <v>6.9494257118805774E-2</v>
       </c>
       <c r="G74">
-        <v>8.6525352120720059E-2</v>
+        <v>-9.8940519203371297E-2</v>
       </c>
       <c r="H74">
-        <v>0.14919808180717839</v>
+        <v>-0.15799887145378341</v>
       </c>
       <c r="I74">
-        <v>-0.10970929308584609</v>
+        <v>8.6634279434969194E-2</v>
       </c>
       <c r="J74">
-        <v>0.49502041588988882</v>
+        <v>-0.38597915980497849</v>
       </c>
       <c r="K74">
-        <v>0.50293071093444441</v>
+        <v>-0.40611006450235843</v>
       </c>
       <c r="L74">
-        <v>-9.8594834604625897E-2</v>
+        <v>7.2568787129912368E-2</v>
       </c>
       <c r="M74">
-        <v>-0.25519054381628248</v>
+        <v>0.1803159689970725</v>
       </c>
       <c r="N74">
-        <v>0.27101861117365911</v>
+        <v>-0.16405519611484021</v>
       </c>
       <c r="O74">
-        <v>0.2372168217690607</v>
+        <v>-0.16751159483897099</v>
       </c>
       <c r="P74">
-        <v>-8.701741624706634E-2</v>
+        <v>9.1112696079782479E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>-0.1242780370886602</v>
+      </c>
+      <c r="D75">
+        <v>0.19705816615891991</v>
+      </c>
+      <c r="E75">
+        <v>-3.9476691732563553E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.23379310333609549</v>
+      </c>
+      <c r="G75">
+        <v>-7.8559821144503703E-2</v>
+      </c>
+      <c r="H75">
+        <v>-0.1171755950115162</v>
+      </c>
+      <c r="I75">
+        <v>0.19706130798104349</v>
+      </c>
+      <c r="J75">
+        <v>-0.45016435639168839</v>
+      </c>
+      <c r="K75">
+        <v>-0.40346034707448802</v>
+      </c>
+      <c r="L75">
+        <v>0.11889371061033829</v>
+      </c>
+      <c r="M75">
+        <v>-3.8828464783661851E-2</v>
+      </c>
+      <c r="N75">
+        <v>-0.203127634852345</v>
+      </c>
+      <c r="O75">
+        <v>-0.15333487582746549</v>
+      </c>
+      <c r="P75">
+        <v>-3.9386845561450064E-3</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C76">
-        <v>-2.2949366176273779E-2</v>
+        <v>5.1476528709400407E-2</v>
       </c>
       <c r="D76">
-        <v>0.1154963790274145</v>
+        <v>0.33246973553707199</v>
       </c>
       <c r="E76">
-        <v>0.22221267128376429</v>
+        <v>0.43475028432289148</v>
       </c>
       <c r="F76">
-        <v>9.2803355508599403E-2</v>
+        <v>0.47739980370476992</v>
       </c>
       <c r="G76">
-        <v>-3.2650606098859447E-2</v>
+        <v>0.36856700816452698</v>
       </c>
       <c r="H76">
-        <v>-9.5712856842805741E-2</v>
+        <v>0.30424984897429141</v>
       </c>
       <c r="I76">
-        <v>0.115856228919706</v>
+        <v>0.33237813993390669</v>
       </c>
       <c r="J76">
-        <v>-0.41116159077155928</v>
+        <v>-0.54512931241840512</v>
       </c>
       <c r="K76">
-        <v>-0.39218330083548503</v>
+        <v>-0.71547562449165392</v>
       </c>
       <c r="L76">
-        <v>9.5339128592350914E-2</v>
+        <v>-0.72461515660537312</v>
       </c>
       <c r="M76">
-        <v>0.2231385594003962</v>
+        <v>0.43419774129723882</v>
       </c>
       <c r="N76">
-        <v>-0.23252235360755871</v>
+        <v>-0.81494922407684711</v>
       </c>
       <c r="O76">
-        <v>-0.17989137042425879</v>
+        <v>-0.79721016882804951</v>
       </c>
       <c r="P76">
-        <v>0.1057246237843424</v>
+        <v>-0.62600074778887105</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>0.23320609126595601</v>
+      </c>
+      <c r="D77">
+        <v>5.0831358862896067E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.32804862271629232</v>
+      </c>
+      <c r="F77">
+        <v>2.7350772612500369E-2</v>
+      </c>
+      <c r="G77">
+        <v>0.73898932748413504</v>
+      </c>
+      <c r="H77">
+        <v>0.1004307892705356</v>
+      </c>
+      <c r="I77">
+        <v>5.1227033336148912E-2</v>
+      </c>
+      <c r="J77">
+        <v>-0.46817215985227201</v>
+      </c>
+      <c r="K77">
+        <v>-0.44205966062828622</v>
+      </c>
+      <c r="L77">
+        <v>-0.1043406966162912</v>
+      </c>
+      <c r="M77">
+        <v>0.32949153391674307</v>
+      </c>
+      <c r="N77">
+        <v>-0.457186208115203</v>
+      </c>
+      <c r="O77">
+        <v>-0.4029885815056371</v>
+      </c>
+      <c r="P77">
+        <v>-9.7154226867467094E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C78">
-        <v>-0.85162282573469028</v>
+        <v>4.9196032853260817E-2</v>
       </c>
       <c r="D78">
-        <v>0.94239751318674914</v>
+        <v>-4.0300317753076131E-2</v>
       </c>
       <c r="E78">
-        <v>0.23372515775592559</v>
+        <v>-2.544223664192749E-2</v>
       </c>
       <c r="F78">
-        <v>0.65403268887145671</v>
+        <v>-3.1580805562606687E-2</v>
       </c>
       <c r="G78">
-        <v>0.74476604374222111</v>
+        <v>-2.2993012298979421E-2</v>
       </c>
       <c r="H78">
-        <v>-0.48532624067469282</v>
+        <v>-3.216494602977929E-2</v>
       </c>
       <c r="I78">
-        <v>0.94437630103357328</v>
+        <v>-4.0345247808239892E-2</v>
       </c>
       <c r="J78">
-        <v>-0.45889530234932618</v>
+        <v>-8.200169921964226E-2</v>
       </c>
       <c r="K78">
-        <v>-0.73953707065921115</v>
+        <v>-7.9190602704647589E-2</v>
       </c>
       <c r="L78">
-        <v>-0.97345546425170049</v>
+        <v>-5.9186290964398251E-2</v>
       </c>
       <c r="M78">
-        <v>0.24745464153388411</v>
+        <v>-2.536411803539354E-2</v>
       </c>
       <c r="N78">
-        <v>-0.95415009430024678</v>
+        <v>-2.1603412990980269E-2</v>
       </c>
       <c r="O78">
-        <v>-0.99999512276393154</v>
+        <v>-4.1804044543370347E-2</v>
       </c>
       <c r="P78">
-        <v>-0.31189704196998808</v>
+        <v>-7.2904598039728166E-2</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C79">
-        <v>-0.91962397818757069</v>
+        <v>-1.9881792570912452E-2</v>
       </c>
       <c r="D79">
-        <v>0.88274768204946397</v>
+        <v>-3.5917822913284603E-2</v>
       </c>
       <c r="E79">
-        <v>0.37459107418989651</v>
+        <v>-2.530710245407428E-2</v>
       </c>
       <c r="F79">
-        <v>0.53529308732106717</v>
+        <v>-3.4596249620879503E-2</v>
       </c>
       <c r="G79">
-        <v>0.63818287202803192</v>
+        <v>-3.7976892983496623E-2</v>
       </c>
       <c r="H79">
-        <v>-0.35104581441574989</v>
+        <v>-3.7466755689564368E-2</v>
       </c>
       <c r="I79">
-        <v>0.88553502772815373</v>
+        <v>-3.5934379927461069E-2</v>
       </c>
       <c r="J79">
-        <v>-0.58493502855973267</v>
+        <v>-0.11436570849402861</v>
       </c>
       <c r="K79">
-        <v>-0.83073728739535768</v>
+        <v>-0.1087794022769196</v>
       </c>
       <c r="L79">
-        <v>-0.99656783963557793</v>
+        <v>-7.21993538438091E-2</v>
       </c>
       <c r="M79">
-        <v>0.3876683647603395</v>
+        <v>-2.5453821242794331E-2</v>
       </c>
       <c r="N79">
-        <v>-0.89955904210667781</v>
+        <v>-4.4825882707981747E-2</v>
       </c>
       <c r="O79">
-        <v>-0.98951669988650337</v>
+        <v>-7.0613547803759641E-2</v>
       </c>
       <c r="P79">
-        <v>-0.44863508638121458</v>
+        <v>-9.7091900488923494E-2</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C80">
-        <v>-2.060225288723265E-2</v>
+        <v>-3.4692196756450828E-3</v>
       </c>
       <c r="D80">
-        <v>-9.6694641856004543E-2</v>
+        <v>-0.1589791916354733</v>
       </c>
       <c r="E80">
-        <v>-6.5128286346277875E-2</v>
+        <v>-0.4310262654110531</v>
       </c>
       <c r="F80">
-        <v>-9.4607833840945982E-2</v>
+        <v>-6.4078358598297303E-2</v>
       </c>
       <c r="G80">
-        <v>-0.16549817354893021</v>
+        <v>-4.2980772729682072E-2</v>
       </c>
       <c r="H80">
-        <v>-0.1535148018943098</v>
+        <v>-1.340471307615379E-2</v>
       </c>
       <c r="I80">
-        <v>-9.6731710661382128E-2</v>
+        <v>-0.15927922845616721</v>
       </c>
       <c r="J80">
-        <v>6.3606188897099764E-2</v>
+        <v>0.20283474463431381</v>
       </c>
       <c r="K80">
-        <v>8.1567273064256984E-2</v>
+        <v>0.20480009661627241</v>
       </c>
       <c r="L80">
-        <v>0.13828040872103911</v>
+        <v>-2.0518349519481399E-3</v>
       </c>
       <c r="M80">
-        <v>-6.5129478915654626E-2</v>
+        <v>-0.43121087135585551</v>
       </c>
       <c r="N80">
-        <v>9.0346709540826284E-2</v>
+        <v>0.33246056370364518</v>
       </c>
       <c r="O80">
-        <v>-5.0885950166647792E-2</v>
+        <v>0.17540819793835291</v>
       </c>
       <c r="P80">
-        <v>-9.3450820826940589E-2</v>
+        <v>-9.473746455698466E-2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C81">
-        <v>4.2444726863380279E-2</v>
+        <v>0.110062461401946</v>
       </c>
       <c r="D81">
-        <v>6.7365519557424411E-2</v>
+        <v>-7.4408532714967876E-2</v>
       </c>
       <c r="E81">
-        <v>0.13080175870158331</v>
+        <v>-0.1082474212701322</v>
       </c>
       <c r="F81">
-        <v>7.1677582018777733E-2</v>
+        <v>-4.6559052544046853E-2</v>
       </c>
       <c r="G81">
-        <v>-5.1403299988635243E-2</v>
+        <v>0.1617449709501719</v>
       </c>
       <c r="H81">
-        <v>-0.1225246769339471</v>
+        <v>0.16762625124960531</v>
       </c>
       <c r="I81">
-        <v>6.7625020948400186E-2</v>
+        <v>-7.453617177636046E-2</v>
       </c>
       <c r="J81">
-        <v>-0.45704045722962111</v>
+        <v>0.39262574998585498</v>
       </c>
       <c r="K81">
-        <v>-0.43930032063243241</v>
+        <v>0.35710037163981839</v>
       </c>
       <c r="L81">
-        <v>2.5401704637217509E-2</v>
+        <v>-7.2751242489094078E-2</v>
       </c>
       <c r="M81">
-        <v>0.13190652626849891</v>
+        <v>-0.10846747832710819</v>
       </c>
       <c r="N81">
-        <v>-0.18184295188049879</v>
+        <v>0.16975263841076449</v>
       </c>
       <c r="O81">
-        <v>-0.12703323112463219</v>
+        <v>0.10612351784220921</v>
       </c>
       <c r="P81">
-        <v>0.23695837304418749</v>
+        <v>-2.9566417434426451E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>-4.1707649725690181E-2</v>
+        <v>2.433633188320343E-2</v>
       </c>
       <c r="D82">
-        <v>0.21918310045158851</v>
+        <v>-7.4114952125541159E-2</v>
       </c>
       <c r="E82">
-        <v>0.22069741400851711</v>
+        <v>-0.10144042845505941</v>
       </c>
       <c r="F82">
-        <v>0.19030773363833031</v>
+        <v>-5.8277951376304489E-2</v>
       </c>
       <c r="G82">
-        <v>-0.15557252920177081</v>
+        <v>4.5161247151999713E-2</v>
       </c>
       <c r="H82">
-        <v>-0.2088134451560183</v>
+        <v>6.4194635883943113E-2</v>
       </c>
       <c r="I82">
-        <v>0.21933003836179579</v>
+        <v>-7.4213213650878407E-2</v>
       </c>
       <c r="J82">
-        <v>-0.4594579330772085</v>
+        <v>0.37674708792151718</v>
       </c>
       <c r="K82">
-        <v>-0.44761562592624071</v>
+        <v>0.34705680430754432</v>
       </c>
       <c r="L82">
-        <v>5.2329672146109937E-2</v>
+        <v>-7.7502368069178706E-2</v>
       </c>
       <c r="M82">
-        <v>0.22148552905960259</v>
+        <v>-0.1017261974955615</v>
       </c>
       <c r="N82">
-        <v>-0.24751437433482101</v>
+        <v>0.1819033907173889</v>
       </c>
       <c r="O82">
-        <v>-0.241228365987114</v>
+        <v>0.133545417398724</v>
       </c>
       <c r="P82">
-        <v>3.9411514248421882E-2</v>
+        <v>9.8440168304422346E-3</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C83">
-        <v>5.4651369266371139E-2</v>
+        <v>-4.4798584828485338E-2</v>
       </c>
       <c r="D83">
-        <v>8.6456723547992873E-2</v>
+        <v>0.27315503058995422</v>
       </c>
       <c r="E83">
-        <v>0.1794248242724672</v>
+        <v>0.32723654751617509</v>
       </c>
       <c r="F83">
-        <v>6.9494257118805774E-2</v>
+        <v>0.22960870306325951</v>
       </c>
       <c r="G83">
-        <v>-9.8940519203371297E-2</v>
+        <v>0.14078877504849621</v>
       </c>
       <c r="H83">
-        <v>-0.15799887145378341</v>
+        <v>8.2884158287506976E-2</v>
       </c>
       <c r="I83">
-        <v>8.6634279434969194E-2</v>
+        <v>0.27340396642586118</v>
       </c>
       <c r="J83">
-        <v>-0.38597915980497849</v>
+        <v>-0.38534671150423472</v>
       </c>
       <c r="K83">
-        <v>-0.40611006450235843</v>
+        <v>-0.33608361907735868</v>
       </c>
       <c r="L83">
-        <v>7.2568787129912368E-2</v>
+        <v>4.718897944270125E-2</v>
       </c>
       <c r="M83">
-        <v>0.1803159689970725</v>
+        <v>0.32781467189034352</v>
       </c>
       <c r="N83">
-        <v>-0.16405519611484021</v>
+        <v>-0.34237461078560549</v>
       </c>
       <c r="O83">
-        <v>-0.16751159483897099</v>
+        <v>-0.25281554857496108</v>
       </c>
       <c r="P83">
-        <v>9.1112696079782479E-2</v>
+        <v>3.0363535075792859E-2</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C84">
-        <v>-0.1242780370886602</v>
+        <v>0.21534477993761411</v>
       </c>
       <c r="D84">
-        <v>0.19705816615891991</v>
+        <v>-0.14628573364218031</v>
       </c>
       <c r="E84">
-        <v>-3.9476691732563553E-2</v>
+        <v>-0.14901750421204579</v>
       </c>
       <c r="F84">
-        <v>0.23379310333609549</v>
+        <v>-0.10818227099699999</v>
       </c>
       <c r="G84">
-        <v>-7.8559821144503703E-2</v>
+        <v>0.28239110100078901</v>
       </c>
       <c r="H84">
-        <v>-0.1171755950115162</v>
+        <v>0.29094360587735779</v>
       </c>
       <c r="I84">
-        <v>0.19706130798104349</v>
+        <v>-0.14646515763099771</v>
       </c>
       <c r="J84">
-        <v>-0.45016435639168839</v>
+        <v>0.55160204218333908</v>
       </c>
       <c r="K84">
-        <v>-0.40346034707448802</v>
+        <v>0.54110446669687939</v>
       </c>
       <c r="L84">
-        <v>0.11889371061033829</v>
+        <v>-1.6931262096761261E-2</v>
       </c>
       <c r="M84">
-        <v>-3.8828464783661851E-2</v>
+        <v>-0.14936885364131899</v>
       </c>
       <c r="N84">
-        <v>-0.203127634852345</v>
+        <v>0.18459145861972731</v>
       </c>
       <c r="O84">
-        <v>-0.15333487582746549</v>
+        <v>0.1479719435676658</v>
       </c>
       <c r="P84">
-        <v>-3.9386845561450064E-3</v>
+        <v>6.0106468733809419E-3</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C85">
-        <v>5.1476528709400407E-2</v>
+        <v>6.101100252897159E-2</v>
       </c>
       <c r="D85">
-        <v>0.33246973553707199</v>
+        <v>-0.11409089958602731</v>
       </c>
       <c r="E85">
-        <v>0.43475028432289148</v>
+        <v>-0.13398561836536291</v>
       </c>
       <c r="F85">
-        <v>0.47739980370476992</v>
+        <v>-9.2847821732634311E-2</v>
       </c>
       <c r="G85">
-        <v>0.36856700816452698</v>
+        <v>9.737560794761918E-2</v>
       </c>
       <c r="H85">
-        <v>0.30424984897429141</v>
+        <v>0.1230984568769051</v>
       </c>
       <c r="I85">
-        <v>0.33237813993390669</v>
+        <v>-0.1142231633168161</v>
       </c>
       <c r="J85">
-        <v>-0.54512931241840512</v>
+        <v>0.52089111931418663</v>
       </c>
       <c r="K85">
-        <v>-0.71547562449165392</v>
+        <v>0.50476099222976911</v>
       </c>
       <c r="L85">
-        <v>-0.72461515660537312</v>
+        <v>-6.8990966513418489E-2</v>
       </c>
       <c r="M85">
-        <v>0.43419774129723882</v>
+        <v>-0.13439425529612711</v>
       </c>
       <c r="N85">
-        <v>-0.81494922407684711</v>
+        <v>0.19269155227064921</v>
       </c>
       <c r="O85">
-        <v>-0.79721016882804951</v>
+        <v>0.159842155930941</v>
       </c>
       <c r="P85">
-        <v>-0.62600074778887105</v>
+        <v>1.502026447489936E-2</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="C86">
+        <v>8.9724101363229933E-2</v>
+      </c>
+      <c r="D86">
+        <v>8.6104775313591606E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.29503110758710588</v>
+      </c>
+      <c r="F86">
+        <v>4.5475402286725523E-2</v>
+      </c>
+      <c r="G86">
+        <v>8.2229229850257421E-2</v>
+      </c>
+      <c r="H86">
+        <v>1.909828303704526E-2</v>
+      </c>
+      <c r="I86">
+        <v>8.6374339980146181E-2</v>
+      </c>
+      <c r="J86">
+        <v>-0.39023456393907108</v>
+      </c>
+      <c r="K86">
+        <v>-0.33233945891947858</v>
+      </c>
+      <c r="L86">
+        <v>0.1141215591872668</v>
+      </c>
+      <c r="M86">
+        <v>0.2957894932650163</v>
+      </c>
+      <c r="N86">
+        <v>-0.264202100202725</v>
+      </c>
+      <c r="O86">
+        <v>-0.17167895226227051</v>
+      </c>
+      <c r="P86">
+        <v>8.9241516455240102E-2</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C87">
-        <v>0.23320609126595601</v>
+        <v>0.23154443825263871</v>
       </c>
       <c r="D87">
-        <v>5.0831358862896067E-2</v>
+        <v>-0.22149943560191701</v>
       </c>
       <c r="E87">
-        <v>0.32804862271629232</v>
+        <v>-0.20927952061958771</v>
       </c>
       <c r="F87">
-        <v>2.7350772612500369E-2</v>
+        <v>-0.17866915810651721</v>
       </c>
       <c r="G87">
-        <v>0.73898932748413504</v>
+        <v>-1.550394794342197E-2</v>
       </c>
       <c r="H87">
-        <v>0.1004307892705356</v>
+        <v>-5.1838297059452311E-3</v>
       </c>
       <c r="I87">
-        <v>5.1227033336148912E-2</v>
+        <v>-0.22168374269566729</v>
       </c>
       <c r="J87">
-        <v>-0.46817215985227201</v>
+        <v>0.51832693780151651</v>
       </c>
       <c r="K87">
-        <v>-0.44205966062828622</v>
+        <v>0.47783570669920028</v>
       </c>
       <c r="L87">
-        <v>-0.1043406966162912</v>
+        <v>4.4619484552690963E-2</v>
       </c>
       <c r="M87">
-        <v>0.32949153391674307</v>
+        <v>-0.20934539749348671</v>
       </c>
       <c r="N87">
-        <v>-0.457186208115203</v>
+        <v>0.43151096920014542</v>
       </c>
       <c r="O87">
-        <v>-0.4029885815056371</v>
+        <v>0.29203563654097597</v>
       </c>
       <c r="P87">
-        <v>-9.7154226867467094E-2</v>
+        <v>-0.1733869131853861</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="C88">
+        <v>7.4069333900562098E-2</v>
+      </c>
+      <c r="D88">
+        <v>-0.18014990974131581</v>
+      </c>
+      <c r="E88">
+        <v>-0.18044757834677341</v>
+      </c>
+      <c r="F88">
+        <v>-0.15640336724434609</v>
+      </c>
+      <c r="G88">
+        <v>-7.0186497680939527E-2</v>
+      </c>
+      <c r="H88">
+        <v>-3.9752156512596948E-2</v>
+      </c>
+      <c r="I88">
+        <v>-0.1802971719382957</v>
+      </c>
+      <c r="J88">
+        <v>0.50000034085973977</v>
+      </c>
+      <c r="K88">
+        <v>0.48273459649560579</v>
+      </c>
+      <c r="L88">
+        <v>6.8106304407867455E-2</v>
+      </c>
+      <c r="M88">
+        <v>-0.1807577886239212</v>
+      </c>
+      <c r="N88">
+        <v>0.42564573058083449</v>
+      </c>
+      <c r="O88">
+        <v>0.3003395795540818</v>
+      </c>
+      <c r="P88">
+        <v>-0.12831473917139399</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="C89">
+        <v>-2.9859222144794959E-2</v>
+      </c>
+      <c r="D89">
+        <v>-0.1587537627090507</v>
+      </c>
+      <c r="E89">
+        <v>-0.30086864503428112</v>
+      </c>
+      <c r="F89">
+        <v>-0.11463009295564749</v>
+      </c>
+      <c r="G89">
+        <v>-3.9348717326467643E-2</v>
+      </c>
+      <c r="H89">
+        <v>1.6929536985242251E-2</v>
+      </c>
+      <c r="I89">
+        <v>-0.15901593128108041</v>
+      </c>
+      <c r="J89">
+        <v>0.41497529187059568</v>
+      </c>
+      <c r="K89">
+        <v>0.41248917797098522</v>
+      </c>
+      <c r="L89">
+        <v>-0.15055072586573071</v>
+      </c>
+      <c r="M89">
+        <v>-0.30154860322537302</v>
+      </c>
+      <c r="N89">
+        <v>0.33784930092732179</v>
+      </c>
+      <c r="O89">
+        <v>0.1863451495386465</v>
+      </c>
+      <c r="P89">
+        <v>-6.2254742627723562E-2</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C90">
-        <v>4.9196032853260817E-2</v>
+        <v>-3.8063074179624803E-2</v>
       </c>
       <c r="D90">
-        <v>-4.0300317753076131E-2</v>
+        <v>-0.1223584670946712</v>
       </c>
       <c r="E90">
-        <v>-2.544223664192749E-2</v>
+        <v>-0.25917210726466278</v>
       </c>
       <c r="F90">
-        <v>-3.1580805562606687E-2</v>
+        <v>-8.6379613006981673E-2</v>
       </c>
       <c r="G90">
-        <v>-2.2993012298979421E-2</v>
+        <v>-0.1892432143796903</v>
       </c>
       <c r="H90">
-        <v>-3.216494602977929E-2</v>
+        <v>-0.14527857591877191</v>
       </c>
       <c r="I90">
-        <v>-4.0345247808239892E-2</v>
+        <v>-0.122589143966838</v>
       </c>
       <c r="J90">
-        <v>-8.200169921964226E-2</v>
+        <v>0.33182961762397012</v>
       </c>
       <c r="K90">
-        <v>-7.9190602704647589E-2</v>
+        <v>0.33595214472218499</v>
       </c>
       <c r="L90">
-        <v>-5.9186290964398251E-2</v>
+        <v>-8.8477850765974961E-2</v>
       </c>
       <c r="M90">
-        <v>-2.536411803539354E-2</v>
+        <v>-0.2595753994995445</v>
       </c>
       <c r="N90">
-        <v>-2.1603412990980269E-2</v>
+        <v>0.39862393006730779</v>
       </c>
       <c r="O90">
-        <v>-4.1804044543370347E-2</v>
+        <v>0.25442611082883548</v>
       </c>
       <c r="P90">
-        <v>-7.2904598039728166E-2</v>
+        <v>-7.7403855574884675E-2</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C91">
-        <v>-1.9881792570912452E-2</v>
+        <v>-3.3846338998437642E-2</v>
       </c>
       <c r="D91">
-        <v>-3.5917822913284603E-2</v>
+        <v>-0.2209749999177836</v>
       </c>
       <c r="E91">
-        <v>-2.530710245407428E-2</v>
+        <v>-0.29223961585246883</v>
       </c>
       <c r="F91">
-        <v>-3.4596249620879503E-2</v>
+        <v>-0.19144261323384981</v>
       </c>
       <c r="G91">
-        <v>-3.7976892983496623E-2</v>
+        <v>-0.1533921953449654</v>
       </c>
       <c r="H91">
-        <v>-3.7466755689564368E-2</v>
+        <v>-8.4514248216988733E-2</v>
       </c>
       <c r="I91">
-        <v>-3.5934379927461069E-2</v>
+        <v>-0.2211965849396591</v>
       </c>
       <c r="J91">
-        <v>-0.11436570849402861</v>
+        <v>0.32651650164288942</v>
       </c>
       <c r="K91">
-        <v>-0.1087794022769196</v>
+        <v>0.28987349383602151</v>
       </c>
       <c r="L91">
-        <v>-7.21993538438091E-2</v>
+        <v>-2.8272657904679751E-2</v>
       </c>
       <c r="M91">
-        <v>-2.5453821242794331E-2</v>
+        <v>-0.29299149786689238</v>
       </c>
       <c r="N91">
-        <v>-4.4825882707981747E-2</v>
+        <v>0.30515661858720949</v>
       </c>
       <c r="O91">
-        <v>-7.0613547803759641E-2</v>
+        <v>0.2329243566152015</v>
       </c>
       <c r="P91">
-        <v>-9.7091900488923494E-2</v>
+        <v>-1.4641117557379769E-2</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C92">
-        <v>-3.4692196756450828E-3</v>
+        <v>2.7884704280796861E-2</v>
       </c>
       <c r="D92">
-        <v>-0.1589791916354733</v>
+        <v>-3.3784745867927901E-2</v>
       </c>
       <c r="E92">
-        <v>-0.4310262654110531</v>
+        <v>-2.1261357324360419E-2</v>
       </c>
       <c r="F92">
-        <v>-6.4078358598297303E-2</v>
+        <v>-3.0824778561790171E-2</v>
       </c>
       <c r="G92">
-        <v>-4.2980772729682072E-2</v>
+        <v>-4.2661195640140433E-2</v>
       </c>
       <c r="H92">
-        <v>-1.340471307615379E-2</v>
+        <v>-4.182987451608465E-2</v>
       </c>
       <c r="I92">
-        <v>-0.15927922845616721</v>
+        <v>-3.3790476709397763E-2</v>
       </c>
       <c r="J92">
-        <v>0.20283474463431381</v>
+        <v>6.6017286407877324E-2</v>
       </c>
       <c r="K92">
-        <v>0.20480009661627241</v>
+        <v>0.20083363034806531</v>
       </c>
       <c r="L92">
-        <v>-2.0518349519481399E-3</v>
+        <v>0.66312829112135541</v>
       </c>
       <c r="M92">
-        <v>-0.43121087135585551</v>
+        <v>-2.1219468607337168E-2</v>
       </c>
       <c r="N92">
-        <v>0.33246056370364518</v>
+        <v>9.3515983565986532E-2</v>
       </c>
       <c r="O92">
-        <v>0.17540819793835291</v>
+        <v>8.7707536386722795E-2</v>
       </c>
       <c r="P92">
-        <v>-9.473746455698466E-2</v>
+        <v>-1.191208049625875E-2</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C93">
-        <v>0.110062461401946</v>
+        <v>0.1029934675838402</v>
       </c>
       <c r="D93">
-        <v>-7.4408532714967876E-2</v>
+        <v>-3.5184509915732451E-2</v>
       </c>
       <c r="E93">
-        <v>-0.1082474212701322</v>
+        <v>-1.959324118088852E-2</v>
       </c>
       <c r="F93">
-        <v>-4.6559052544046853E-2</v>
+        <v>-2.1541260590580449E-2</v>
       </c>
       <c r="G93">
-        <v>0.1617449709501719</v>
+        <v>-1.6799349526545E-2</v>
       </c>
       <c r="H93">
-        <v>0.16762625124960531</v>
+        <v>-3.5101029115820297E-2</v>
       </c>
       <c r="I93">
-        <v>-7.453617177636046E-2</v>
+        <v>-3.5201259743352489E-2</v>
       </c>
       <c r="J93">
-        <v>0.39262574998585498</v>
+        <v>5.9618918657486968E-2</v>
       </c>
       <c r="K93">
-        <v>0.35710037163981839</v>
+        <v>0.19502917236176959</v>
       </c>
       <c r="L93">
-        <v>-7.2751242489094078E-2</v>
+        <v>0.61022363009087044</v>
       </c>
       <c r="M93">
-        <v>-0.10846747832710819</v>
+        <v>-1.929043199596641E-2</v>
       </c>
       <c r="N93">
-        <v>0.16975263841076449</v>
+        <v>5.0060121969129338E-2</v>
       </c>
       <c r="O93">
-        <v>0.10612351784220921</v>
+        <v>4.9250213516140548E-2</v>
       </c>
       <c r="P93">
-        <v>-2.9566417434426451E-2</v>
+        <v>-4.7593508198708022E-2</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C94">
-        <v>2.433633188320343E-2</v>
+        <v>0.4307210239788592</v>
       </c>
       <c r="D94">
-        <v>-7.4114952125541159E-2</v>
+        <v>-3.0412878704541811E-2</v>
       </c>
       <c r="E94">
-        <v>-0.10144042845505941</v>
+        <v>7.1180509537691145E-2</v>
       </c>
       <c r="F94">
-        <v>-5.8277951376304489E-2</v>
+        <v>2.097684724143789E-2</v>
       </c>
       <c r="G94">
-        <v>4.5161247151999713E-2</v>
+        <v>8.0261377749372462E-2</v>
       </c>
       <c r="H94">
-        <v>6.4194635883943113E-2</v>
+        <v>-4.655739928643695E-2</v>
       </c>
       <c r="I94">
-        <v>-7.4213213650878407E-2</v>
+        <v>-3.0351122570084429E-2</v>
       </c>
       <c r="J94">
-        <v>0.37674708792151718</v>
+        <v>-0.24829466700043501</v>
       </c>
       <c r="K94">
-        <v>0.34705680430754432</v>
+        <v>-0.23228499465270369</v>
       </c>
       <c r="L94">
-        <v>-7.7502368069178706E-2</v>
+        <v>4.2342005941692171E-2</v>
       </c>
       <c r="M94">
-        <v>-0.1017261974955615</v>
+        <v>7.3005053342898654E-2</v>
       </c>
       <c r="N94">
-        <v>0.1819033907173889</v>
+        <v>-0.25138797175182293</v>
       </c>
       <c r="O94">
-        <v>0.133545417398724</v>
+        <v>-0.2083054855072182</v>
       </c>
       <c r="P94">
-        <v>9.8440168304422346E-3</v>
+        <v>-7.4188972652348265E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C95">
-        <v>-4.4798584828485338E-2</v>
+        <v>0.2102842150610022</v>
       </c>
       <c r="D95">
-        <v>0.27315503058995422</v>
+        <v>-0.18664971286499049</v>
       </c>
       <c r="E95">
-        <v>0.32723654751617509</v>
+        <v>-0.19417413779924489</v>
       </c>
       <c r="F95">
-        <v>0.22960870306325951</v>
+        <v>-0.14423438546219661</v>
       </c>
       <c r="G95">
-        <v>0.14078877504849621</v>
+        <v>6.5386400441279122E-2</v>
       </c>
       <c r="H95">
-        <v>8.2884158287506976E-2</v>
+        <v>7.5216477690779646E-2</v>
       </c>
       <c r="I95">
-        <v>0.27340396642586118</v>
+        <v>-0.18683587079602049</v>
       </c>
       <c r="J95">
-        <v>-0.38534671150423472</v>
+        <v>0.53966024555524328</v>
       </c>
       <c r="K95">
-        <v>-0.33608361907735868</v>
+        <v>0.49596764253421749</v>
       </c>
       <c r="L95">
-        <v>4.718897944270125E-2</v>
+        <v>-2.2084638077512651E-4</v>
       </c>
       <c r="M95">
-        <v>0.32781467189034352</v>
+        <v>-0.19432263309394179</v>
       </c>
       <c r="N95">
-        <v>-0.34237461078560549</v>
+        <v>0.3754477941285827</v>
       </c>
       <c r="O95">
-        <v>-0.25281554857496108</v>
+        <v>0.25009727610034538</v>
       </c>
       <c r="P95">
-        <v>3.0363535075792859E-2</v>
+        <v>-0.1325146607746662</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C96">
-        <v>0.21534477993761411</v>
+        <v>5.9826552048224547E-2</v>
       </c>
       <c r="D96">
-        <v>-0.14628573364218031</v>
+        <v>-0.1517817259229409</v>
       </c>
       <c r="E96">
-        <v>-0.14901750421204579</v>
+        <v>-0.1651956993621686</v>
       </c>
       <c r="F96">
-        <v>-0.10818227099699999</v>
+        <v>-0.12878118901968141</v>
       </c>
       <c r="G96">
-        <v>0.28239110100078901</v>
+        <v>-2.31275301627995E-2</v>
       </c>
       <c r="H96">
-        <v>0.29094360587735779</v>
+        <v>5.5715065188443862E-3</v>
       </c>
       <c r="I96">
-        <v>-0.14646515763099771</v>
+        <v>-0.15192407444535491</v>
       </c>
       <c r="J96">
-        <v>0.55160204218333908</v>
+        <v>0.50430619318223635</v>
       </c>
       <c r="K96">
-        <v>0.54110446669687939</v>
+        <v>0.47940864792369758</v>
       </c>
       <c r="L96">
-        <v>-1.6931262096761261E-2</v>
+        <v>8.7848975621977431E-3</v>
       </c>
       <c r="M96">
-        <v>-0.14936885364131899</v>
+        <v>-0.16553233510546131</v>
       </c>
       <c r="N96">
-        <v>0.18459145861972731</v>
+        <v>0.36176918496179972</v>
       </c>
       <c r="O96">
-        <v>0.1479719435676658</v>
+        <v>0.25785872566788393</v>
       </c>
       <c r="P96">
-        <v>6.0106468733809419E-3</v>
+        <v>-7.7738892570582793E-2</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C97">
-        <v>6.101100252897159E-2</v>
+        <v>8.6922515484758794E-2</v>
       </c>
       <c r="D97">
-        <v>-0.11409089958602731</v>
+        <v>2.0815547988513011E-2</v>
       </c>
       <c r="E97">
-        <v>-0.13398561836536291</v>
+        <v>-0.1837735909005429</v>
       </c>
       <c r="F97">
-        <v>-9.2847821732634311E-2</v>
+        <v>7.9942900389043531E-2</v>
       </c>
       <c r="G97">
-        <v>9.737560794761918E-2</v>
+        <v>-0.1208487228387779</v>
       </c>
       <c r="H97">
-        <v>0.1230984568769051</v>
+        <v>-0.14364111247964911</v>
       </c>
       <c r="I97">
-        <v>-0.1142231633168161</v>
+        <v>2.0593720227495518E-2</v>
       </c>
       <c r="J97">
-        <v>0.52089111931418663</v>
+        <v>0.18953805243756369</v>
       </c>
       <c r="K97">
-        <v>0.50476099222976911</v>
+        <v>0.22581033525346059</v>
       </c>
       <c r="L97">
-        <v>-6.8990966513418489E-2</v>
+        <v>-0.10394627252822849</v>
       </c>
       <c r="M97">
-        <v>-0.13439425529612711</v>
+        <v>-0.18330280767146001</v>
       </c>
       <c r="N97">
-        <v>0.19269155227064921</v>
+        <v>0.25113342203678379</v>
       </c>
       <c r="O97">
-        <v>0.159842155930941</v>
+        <v>0.13054955137036581</v>
       </c>
       <c r="P97">
-        <v>1.502026447489936E-2</v>
+        <v>-8.0146774309496835E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C98">
-        <v>8.9724101363229933E-2</v>
+        <v>-0.30440714358533122</v>
       </c>
       <c r="D98">
-        <v>8.6104775313591606E-2</v>
+        <v>0.14001886950726919</v>
       </c>
       <c r="E98">
-        <v>0.29503110758710588</v>
+        <v>5.2593998882319347E-3</v>
       </c>
       <c r="F98">
-        <v>4.5475402286725523E-2</v>
+        <v>0.10628959898639111</v>
       </c>
       <c r="G98">
-        <v>8.2229229850257421E-2</v>
+        <v>-0.4133665417279942</v>
       </c>
       <c r="H98">
-        <v>1.909828303704526E-2</v>
+        <v>-0.33558197740947843</v>
       </c>
       <c r="I98">
-        <v>8.6374339980146181E-2</v>
+        <v>0.13996348674831871</v>
       </c>
       <c r="J98">
-        <v>-0.39023456393907108</v>
+        <v>-0.47808048292759392</v>
       </c>
       <c r="K98">
-        <v>-0.33233945891947858</v>
+        <v>-0.42215103735791648</v>
       </c>
       <c r="L98">
-        <v>0.1141215591872668</v>
+        <v>-0.71799439168468648</v>
       </c>
       <c r="M98">
-        <v>0.2957894932650163</v>
+        <v>4.3416800197867986E-3</v>
       </c>
       <c r="N98">
-        <v>-0.264202100202725</v>
+        <v>-6.4264989655446234E-2</v>
       </c>
       <c r="O98">
-        <v>-0.17167895226227051</v>
+        <v>9.3264119242002577E-2</v>
       </c>
       <c r="P98">
-        <v>8.9241516455240102E-2</v>
+        <v>0.12098958414406449</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C99">
-        <v>0.23154443825263871</v>
+        <v>-0.1008286248394364</v>
       </c>
       <c r="D99">
-        <v>-0.22149943560191701</v>
+        <v>-4.8516737604003241E-2</v>
       </c>
       <c r="E99">
-        <v>-0.20927952061958771</v>
+        <v>-0.26770761808496579</v>
       </c>
       <c r="F99">
-        <v>-0.17866915810651721</v>
+        <v>-1.776263602268869E-2</v>
       </c>
       <c r="G99">
-        <v>-1.550394794342197E-2</v>
+        <v>7.2389399119406395E-2</v>
       </c>
       <c r="H99">
-        <v>-5.1838297059452311E-3</v>
+        <v>0.1504394713619229</v>
       </c>
       <c r="I99">
-        <v>-0.22168374269566729</v>
+        <v>-4.8857875004859393E-2</v>
       </c>
       <c r="J99">
-        <v>0.51832693780151651</v>
+        <v>0.45892316642805331</v>
       </c>
       <c r="K99">
-        <v>0.47783570669920028</v>
+        <v>0.47178408875311079</v>
       </c>
       <c r="L99">
-        <v>4.4619484552690963E-2</v>
+        <v>-5.6461422299146198E-2</v>
       </c>
       <c r="M99">
-        <v>-0.20934539749348671</v>
+        <v>-0.26886380373480528</v>
       </c>
       <c r="N99">
-        <v>0.43151096920014542</v>
+        <v>0.28482123505077239</v>
       </c>
       <c r="O99">
-        <v>0.29203563654097597</v>
+        <v>0.22918601424818069</v>
       </c>
       <c r="P99">
-        <v>-0.1733869131853861</v>
+        <v>5.1916819427157673E-2</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C100">
-        <v>7.4069333900562098E-2</v>
+        <v>-2.994902835781571E-2</v>
       </c>
       <c r="D100">
-        <v>-0.18014990974131581</v>
+        <v>0.1041705232335384</v>
       </c>
       <c r="E100">
-        <v>-0.18044757834677341</v>
+        <v>0.31727017170523292</v>
       </c>
       <c r="F100">
-        <v>-0.15640336724434609</v>
+        <v>5.0280782063673528E-2</v>
       </c>
       <c r="G100">
-        <v>-7.0186497680939527E-2</v>
+        <v>3.1481935578888232E-2</v>
       </c>
       <c r="H100">
-        <v>-3.9752156512596948E-2</v>
+        <v>-1.9765636434406191E-2</v>
       </c>
       <c r="I100">
-        <v>-0.1802971719382957</v>
+        <v>0.1045502831413351</v>
       </c>
       <c r="J100">
-        <v>0.50000034085973977</v>
+        <v>-0.3951375693173429</v>
       </c>
       <c r="K100">
-        <v>0.48273459649560579</v>
+        <v>-0.37378338854864518</v>
       </c>
       <c r="L100">
-        <v>6.8106304407867455E-2</v>
+        <v>-4.8124066381915138E-2</v>
       </c>
       <c r="M100">
-        <v>-0.1807577886239212</v>
+        <v>0.31790233109923038</v>
       </c>
       <c r="N100">
-        <v>0.42564573058083449</v>
+        <v>-0.27751959872980791</v>
       </c>
       <c r="O100">
-        <v>0.3003395795540818</v>
+        <v>-0.20821967548377879</v>
       </c>
       <c r="P100">
-        <v>-0.12831473917139399</v>
+        <v>-6.9832668382792361E-3</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C101">
-        <v>-2.9859222144794959E-2</v>
+        <v>-5.5272556397853473E-2</v>
       </c>
       <c r="D101">
-        <v>-0.1587537627090507</v>
+        <v>-3.5832118078952778E-2</v>
       </c>
       <c r="E101">
-        <v>-0.30086864503428112</v>
+        <v>-0.27594509586236621</v>
       </c>
       <c r="F101">
-        <v>-0.11463009295564749</v>
+        <v>2.0237822735399948E-2</v>
       </c>
       <c r="G101">
-        <v>-3.9348717326467643E-2</v>
+        <v>2.9618097256871291E-2</v>
       </c>
       <c r="H101">
-        <v>1.6929536985242251E-2</v>
+        <v>6.5571027797873244E-2</v>
       </c>
       <c r="I101">
-        <v>-0.15901593128108041</v>
+        <v>-3.6079546063714912E-2</v>
       </c>
       <c r="J101">
-        <v>0.41497529187059568</v>
+        <v>0.25672929208294681</v>
       </c>
       <c r="K101">
-        <v>0.41248917797098522</v>
+        <v>0.26338167719982652</v>
       </c>
       <c r="L101">
-        <v>-0.15055072586573071</v>
+        <v>-0.13956503849636631</v>
       </c>
       <c r="M101">
-        <v>-0.30154860322537302</v>
+        <v>-0.27637275727388672</v>
       </c>
       <c r="N101">
-        <v>0.33784930092732179</v>
+        <v>0.1061365179787684</v>
       </c>
       <c r="O101">
-        <v>0.1863451495386465</v>
+        <v>9.0913734672889657E-2</v>
       </c>
       <c r="P101">
-        <v>-6.2254742627723562E-2</v>
+        <v>-9.5505415888126249E-2</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C102">
-        <v>-3.8063074179624803E-2</v>
+        <v>5.5879114667915777E-3</v>
       </c>
       <c r="D102">
-        <v>-0.1223584670946712</v>
+        <v>4.4956380551748904E-3</v>
       </c>
       <c r="E102">
-        <v>-0.25917210726466278</v>
+        <v>7.3918086625105781E-2</v>
       </c>
       <c r="F102">
-        <v>-8.6379613006981673E-2</v>
+        <v>-1.4111317032547859E-3</v>
       </c>
       <c r="G102">
-        <v>-0.1892432143796903</v>
+        <v>5.9420379718651307E-2</v>
       </c>
       <c r="H102">
-        <v>-0.14527857591877191</v>
+        <v>3.6735640085856378E-2</v>
       </c>
       <c r="I102">
-        <v>-0.122589143966838</v>
+        <v>4.6209247940911186E-3</v>
       </c>
       <c r="J102">
-        <v>0.33182961762397012</v>
+        <v>-0.36735047658356368</v>
       </c>
       <c r="K102">
-        <v>0.33595214472218499</v>
+        <v>-0.38542039588756061</v>
       </c>
       <c r="L102">
-        <v>-8.8477850765974961E-2</v>
+        <v>-0.40447716452541038</v>
       </c>
       <c r="M102">
-        <v>-0.2595753994995445</v>
+        <v>7.4201659228026282E-2</v>
       </c>
       <c r="N102">
-        <v>0.39862393006730779</v>
+        <v>-0.34989505535845911</v>
       </c>
       <c r="O102">
-        <v>0.25442611082883548</v>
+        <v>-0.27590894998424409</v>
       </c>
       <c r="P102">
-        <v>-7.7403855574884675E-2</v>
+        <v>0.1315770053584735</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C103">
-        <v>-3.3846338998437642E-2</v>
+        <v>0.32896494038149648</v>
       </c>
       <c r="D103">
-        <v>-0.2209749999177836</v>
+        <v>-0.22404524975833079</v>
       </c>
       <c r="E103">
-        <v>-0.29223961585246883</v>
+        <v>9.6132523319085242E-2</v>
       </c>
       <c r="F103">
-        <v>-0.19144261323384981</v>
+        <v>-0.2232754306876655</v>
       </c>
       <c r="G103">
-        <v>-0.1533921953449654</v>
+        <v>0.14988357062370131</v>
       </c>
       <c r="H103">
-        <v>-8.4514248216988733E-2</v>
+        <v>0.15105037109993191</v>
       </c>
       <c r="I103">
-        <v>-0.2211965849396591</v>
+        <v>-0.2240391271379977</v>
       </c>
       <c r="J103">
-        <v>0.32651650164288942</v>
+        <v>0.5285647552081445</v>
       </c>
       <c r="K103">
-        <v>0.28987349383602151</v>
+        <v>0.42508663810448888</v>
       </c>
       <c r="L103">
-        <v>-2.8272657904679751E-2</v>
+        <v>-0.1019303841720748</v>
       </c>
       <c r="M103">
-        <v>-0.29299149786689238</v>
+        <v>9.6081578693214709E-2</v>
       </c>
       <c r="N103">
-        <v>0.30515661858720949</v>
+        <v>0.1130697315817704</v>
       </c>
       <c r="O103">
-        <v>0.2329243566152015</v>
+        <v>8.0333966237526505E-2</v>
       </c>
       <c r="P103">
-        <v>-1.4641117557379769E-2</v>
+        <v>-0.36956127535295252</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C104">
-        <v>2.7884704280796861E-2</v>
+        <v>0.30924012245874621</v>
       </c>
       <c r="D104">
-        <v>-3.3784745867927901E-2</v>
+        <v>-0.202806772768412</v>
       </c>
       <c r="E104">
-        <v>-2.1261357324360419E-2</v>
+        <v>0.12807775835356661</v>
       </c>
       <c r="F104">
-        <v>-3.0824778561790171E-2</v>
+        <v>-0.2022095507213065</v>
       </c>
       <c r="G104">
-        <v>-4.2661195640140433E-2</v>
+        <v>0.17618460315341619</v>
       </c>
       <c r="H104">
-        <v>-4.182987451608465E-2</v>
+        <v>0.17721461155343879</v>
       </c>
       <c r="I104">
-        <v>-3.3790476709397763E-2</v>
+        <v>-0.20280097003705211</v>
       </c>
       <c r="J104">
-        <v>6.6017286407877324E-2</v>
+        <v>0.61112849943394487</v>
       </c>
       <c r="K104">
-        <v>0.20083363034806531</v>
+        <v>0.58979366786146226</v>
       </c>
       <c r="L104">
-        <v>0.66312829112135541</v>
+        <v>3.865216393569007E-2</v>
       </c>
       <c r="M104">
-        <v>-2.1219468607337168E-2</v>
+        <v>0.12802419378423541</v>
       </c>
       <c r="N104">
-        <v>9.3515983565986532E-2</v>
+        <v>0.17502423466028119</v>
       </c>
       <c r="O104">
-        <v>8.7707536386722795E-2</v>
+        <v>9.1203138491343941E-2</v>
       </c>
       <c r="P104">
-        <v>-1.191208049625875E-2</v>
+        <v>-0.35988707151527388</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C105">
-        <v>0.1029934675838402</v>
+        <v>0.12071083604939389</v>
       </c>
       <c r="D105">
-        <v>-3.5184509915732451E-2</v>
+        <v>-0.2976526580654546</v>
       </c>
       <c r="E105">
-        <v>-1.959324118088852E-2</v>
+        <v>-0.29558803903476732</v>
       </c>
       <c r="F105">
-        <v>-2.1541260590580449E-2</v>
+        <v>-0.29817947751845059</v>
       </c>
       <c r="G105">
-        <v>-1.6799349526545E-2</v>
+        <v>-0.28741324199467871</v>
       </c>
       <c r="H105">
-        <v>-3.5101029115820297E-2</v>
+        <v>0.53094780056166035</v>
       </c>
       <c r="I105">
-        <v>-3.5201259743352489E-2</v>
+        <v>-0.29762667800138898</v>
       </c>
       <c r="J105">
-        <v>5.9618918657486968E-2</v>
+        <v>0.60972923363436693</v>
       </c>
       <c r="K105">
-        <v>0.19502917236176959</v>
+        <v>0.62201168925828509</v>
       </c>
       <c r="L105">
-        <v>0.61022363009087044</v>
+        <v>-9.9655188573162491E-5</v>
       </c>
       <c r="M105">
-        <v>-1.929043199596641E-2</v>
+        <v>-0.29556248500843968</v>
       </c>
       <c r="N105">
-        <v>5.0060121969129338E-2</v>
+        <v>0.12968210827508089</v>
       </c>
       <c r="O105">
-        <v>4.9250213516140548E-2</v>
+        <v>-6.2632622748582695E-2</v>
       </c>
       <c r="P105">
-        <v>-4.7593508198708022E-2</v>
+        <v>-0.43835870001103072</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C106">
-        <v>0.4307210239788592</v>
+        <v>-0.53563560927520759</v>
       </c>
       <c r="D106">
-        <v>-3.0412878704541811E-2</v>
+        <v>-0.65612370339736603</v>
       </c>
       <c r="E106">
-        <v>7.1180509537691145E-2</v>
+        <v>-0.65419723664875162</v>
       </c>
       <c r="F106">
-        <v>2.097684724143789E-2</v>
+        <v>-0.65218106426904032</v>
       </c>
       <c r="G106">
-        <v>8.0261377749372462E-2</v>
+        <v>-0.65202651631583397</v>
       </c>
       <c r="H106">
-        <v>-4.655739928643695E-2</v>
+        <v>-0.94331768866556731</v>
       </c>
       <c r="I106">
-        <v>-3.0351122570084429E-2</v>
+        <v>-0.65606345953469192</v>
       </c>
       <c r="J106">
-        <v>-0.24829466700043501</v>
+        <v>0.9985831264767252</v>
       </c>
       <c r="K106">
-        <v>-0.23228499465270369</v>
+        <v>0.99999982727020476</v>
       </c>
       <c r="L106">
-        <v>4.2342005941692171E-2</v>
+        <v>0.8998022285401186</v>
       </c>
       <c r="M106">
-        <v>7.3005053342898654E-2</v>
+        <v>-0.65413077362450123</v>
       </c>
       <c r="N106">
-        <v>-0.25138797175182293</v>
+        <v>0.76104847875286163</v>
       </c>
       <c r="O106">
-        <v>-0.2083054855072182</v>
+        <v>0.89434314372759127</v>
       </c>
       <c r="P106">
-        <v>-7.4188972652348265E-2</v>
+        <v>0.80266412568737788</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C107">
-        <v>0.2102842150610022</v>
+        <v>0.1632547585048445</v>
       </c>
       <c r="D107">
-        <v>-0.18664971286499049</v>
+        <v>0.1837260465168033</v>
       </c>
       <c r="E107">
-        <v>-0.19417413779924489</v>
+        <v>0.68356057785796209</v>
       </c>
       <c r="F107">
-        <v>-0.14423438546219661</v>
+        <v>4.1146383459772638E-2</v>
       </c>
       <c r="G107">
-        <v>6.5386400441279122E-2</v>
+        <v>4.73123786432095E-3</v>
       </c>
       <c r="H107">
-        <v>7.5216477690779646E-2</v>
+        <v>-6.5929364177298305E-2</v>
       </c>
       <c r="I107">
-        <v>-0.18683587079602049</v>
+        <v>0.18415839583889279</v>
       </c>
       <c r="J107">
-        <v>0.53966024555524328</v>
+        <v>-0.31251202229314329</v>
       </c>
       <c r="K107">
-        <v>0.49596764253421749</v>
+        <v>-0.30579314849872508</v>
       </c>
       <c r="L107">
-        <v>-2.2084638077512651E-4</v>
+        <v>5.3213068590880437E-2</v>
       </c>
       <c r="M107">
-        <v>-0.19432263309394179</v>
+        <v>0.68422534539106616</v>
       </c>
       <c r="N107">
-        <v>0.3754477941285827</v>
+        <v>-0.30274425714302128</v>
       </c>
       <c r="O107">
-        <v>0.25009727610034538</v>
+        <v>-0.28319894562761999</v>
       </c>
       <c r="P107">
-        <v>-0.1325146607746662</v>
+        <v>2.4342719919127571E-2</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C108">
-        <v>5.9826552048224547E-2</v>
+        <v>6.5393237317716457E-2</v>
       </c>
       <c r="D108">
-        <v>-0.1517817259229409</v>
+        <v>6.9589360634381911E-2</v>
       </c>
       <c r="E108">
-        <v>-0.1651956993621686</v>
+        <v>0.3906754758241498</v>
       </c>
       <c r="F108">
-        <v>-0.12878118901968141</v>
+        <v>-3.3303656801775203E-2</v>
       </c>
       <c r="G108">
-        <v>-2.31275301627995E-2</v>
+        <v>-4.9548131081274101E-2</v>
       </c>
       <c r="H108">
-        <v>5.5715065188443862E-3</v>
+        <v>-5.7362094425376597E-2</v>
       </c>
       <c r="I108">
-        <v>-0.15192407444535491</v>
+        <v>6.9730791237508166E-2</v>
       </c>
       <c r="J108">
-        <v>0.50430619318223635</v>
+        <v>-0.11330296668642741</v>
       </c>
       <c r="K108">
-        <v>0.47940864792369758</v>
+        <v>-0.122330229214535</v>
       </c>
       <c r="L108">
-        <v>8.7848975621977431E-3</v>
+        <v>0.16861088788279821</v>
       </c>
       <c r="M108">
-        <v>-0.16553233510546131</v>
+        <v>0.39057015594374972</v>
       </c>
       <c r="N108">
-        <v>0.36176918496179972</v>
+        <v>-4.1564020571717111E-2</v>
       </c>
       <c r="O108">
-        <v>0.25785872566788393</v>
+        <v>-6.6256395926282324E-2</v>
       </c>
       <c r="P108">
-        <v>-7.7738892570582793E-2</v>
+        <v>0.12477715761384579</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C109">
-        <v>8.6922515484758794E-2</v>
+        <v>8.92382587890896E-2</v>
       </c>
       <c r="D109">
-        <v>2.0815547988513011E-2</v>
+        <v>0.24886545529280171</v>
       </c>
       <c r="E109">
-        <v>-0.1837735909005429</v>
+        <v>0.63630184878725482</v>
       </c>
       <c r="F109">
-        <v>7.9942900389043531E-2</v>
+        <v>0.1180505456529399</v>
       </c>
       <c r="G109">
-        <v>-0.1208487228387779</v>
+        <v>0.40609357608193641</v>
       </c>
       <c r="H109">
-        <v>-0.14364111247964911</v>
+        <v>6.9274582629949644E-3</v>
       </c>
       <c r="I109">
-        <v>2.0593720227495518E-2</v>
+        <v>0.24925850142976361</v>
       </c>
       <c r="J109">
-        <v>0.18953805243756369</v>
+        <v>-0.34756591799266978</v>
       </c>
       <c r="K109">
-        <v>0.22581033525346059</v>
+        <v>-0.35980605497025658</v>
       </c>
       <c r="L109">
-        <v>-0.10394627252822849</v>
+        <v>2.9730999138022761E-2</v>
       </c>
       <c r="M109">
-        <v>-0.18330280767146001</v>
+        <v>0.63673745244404778</v>
       </c>
       <c r="N109">
-        <v>0.25113342203678379</v>
+        <v>-0.3921072780058516</v>
       </c>
       <c r="O109">
-        <v>0.13054955137036581</v>
+        <v>-0.36620099163874831</v>
       </c>
       <c r="P109">
-        <v>-8.0146774309496835E-2</v>
+        <v>2.3613233699938119E-2</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C110">
-        <v>-0.30440714358533122</v>
+        <v>0.22313812117557141</v>
       </c>
       <c r="D110">
-        <v>0.14001886950726919</v>
+        <v>2.2665752822241959E-2</v>
       </c>
       <c r="E110">
-        <v>5.2593998882319347E-3</v>
+        <v>0.11367346483202111</v>
       </c>
       <c r="F110">
-        <v>0.10628959898639111</v>
+        <v>3.5846440394312173E-2</v>
       </c>
       <c r="G110">
-        <v>-0.4133665417279942</v>
+        <v>2.085588606377918E-2</v>
       </c>
       <c r="H110">
-        <v>-0.33558197740947843</v>
+        <v>-5.7903630362639548E-2</v>
       </c>
       <c r="I110">
-        <v>0.13996348674831871</v>
+        <v>2.2753380758984809E-2</v>
       </c>
       <c r="J110">
-        <v>-0.47808048292759392</v>
+        <v>-0.2217968710177893</v>
       </c>
       <c r="K110">
-        <v>-0.42215103735791648</v>
+        <v>-0.21874263668068231</v>
       </c>
       <c r="L110">
-        <v>-0.71799439168468648</v>
+        <v>0.1341625547016006</v>
       </c>
       <c r="M110">
-        <v>4.3416800197867986E-3</v>
+        <v>0.1147801287082683</v>
       </c>
       <c r="N110">
-        <v>-6.4264989655446234E-2</v>
+        <v>-0.1225042009333011</v>
       </c>
       <c r="O110">
-        <v>9.3264119242002577E-2</v>
+        <v>-0.1132483748430126</v>
       </c>
       <c r="P110">
-        <v>0.12098958414406449</v>
+        <v>8.7341841206282619E-2</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C111">
-        <v>-0.1008286248394364</v>
+        <v>-0.25965465625650991</v>
       </c>
       <c r="D111">
-        <v>-4.8516737604003241E-2</v>
+        <v>-4.6329710553946579E-2</v>
       </c>
       <c r="E111">
-        <v>-0.26770761808496579</v>
+        <v>-6.3533965483283342E-2</v>
       </c>
       <c r="F111">
-        <v>-1.776263602268869E-2</v>
+        <v>-0.25981316956049361</v>
       </c>
       <c r="G111">
-        <v>7.2389399119406395E-2</v>
+        <v>-0.42311920456367808</v>
       </c>
       <c r="H111">
-        <v>0.1504394713619229</v>
+        <v>-0.15597083125652869</v>
       </c>
       <c r="I111">
-        <v>-4.8857875004859393E-2</v>
+        <v>-4.6379256173863903E-2</v>
       </c>
       <c r="J111">
-        <v>0.45892316642805331</v>
+        <v>-7.0196479504800041E-2</v>
       </c>
       <c r="K111">
-        <v>0.47178408875311079</v>
+        <v>0.1581203423823615</v>
       </c>
       <c r="L111">
-        <v>-5.6461422299146198E-2</v>
+        <v>0.22683450835286631</v>
       </c>
       <c r="M111">
-        <v>-0.26886380373480528</v>
+        <v>-6.4398784314397314E-2</v>
       </c>
       <c r="N111">
-        <v>0.28482123505077239</v>
+        <v>0.39471223121930538</v>
       </c>
       <c r="O111">
-        <v>0.22918601424818069</v>
+        <v>0.42267417478512148</v>
       </c>
       <c r="P111">
-        <v>5.1916819427157673E-2</v>
+        <v>0.42761530631090577</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+      <c r="C112">
+        <v>-0.21577430307206921</v>
+      </c>
+      <c r="D112">
+        <v>0.32253309553095227</v>
+      </c>
+      <c r="E112">
+        <v>0.21314914645388419</v>
+      </c>
+      <c r="F112">
+        <v>0.2552479554257322</v>
+      </c>
+      <c r="G112">
+        <v>-0.10642686136956581</v>
+      </c>
+      <c r="H112">
+        <v>0.1278819415792484</v>
+      </c>
+      <c r="I112">
+        <v>0.3228714434913586</v>
+      </c>
+      <c r="J112">
+        <v>-0.52059032680955497</v>
+      </c>
+      <c r="K112">
+        <v>-0.44925752675838287</v>
+      </c>
+      <c r="L112">
+        <v>-0.41204131428875562</v>
+      </c>
+      <c r="M112">
+        <v>0.2128928799717531</v>
+      </c>
+      <c r="N112">
+        <v>-0.1150971659902216</v>
+      </c>
+      <c r="O112">
+        <v>-1.937302869503205E-2</v>
+      </c>
+      <c r="P112">
+        <v>0.29187424957981001</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>176</v>
+      </c>
+      <c r="C113">
+        <v>-0.22111197421436091</v>
+      </c>
+      <c r="D113">
+        <v>-1.322105616261078E-3</v>
+      </c>
+      <c r="E113">
+        <v>-9.0854991872386017E-3</v>
+      </c>
+      <c r="F113">
+        <v>-0.23369288773653951</v>
+      </c>
+      <c r="G113">
+        <v>-0.36724093986233181</v>
+      </c>
+      <c r="H113">
+        <v>-2.2136059261683799E-2</v>
+      </c>
+      <c r="I113">
+        <v>-1.4093724028329279E-3</v>
+      </c>
+      <c r="J113">
+        <v>-0.30823664590574529</v>
+      </c>
+      <c r="K113">
+        <v>-0.13872268587734229</v>
+      </c>
+      <c r="L113">
+        <v>-0.21023934489769391</v>
+      </c>
+      <c r="M113">
+        <v>-9.8641326885303086E-3</v>
+      </c>
+      <c r="N113">
+        <v>0.2218827255651114</v>
+      </c>
+      <c r="O113">
+        <v>0.26852248808751339</v>
+      </c>
+      <c r="P113">
+        <v>0.42131278392994831</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>182</v>
+      </c>
+      <c r="C114">
+        <v>-8.1290968566529842E-2</v>
+      </c>
+      <c r="D114">
+        <v>-0.13533492183513071</v>
+      </c>
+      <c r="E114">
+        <v>-0.33106037505044089</v>
+      </c>
+      <c r="F114">
+        <v>-9.2039596817789809E-2</v>
+      </c>
+      <c r="G114">
+        <v>1.6911377999250049E-2</v>
+      </c>
+      <c r="H114">
+        <v>9.5605364051492697E-2</v>
+      </c>
+      <c r="I114">
+        <v>-0.13564520548017411</v>
+      </c>
+      <c r="J114">
+        <v>0.43272100112412121</v>
+      </c>
+      <c r="K114">
+        <v>0.42408188570341498</v>
+      </c>
+      <c r="L114">
+        <v>-1.3879716436605001E-2</v>
+      </c>
+      <c r="M114">
+        <v>-0.33210124724019119</v>
+      </c>
+      <c r="N114">
+        <v>0.30853018766130857</v>
+      </c>
+      <c r="O114">
+        <v>0.25078644355296431</v>
+      </c>
+      <c r="P114">
+        <v>-7.9752077034741329E-3</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>183</v>
+      </c>
+      <c r="C115">
+        <v>-9.7079332314099653E-2</v>
+      </c>
+      <c r="D115">
+        <v>-8.2500398905417077E-2</v>
+      </c>
+      <c r="E115">
+        <v>-0.27475604354177929</v>
+      </c>
+      <c r="F115">
+        <v>-4.4396195653660132E-2</v>
+      </c>
+      <c r="G115">
+        <v>3.86490500636519E-2</v>
+      </c>
+      <c r="H115">
+        <v>0.10356775786775541</v>
+      </c>
+      <c r="I115">
+        <v>-8.273544009241697E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.37036322569111452</v>
+      </c>
+      <c r="K115">
+        <v>0.39520422232617258</v>
+      </c>
+      <c r="L115">
+        <v>-8.819621099855849E-3</v>
+      </c>
+      <c r="M115">
+        <v>-0.27563474648025471</v>
+      </c>
+      <c r="N115">
+        <v>0.26679927742717657</v>
+      </c>
+      <c r="O115">
+        <v>0.20657609194685961</v>
+      </c>
+      <c r="P115">
+        <v>-2.8805431003911131E-2</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>184</v>
+      </c>
+      <c r="C116">
+        <v>5.6077831928709902E-2</v>
+      </c>
+      <c r="D116">
+        <v>-0.3028538468812027</v>
+      </c>
+      <c r="E116">
+        <v>-0.3072477439228356</v>
+      </c>
+      <c r="F116">
+        <v>-0.27039390219126008</v>
+      </c>
+      <c r="G116">
+        <v>-0.46861935283694672</v>
+      </c>
+      <c r="H116">
+        <v>0.10322803845888751</v>
+      </c>
+      <c r="I116">
+        <v>-0.30311463435415292</v>
+      </c>
+      <c r="J116">
+        <v>0.53131112882885645</v>
+      </c>
+      <c r="K116">
+        <v>0.54572972902361261</v>
+      </c>
+      <c r="L116">
+        <v>4.5345177067338913E-2</v>
+      </c>
+      <c r="M116">
+        <v>-0.3080459553331224</v>
+      </c>
+      <c r="N116">
+        <v>0.47866375692971891</v>
+      </c>
+      <c r="O116">
+        <v>0.39527187397427149</v>
+      </c>
+      <c r="P116">
+        <v>-3.9572504695729377E-3</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>191</v>
+      </c>
+      <c r="C117">
+        <v>-0.20173177397794179</v>
+      </c>
+      <c r="D117">
+        <v>0.15191114183448751</v>
+      </c>
+      <c r="E117">
+        <v>0.25265658385283141</v>
+      </c>
+      <c r="F117">
+        <v>9.5329693389979528E-2</v>
+      </c>
+      <c r="G117">
+        <v>0.2866373327598325</v>
+      </c>
+      <c r="H117">
+        <v>-0.30915004578301608</v>
+      </c>
+      <c r="I117">
+        <v>0.1521738154292861</v>
+      </c>
+      <c r="J117">
+        <v>-0.35733136606122229</v>
+      </c>
+      <c r="K117">
+        <v>-0.36604454959000371</v>
+      </c>
+      <c r="L117">
+        <v>3.8925353289614731E-2</v>
+      </c>
+      <c r="M117">
+        <v>0.2527217121620895</v>
+      </c>
+      <c r="N117">
+        <v>-0.25008210552938082</v>
+      </c>
+      <c r="O117">
+        <v>-0.1831692460457521</v>
+      </c>
+      <c r="P117">
+        <v>-1.0024346479416021E-2</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>192</v>
+      </c>
+      <c r="C118">
+        <v>-0.2462338511934318</v>
+      </c>
+      <c r="D118">
+        <v>0.13256181120616689</v>
+      </c>
+      <c r="E118">
+        <v>0.25479928824738712</v>
+      </c>
+      <c r="F118">
+        <v>7.5540362431983948E-2</v>
+      </c>
+      <c r="G118">
+        <v>0.30086201209860258</v>
+      </c>
+      <c r="H118">
+        <v>-0.36977239012889412</v>
+      </c>
+      <c r="I118">
+        <v>0.13290362100310449</v>
+      </c>
+      <c r="J118">
+        <v>-0.37217210463515771</v>
+      </c>
+      <c r="K118">
+        <v>-0.39531394040268969</v>
+      </c>
+      <c r="L118">
+        <v>4.0210743466522543E-2</v>
+      </c>
+      <c r="M118">
+        <v>0.25491130297945708</v>
+      </c>
+      <c r="N118">
+        <v>-0.27817180774919242</v>
+      </c>
+      <c r="O118">
+        <v>-0.22043332192456269</v>
+      </c>
+      <c r="P118">
+        <v>-5.188657407491571E-3</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>197</v>
+      </c>
+      <c r="C119">
+        <v>0.23885897181737939</v>
+      </c>
+      <c r="D119">
+        <v>-1.4121390902819461E-2</v>
+      </c>
+      <c r="E119">
+        <v>5.7883088406916597E-2</v>
+      </c>
+      <c r="F119">
+        <v>1.082783398834994E-2</v>
+      </c>
+      <c r="G119">
+        <v>2.6534124497053359E-2</v>
+      </c>
+      <c r="H119">
+        <v>-4.764030017602832E-2</v>
+      </c>
+      <c r="I119">
+        <v>-1.406090001233364E-2</v>
+      </c>
+      <c r="J119">
+        <v>-0.14015935990515199</v>
+      </c>
+      <c r="K119">
+        <v>-0.1463400620665013</v>
+      </c>
+      <c r="L119">
+        <v>0.17150332599996479</v>
+      </c>
+      <c r="M119">
+        <v>5.8960162121487372E-2</v>
+      </c>
+      <c r="N119">
+        <v>-7.8762378089473076E-2</v>
+      </c>
+      <c r="O119">
+        <v>-8.4885193314756552E-2</v>
+      </c>
+      <c r="P119">
+        <v>8.9526747166133347E-2</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>198</v>
+      </c>
+      <c r="C120">
+        <v>0.1095736995294387</v>
+      </c>
+      <c r="D120">
+        <v>-0.1740129763470919</v>
+      </c>
+      <c r="E120">
+        <v>-0.15117465168293609</v>
+      </c>
+      <c r="F120">
+        <v>-0.15406003977712471</v>
+      </c>
+      <c r="G120">
+        <v>-8.4420308569960554E-3</v>
+      </c>
+      <c r="H120">
+        <v>1.8591878703031368E-2</v>
+      </c>
+      <c r="I120">
+        <v>-0.17413450618499149</v>
+      </c>
+      <c r="J120">
+        <v>0.31935659064989991</v>
+      </c>
+      <c r="K120">
+        <v>0.26974216744693669</v>
+      </c>
+      <c r="L120">
+        <v>-1.131968202710971E-2</v>
+      </c>
+      <c r="M120">
+        <v>-0.1514759248910689</v>
+      </c>
+      <c r="N120">
+        <v>9.2955179163576054E-2</v>
+      </c>
+      <c r="O120">
+        <v>3.3449276961335789E-2</v>
+      </c>
+      <c r="P120">
+        <v>-0.11055955829396261</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>199</v>
+      </c>
+      <c r="C121">
+        <v>1.026287739444694E-2</v>
+      </c>
+      <c r="D121">
+        <v>-3.1309653054617582E-3</v>
+      </c>
+      <c r="E121">
+        <v>8.2214701837293361E-2</v>
+      </c>
+      <c r="F121">
+        <v>-2.6956762088111329E-2</v>
+      </c>
+      <c r="G121">
+        <v>-3.2984649391263443E-2</v>
+      </c>
+      <c r="H121">
+        <v>-3.5047282834581549E-2</v>
+      </c>
+      <c r="I121">
+        <v>-3.1172609397050462E-3</v>
+      </c>
+      <c r="J121">
+        <v>-0.1079415128978474</v>
+      </c>
+      <c r="K121">
+        <v>-0.10946865061739219</v>
+      </c>
+      <c r="L121">
+        <v>-4.8251282988322989E-3</v>
+      </c>
+      <c r="M121">
+        <v>8.212997635766961E-2</v>
+      </c>
+      <c r="N121">
+        <v>-2.5625467439904299E-2</v>
+      </c>
+      <c r="O121">
+        <v>-5.3260210544844672E-2</v>
+      </c>
+      <c r="P121">
+        <v>-4.1548052216155477E-2</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>202</v>
+      </c>
+      <c r="C122">
+        <v>7.3883018057933472E-2</v>
+      </c>
+      <c r="D122">
+        <v>-9.7972252575952948E-2</v>
+      </c>
+      <c r="E122">
+        <v>-6.7107976168273298E-2</v>
+      </c>
+      <c r="F122">
+        <v>-8.5160851202189927E-2</v>
+      </c>
+      <c r="G122">
+        <v>-2.8667861316078909E-2</v>
+      </c>
+      <c r="H122">
+        <v>-5.5136197311114667E-4</v>
+      </c>
+      <c r="I122">
+        <v>-9.8041329137417879E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.40687308274738743</v>
+      </c>
+      <c r="K122">
+        <v>0.2316674509664835</v>
+      </c>
+      <c r="L122">
+        <v>0.46284179702460498</v>
+      </c>
+      <c r="M122">
+        <v>-6.7143198840495702E-2</v>
+      </c>
+      <c r="N122">
+        <v>0.2580587106950829</v>
+      </c>
+      <c r="O122">
+        <v>0.12422321310729451</v>
+      </c>
+      <c r="P122">
+        <v>8.0245731028117051E-2</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>204</v>
+      </c>
+      <c r="C123">
+        <v>-2.1699577627427639E-2</v>
+      </c>
+      <c r="D123">
+        <v>-3.5165561728394627E-2</v>
+      </c>
+      <c r="E123">
+        <v>-0.2854844994096295</v>
+      </c>
+      <c r="F123">
+        <v>3.5902883548482728E-2</v>
+      </c>
+      <c r="G123">
+        <v>-0.2732151828896292</v>
+      </c>
+      <c r="H123">
+        <v>0.60034118127726321</v>
+      </c>
+      <c r="I123">
+        <v>-3.5301630133260833E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.43716203272892767</v>
+      </c>
+      <c r="K123">
+        <v>0.49678549671208339</v>
+      </c>
+      <c r="L123">
+        <v>0.29934282423714959</v>
+      </c>
+      <c r="M123">
+        <v>-0.28549142084741241</v>
+      </c>
+      <c r="N123">
+        <v>0.1036579975363762</v>
+      </c>
+      <c r="O123">
+        <v>-0.16486586685635099</v>
+      </c>
+      <c r="P123">
+        <v>-0.40296308584341439</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C124">
-        <v>-2.994902835781571E-2</v>
+        <v>-5.6681247812325447E-2</v>
       </c>
       <c r="D124">
-        <v>0.1041705232335384</v>
+        <v>1.9095471961926461E-2</v>
       </c>
       <c r="E124">
-        <v>0.31727017170523292</v>
+        <v>-0.25819306104208462</v>
       </c>
       <c r="F124">
-        <v>5.0280782063673528E-2</v>
+        <v>8.5114089112040103E-2</v>
       </c>
       <c r="G124">
-        <v>3.1481935578888232E-2</v>
+        <v>-0.2453651245986351</v>
       </c>
       <c r="H124">
-        <v>-1.9765636434406191E-2</v>
+        <v>0.19633930337910321</v>
       </c>
       <c r="I124">
-        <v>0.1045502831413351</v>
+        <v>1.8966096598426251E-2</v>
       </c>
       <c r="J124">
-        <v>-0.3951375693173429</v>
+        <v>0.75043004350402642</v>
       </c>
       <c r="K124">
-        <v>-0.37378338854864518</v>
+        <v>0.70822657743299411</v>
       </c>
       <c r="L124">
-        <v>-4.8124066381915138E-2</v>
+        <v>0.69539122491575189</v>
       </c>
       <c r="M124">
-        <v>0.31790233109923038</v>
+        <v>-0.25820282820807589</v>
       </c>
       <c r="N124">
-        <v>-0.27751959872980791</v>
+        <v>0.44238877528925852</v>
       </c>
       <c r="O124">
-        <v>-0.20821967548377879</v>
+        <v>0.33633661443226398</v>
       </c>
       <c r="P124">
-        <v>-6.9832668382792361E-3</v>
+        <v>-0.36008153465001408</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="C125">
-        <v>-5.5272556397853473E-2</v>
+        <v>-0.11332901485638661</v>
       </c>
       <c r="D125">
-        <v>-3.5832118078952778E-2</v>
+        <v>-4.2689777328155348E-2</v>
       </c>
       <c r="E125">
-        <v>-0.27594509586236621</v>
+        <v>-6.8222519424317035E-2</v>
       </c>
       <c r="F125">
-        <v>2.0237822735399948E-2</v>
+        <v>-6.7321582659810378E-2</v>
       </c>
       <c r="G125">
-        <v>2.9618097256871291E-2</v>
+        <v>-2.9801706462830998E-3</v>
       </c>
       <c r="H125">
-        <v>6.5571027797873244E-2</v>
+        <v>7.2566150426181947E-2</v>
       </c>
       <c r="I125">
-        <v>-3.6079546063714912E-2</v>
+        <v>-4.2885455475067683E-2</v>
       </c>
       <c r="J125">
-        <v>0.25672929208294681</v>
+        <v>0.37700929574403291</v>
       </c>
       <c r="K125">
-        <v>0.26338167719982652</v>
+        <v>0.34440874182700831</v>
       </c>
       <c r="L125">
-        <v>-0.13956503849636631</v>
+        <v>-1.670513913679216E-3</v>
       </c>
       <c r="M125">
-        <v>-0.27637275727388672</v>
+        <v>-6.9374843639955011E-2</v>
       </c>
       <c r="N125">
-        <v>0.1061365179787684</v>
+        <v>0.28001973295154159</v>
       </c>
       <c r="O125">
-        <v>9.0913734672889657E-2</v>
+        <v>0.28854648795297622</v>
       </c>
       <c r="P125">
-        <v>-9.5505415888126249E-2</v>
+        <v>2.901262242865946E-3</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="C126">
-        <v>5.5879114667915777E-3</v>
+        <v>-7.0591710707074359E-2</v>
       </c>
       <c r="D126">
-        <v>4.4956380551748904E-3</v>
+        <v>-9.7758858462875978E-2</v>
       </c>
       <c r="E126">
-        <v>7.3918086625105781E-2</v>
+        <v>-9.3407384192766313E-2</v>
       </c>
       <c r="F126">
-        <v>-1.4111317032547859E-3</v>
+        <v>-0.11489105626382549</v>
       </c>
       <c r="G126">
-        <v>5.9420379718651307E-2</v>
+        <v>5.7979065842184074E-3</v>
       </c>
       <c r="H126">
-        <v>3.6735640085856378E-2</v>
+        <v>7.6938448907634641E-2</v>
       </c>
       <c r="I126">
-        <v>4.6209247940911186E-3</v>
+        <v>-9.7969066300153326E-2</v>
       </c>
       <c r="J126">
-        <v>-0.36735047658356368</v>
+        <v>0.28532779153437399</v>
       </c>
       <c r="K126">
-        <v>-0.38542039588756061</v>
+        <v>0.26750376171747309</v>
       </c>
       <c r="L126">
-        <v>-0.40447716452541038</v>
+        <v>-6.989775407036275E-2</v>
       </c>
       <c r="M126">
-        <v>7.4201659228026282E-2</v>
+        <v>-9.4482106336903335E-2</v>
       </c>
       <c r="N126">
-        <v>-0.34989505535845911</v>
+        <v>0.25345015779787211</v>
       </c>
       <c r="O126">
-        <v>-0.27590894998424409</v>
+        <v>0.23786878383836341</v>
       </c>
       <c r="P126">
-        <v>0.1315770053584735</v>
+        <v>-4.517153752872257E-2</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>210</v>
+      </c>
+      <c r="C127">
+        <v>-0.1078595234224419</v>
+      </c>
+      <c r="D127">
+        <v>2.869789663811834E-2</v>
+      </c>
+      <c r="E127">
+        <v>-3.0118150433564129E-2</v>
+      </c>
+      <c r="F127">
+        <v>1.050871473149992E-2</v>
+      </c>
+      <c r="G127">
+        <v>5.1110134984285759E-2</v>
+      </c>
+      <c r="H127">
+        <v>0.10365154637790459</v>
+      </c>
+      <c r="I127">
+        <v>2.85443795768929E-2</v>
+      </c>
+      <c r="J127">
+        <v>0.31683090415803111</v>
+      </c>
+      <c r="K127">
+        <v>0.28506449729744449</v>
+      </c>
+      <c r="L127">
+        <v>-4.4538771041776982E-2</v>
+      </c>
+      <c r="M127">
+        <v>-3.099081667776123E-2</v>
+      </c>
+      <c r="N127">
+        <v>0.20282342668999301</v>
+      </c>
+      <c r="O127">
+        <v>0.2132558595480579</v>
+      </c>
+      <c r="P127">
+        <v>1.4235094584308791E-2</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>211</v>
+      </c>
+      <c r="C128">
+        <v>-6.4668824290122669E-3</v>
+      </c>
+      <c r="D128">
+        <v>-0.4883210217401534</v>
+      </c>
+      <c r="E128">
+        <v>-0.50374514671448223</v>
+      </c>
+      <c r="F128">
+        <v>-0.61752269246269187</v>
+      </c>
+      <c r="G128">
+        <v>-0.42162745348690389</v>
+      </c>
+      <c r="H128">
+        <v>-0.25177572870808612</v>
+      </c>
+      <c r="I128">
+        <v>-0.48828716929484922</v>
+      </c>
+      <c r="J128">
+        <v>0.59905550519482897</v>
+      </c>
+      <c r="K128">
+        <v>0.6602963094451767</v>
+      </c>
+      <c r="L128">
+        <v>8.0526564955886004E-2</v>
+      </c>
+      <c r="M128">
+        <v>-0.50333260873060737</v>
+      </c>
+      <c r="N128">
+        <v>0.39467393049318489</v>
+      </c>
+      <c r="O128">
+        <v>0.39470294996493033</v>
+      </c>
+      <c r="P128">
+        <v>0.29628071301397552</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>212</v>
+      </c>
+      <c r="C129">
+        <v>-0.1618946323423969</v>
+      </c>
+      <c r="D129">
+        <v>1.487285259430372E-3</v>
+      </c>
+      <c r="E129">
+        <v>-0.17939439930691131</v>
+      </c>
+      <c r="F129">
+        <v>-6.4971137482881622E-2</v>
+      </c>
+      <c r="G129">
+        <v>-0.14032991164114439</v>
+      </c>
+      <c r="H129">
+        <v>-0.1207012723791526</v>
+      </c>
+      <c r="I129">
+        <v>1.457121018804079E-3</v>
+      </c>
+      <c r="J129">
+        <v>-4.7505797703956708E-2</v>
+      </c>
+      <c r="K129">
+        <v>-9.4325939841703871E-2</v>
+      </c>
+      <c r="L129">
+        <v>0.224552518449639</v>
+      </c>
+      <c r="M129">
+        <v>-0.17977847994943091</v>
+      </c>
+      <c r="N129">
+        <v>0.14827563330198609</v>
+      </c>
+      <c r="O129">
+        <v>7.9017285211824634E-2</v>
+      </c>
+      <c r="P129">
+        <v>8.7026785193631703E-2</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>213</v>
+      </c>
+      <c r="C130">
+        <v>-1.943817527720269E-2</v>
+      </c>
+      <c r="D130">
+        <v>-1.7357582743805781E-2</v>
+      </c>
+      <c r="E130">
+        <v>-4.4073779973731249E-2</v>
+      </c>
+      <c r="F130">
+        <v>-2.2026630833884179E-2</v>
+      </c>
+      <c r="G130">
+        <v>-5.1180668714562678E-2</v>
+      </c>
+      <c r="H130">
+        <v>-4.4614338015064189E-2</v>
+      </c>
+      <c r="I130">
+        <v>-1.7403861168617221E-2</v>
+      </c>
+      <c r="J130">
+        <v>-0.1029545682852302</v>
+      </c>
+      <c r="K130">
+        <v>-0.1122520393423774</v>
+      </c>
+      <c r="L130">
+        <v>-6.3130651290425208E-2</v>
+      </c>
+      <c r="M130">
+        <v>-4.4962232884136567E-2</v>
+      </c>
+      <c r="N130">
+        <v>7.7221980562346224E-3</v>
+      </c>
+      <c r="O130">
+        <v>-3.6704571050663243E-2</v>
+      </c>
+      <c r="P130">
+        <v>-8.2795280910928915E-2</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>214</v>
+      </c>
+      <c r="C131">
+        <v>-2.8093108792268659E-2</v>
+      </c>
+      <c r="D131">
+        <v>-4.6032311020536593E-2</v>
+      </c>
+      <c r="E131">
+        <v>-3.919334956349451E-2</v>
+      </c>
+      <c r="F131">
+        <v>-8.5540565861488546E-2</v>
+      </c>
+      <c r="G131">
+        <v>-6.7655369360647422E-2</v>
+      </c>
+      <c r="H131">
+        <v>-7.641289358284048E-2</v>
+      </c>
+      <c r="I131">
+        <v>-4.6333077857941489E-2</v>
+      </c>
+      <c r="J131">
+        <v>-9.5294192229481156E-2</v>
+      </c>
+      <c r="K131">
+        <v>-0.1009765224946944</v>
+      </c>
+      <c r="L131">
+        <v>3.1889759781209247E-2</v>
+      </c>
+      <c r="M131">
+        <v>-4.0863381981808958E-2</v>
+      </c>
+      <c r="N131">
+        <v>-1.429019495162513E-2</v>
+      </c>
+      <c r="O131">
+        <v>-7.4731634220926241E-2</v>
+      </c>
+      <c r="P131">
+        <v>-9.3466473548180828E-2</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>215</v>
+      </c>
+      <c r="C132">
+        <v>-4.3478271604733748E-2</v>
+      </c>
+      <c r="D132">
+        <v>-2.169110057631965E-2</v>
+      </c>
+      <c r="E132">
+        <v>-4.5845251722650492E-2</v>
+      </c>
+      <c r="F132">
+        <v>-5.6251324250320887E-2</v>
+      </c>
+      <c r="G132">
+        <v>-5.3913995978245158E-2</v>
+      </c>
+      <c r="H132">
+        <v>-4.7060800467693523E-2</v>
+      </c>
+      <c r="I132">
+        <v>-2.1998584157848281E-2</v>
+      </c>
+      <c r="J132">
+        <v>-0.12506492437518091</v>
+      </c>
+      <c r="K132">
+        <v>-0.13528650146722879</v>
+      </c>
+      <c r="L132">
+        <v>-7.2885635767837256E-2</v>
+      </c>
+      <c r="M132">
+        <v>-4.6757852281872493E-2</v>
+      </c>
+      <c r="N132">
+        <v>-7.0346265403998702E-3</v>
+      </c>
+      <c r="O132">
+        <v>-5.6072521224424229E-2</v>
+      </c>
+      <c r="P132">
+        <v>-9.2590640099668761E-2</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>216</v>
+      </c>
+      <c r="C133">
+        <v>1.6917590448400278E-2</v>
+      </c>
+      <c r="D133">
+        <v>-3.8450614048322777E-2</v>
+      </c>
+      <c r="E133">
+        <v>-0.32346124979971758</v>
+      </c>
+      <c r="F133">
+        <v>-6.1678140032068188E-2</v>
+      </c>
+      <c r="G133">
+        <v>-1.3370981930634089E-2</v>
+      </c>
+      <c r="H133">
+        <v>4.8665326249792688E-2</v>
+      </c>
+      <c r="I133">
+        <v>-3.8750912705601298E-2</v>
+      </c>
+      <c r="J133">
+        <v>0.49316979940651351</v>
+      </c>
+      <c r="K133">
+        <v>0.53402093524318406</v>
+      </c>
+      <c r="L133">
+        <v>0.20256312292485781</v>
+      </c>
+      <c r="M133">
+        <v>-0.32910982635649899</v>
+      </c>
+      <c r="N133">
+        <v>0.51987674711091925</v>
+      </c>
+      <c r="O133">
+        <v>0.42117227772946553</v>
+      </c>
+      <c r="P133">
+        <v>0.1228605518127579</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>217</v>
+      </c>
+      <c r="C134">
+        <v>-6.7941355978425336E-2</v>
+      </c>
+      <c r="D134">
+        <v>-9.9648355300695435E-2</v>
+      </c>
+      <c r="E134">
+        <v>-0.14601521376136811</v>
+      </c>
+      <c r="F134">
+        <v>-0.130345054472809</v>
+      </c>
+      <c r="G134">
+        <v>-0.1050349903558742</v>
+      </c>
+      <c r="H134">
+        <v>-9.1574699280091126E-2</v>
+      </c>
+      <c r="I134">
+        <v>-9.965946429263646E-2</v>
+      </c>
+      <c r="J134">
+        <v>-8.606897600941775E-2</v>
+      </c>
+      <c r="K134">
+        <v>-0.12756114829024101</v>
+      </c>
+      <c r="L134">
+        <v>0.13978392692117969</v>
+      </c>
+      <c r="M134">
+        <v>-0.14623616876818721</v>
+      </c>
+      <c r="N134">
+        <v>0.16332688202251361</v>
+      </c>
+      <c r="O134">
+        <v>0.11964125921895161</v>
+      </c>
+      <c r="P134">
+        <v>8.7227885146851161E-2</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>218</v>
+      </c>
+      <c r="C135">
+        <v>-5.1065154656816672E-2</v>
+      </c>
+      <c r="D135">
+        <v>-7.2634981071327834E-2</v>
+      </c>
+      <c r="E135">
+        <v>-0.1060384536276021</v>
+      </c>
+      <c r="F135">
+        <v>-0.10097344354405779</v>
+      </c>
+      <c r="G135">
+        <v>-8.135482884313798E-2</v>
+      </c>
+      <c r="H135">
+        <v>-7.0908762064941872E-2</v>
+      </c>
+      <c r="I135">
+        <v>-7.2723365025662845E-2</v>
+      </c>
+      <c r="J135">
+        <v>-6.105904428779086E-2</v>
+      </c>
+      <c r="K135">
+        <v>-8.8885458863325092E-2</v>
+      </c>
+      <c r="L135">
+        <v>0.22727442420328869</v>
+      </c>
+      <c r="M135">
+        <v>-0.10642515665665619</v>
+      </c>
+      <c r="N135">
+        <v>0.1289255562354093</v>
+      </c>
+      <c r="O135">
+        <v>4.6638000330059153E-2</v>
+      </c>
+      <c r="P135">
+        <v>8.5511324743275857E-2</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>219</v>
+      </c>
+      <c r="C136">
+        <v>-2.4467641241994839E-2</v>
+      </c>
+      <c r="D136">
+        <v>-4.6662974035643262E-2</v>
+      </c>
+      <c r="E136">
+        <v>-3.5579580178129212E-2</v>
+      </c>
+      <c r="F136">
+        <v>-8.4454795785420797E-2</v>
+      </c>
+      <c r="G136">
+        <v>-6.3987508872267423E-2</v>
+      </c>
+      <c r="H136">
+        <v>-6.5820028352050405E-2</v>
+      </c>
+      <c r="I136">
+        <v>-4.6966490025224378E-2</v>
+      </c>
+      <c r="J136">
+        <v>-9.9406512744724396E-2</v>
+      </c>
+      <c r="K136">
+        <v>-0.1030392851654168</v>
+      </c>
+      <c r="L136">
+        <v>-1.49306794214904E-2</v>
+      </c>
+      <c r="M136">
+        <v>-3.7258529191234832E-2</v>
+      </c>
+      <c r="N136">
+        <v>-2.1772801907847372E-2</v>
+      </c>
+      <c r="O136">
+        <v>-7.7068824231547262E-2</v>
+      </c>
+      <c r="P136">
+        <v>-9.7683083348660577E-2</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>220</v>
+      </c>
+      <c r="C137">
+        <v>0.51576981210219397</v>
+      </c>
+      <c r="D137">
+        <v>-0.45350185119440339</v>
+      </c>
+      <c r="E137">
+        <v>-7.5945494938872498E-5</v>
+      </c>
+      <c r="F137">
+        <v>-0.44890559338893432</v>
+      </c>
+      <c r="G137">
+        <v>0.112629347851917</v>
+      </c>
+      <c r="H137">
+        <v>0.1156051112267665</v>
+      </c>
+      <c r="I137">
+        <v>-0.45344442362577991</v>
+      </c>
+      <c r="J137">
+        <v>0.48803595749982281</v>
+      </c>
+      <c r="K137">
+        <v>0.45552895381167852</v>
+      </c>
+      <c r="L137">
+        <v>-0.11602268112804021</v>
+      </c>
+      <c r="M137">
+        <v>-2.428856455533509E-3</v>
+      </c>
+      <c r="N137">
+        <v>0.30013038644679851</v>
+      </c>
+      <c r="O137">
+        <v>0.28033463827136851</v>
+      </c>
+      <c r="P137">
+        <v>-3.0160313768591299E-2</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.16036645599822891</v>
       </c>
       <c r="D138">
-        <v>0.99999999999999978</v>
+        <v>0.14187532572495221</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0.2228495824021903</v>
       </c>
       <c r="F138">
-        <v>0.99999999999999978</v>
+        <v>0.1417826584309565</v>
       </c>
       <c r="G138">
-        <v>0.99999999999999978</v>
+        <v>0.28234645064275382</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0.28385011088975459</v>
       </c>
       <c r="I138">
-        <v>0.99999999999999978</v>
+        <v>0.14158315847916059</v>
       </c>
       <c r="J138">
-        <v>-1</v>
+        <v>0.40422236661797822</v>
       </c>
       <c r="K138">
-        <v>-1</v>
+        <v>0.48272777907518949</v>
       </c>
       <c r="L138">
-        <v>-0.99999999999999978</v>
+        <v>5.2491526685027642E-2</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0.2202994774392931</v>
       </c>
       <c r="N138">
-        <v>-0.99999999999999978</v>
+        <v>7.2514314623440629E-2</v>
       </c>
       <c r="O138">
-        <v>-1</v>
+        <v>4.96214765095052E-2</v>
       </c>
       <c r="P138">
-        <v>1</v>
+        <v>-7.2992433462265055E-2</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>222</v>
+      </c>
+      <c r="C139">
+        <v>0.35303527419624559</v>
+      </c>
+      <c r="D139">
+        <v>-0.11594928054950659</v>
+      </c>
+      <c r="E139">
+        <v>1.435212142175434E-2</v>
+      </c>
+      <c r="F139">
+        <v>-0.35782407395290072</v>
+      </c>
+      <c r="G139">
+        <v>-3.5363295397710139E-2</v>
+      </c>
+      <c r="H139">
+        <v>5.9047129154927977E-2</v>
+      </c>
+      <c r="I139">
+        <v>-0.1164865486563115</v>
+      </c>
+      <c r="J139">
+        <v>0.18091140331279379</v>
+      </c>
+      <c r="K139">
+        <v>0.42841990122911078</v>
+      </c>
+      <c r="L139">
+        <v>0.36302627566256879</v>
+      </c>
+      <c r="M139">
+        <v>1.4236263915631771E-2</v>
+      </c>
+      <c r="N139">
+        <v>0.11234068579961171</v>
+      </c>
+      <c r="O139">
+        <v>0.17759276617204089</v>
+      </c>
+      <c r="P139">
+        <v>-0.45687747120238892</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>223</v>
+      </c>
+      <c r="C140">
+        <v>-0.28918349041759928</v>
+      </c>
+      <c r="D140">
+        <v>-1.613821924710172E-3</v>
+      </c>
+      <c r="E140">
+        <v>-0.13656464743083679</v>
+      </c>
+      <c r="F140">
+        <v>-1.8330144131308269E-2</v>
+      </c>
+      <c r="G140">
+        <v>-1.581471903769173E-2</v>
+      </c>
+      <c r="H140">
+        <v>8.2413697931062332E-2</v>
+      </c>
+      <c r="I140">
+        <v>-1.74338626176253E-3</v>
+      </c>
+      <c r="J140">
+        <v>0.30907575954409777</v>
+      </c>
+      <c r="K140">
+        <v>0.29666312585069332</v>
+      </c>
+      <c r="L140">
+        <v>-0.1026912020412271</v>
+      </c>
+      <c r="M140">
+        <v>-0.13796994643645921</v>
+      </c>
+      <c r="N140">
+        <v>0.16454003498798911</v>
+      </c>
+      <c r="O140">
+        <v>0.15842466564878549</v>
+      </c>
+      <c r="P140">
+        <v>-7.1784457992536063E-2</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="C141">
-        <v>0.32896494038149648</v>
+        <v>1.2102017590268179E-2</v>
       </c>
       <c r="D141">
-        <v>-0.22404524975833079</v>
+        <v>1.908221170298852E-2</v>
       </c>
       <c r="E141">
-        <v>9.6132523319085242E-2</v>
+        <v>-0.1011842885571422</v>
       </c>
       <c r="F141">
-        <v>-0.2232754306876655</v>
+        <v>3.8717210873810921E-2</v>
       </c>
       <c r="G141">
-        <v>0.14988357062370131</v>
+        <v>7.2645693462206215E-2</v>
       </c>
       <c r="H141">
-        <v>0.15105037109993191</v>
+        <v>9.2713282514353137E-2</v>
       </c>
       <c r="I141">
-        <v>-0.2240391271379977</v>
+        <v>1.891622341125504E-2</v>
       </c>
       <c r="J141">
-        <v>0.5285647552081445</v>
+        <v>0.27747684903801689</v>
       </c>
       <c r="K141">
-        <v>0.42508663810448888</v>
+        <v>0.28677001192276652</v>
       </c>
       <c r="L141">
-        <v>-0.1019303841720748</v>
+        <v>1.456883665465609E-2</v>
       </c>
       <c r="M141">
-        <v>9.6081578693214709E-2</v>
+        <v>-0.1015344692111943</v>
       </c>
       <c r="N141">
-        <v>0.1130697315817704</v>
+        <v>0.146292960444661</v>
       </c>
       <c r="O141">
-        <v>8.0333966237526505E-2</v>
+        <v>0.1883088359443372</v>
       </c>
       <c r="P141">
-        <v>-0.36956127535295252</v>
+        <v>-8.7924348048464801E-2</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="C142">
-        <v>0.30924012245874621</v>
+        <v>-0.2116541017671334</v>
       </c>
       <c r="D142">
-        <v>-0.202806772768412</v>
+        <v>-8.2147249636011291E-2</v>
       </c>
       <c r="E142">
-        <v>0.12807775835356661</v>
+        <v>-9.8166355100389513E-2</v>
       </c>
       <c r="F142">
-        <v>-0.2022095507213065</v>
+        <v>-0.1073236659949775</v>
       </c>
       <c r="G142">
-        <v>0.17618460315341619</v>
+        <v>-0.56948264905110524</v>
       </c>
       <c r="H142">
-        <v>0.17721461155343879</v>
+        <v>-1.0789028520473601E-2</v>
       </c>
       <c r="I142">
-        <v>-0.20280097003705211</v>
+        <v>-8.2208559661667402E-2</v>
       </c>
       <c r="J142">
-        <v>0.61112849943394487</v>
+        <v>0.32482142268792641</v>
       </c>
       <c r="K142">
-        <v>0.58979366786146226</v>
+        <v>0.30728887610926459</v>
       </c>
       <c r="L142">
-        <v>3.865216393569007E-2</v>
+        <v>-0.15274625599221231</v>
       </c>
       <c r="M142">
-        <v>0.12802419378423541</v>
+        <v>-9.9302023027795519E-2</v>
       </c>
       <c r="N142">
-        <v>0.17502423466028119</v>
+        <v>0.1489225718800935</v>
       </c>
       <c r="O142">
-        <v>9.1203138491343941E-2</v>
+        <v>0.12185500108720269</v>
       </c>
       <c r="P142">
-        <v>-0.35988707151527388</v>
+        <v>-0.1060879310264904</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C143">
-        <v>0.12071083604939389</v>
+        <v>3.0959349755780549E-4</v>
       </c>
       <c r="D143">
-        <v>-0.2976526580654546</v>
+        <v>0.13722867808606889</v>
       </c>
       <c r="E143">
-        <v>-0.29558803903476732</v>
+        <v>0.28316087346388091</v>
       </c>
       <c r="F143">
-        <v>-0.29817947751845059</v>
+        <v>0.1080323758632228</v>
       </c>
       <c r="G143">
-        <v>-0.28741324199467871</v>
+        <v>-2.4669212204557301E-2</v>
       </c>
       <c r="H143">
-        <v>0.53094780056166035</v>
+        <v>-0.1041312572322608</v>
       </c>
       <c r="I143">
-        <v>-0.29762667800138898</v>
+        <v>0.1376631257750067</v>
       </c>
       <c r="J143">
-        <v>0.60972923363436693</v>
+        <v>-0.4849472204196878</v>
       </c>
       <c r="K143">
-        <v>0.62201168925828509</v>
+        <v>-0.454873538131574</v>
       </c>
       <c r="L143">
-        <v>-9.9655188573162491E-5</v>
+        <v>1.6925953432748289E-2</v>
       </c>
       <c r="M143">
-        <v>-0.29556248500843968</v>
+        <v>0.28430912478732923</v>
       </c>
       <c r="N143">
-        <v>0.12968210827508089</v>
+        <v>-0.31639668700098972</v>
       </c>
       <c r="O143">
-        <v>-6.2632622748582695E-2</v>
+        <v>-0.23761685755556181</v>
       </c>
       <c r="P143">
-        <v>-0.43835870001103072</v>
+        <v>9.3463495702823779E-2</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>233</v>
+      </c>
+      <c r="C144">
+        <v>2.714453500868881E-3</v>
+      </c>
+      <c r="D144">
+        <v>8.6071561496115889E-2</v>
+      </c>
+      <c r="E144">
+        <v>0.19078502232716271</v>
+      </c>
+      <c r="F144">
+        <v>6.8007188908465924E-2</v>
+      </c>
+      <c r="G144">
+        <v>-2.7874296468673489E-2</v>
+      </c>
+      <c r="H144">
+        <v>-8.5603648562178419E-2</v>
+      </c>
+      <c r="I144">
+        <v>8.6379585272319245E-2</v>
+      </c>
+      <c r="J144">
+        <v>-0.34135789457252258</v>
+      </c>
+      <c r="K144">
+        <v>-0.33124377883085238</v>
+      </c>
+      <c r="L144">
+        <v>0.12784386991777361</v>
+      </c>
+      <c r="M144">
+        <v>0.19163356600312911</v>
+      </c>
+      <c r="N144">
+        <v>-0.18708740003136781</v>
+      </c>
+      <c r="O144">
+        <v>-0.15250322274294639</v>
+      </c>
+      <c r="P144">
+        <v>0.1060548105216883</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>234</v>
+      </c>
+      <c r="C145">
+        <v>-0.1183223280293393</v>
+      </c>
+      <c r="D145">
+        <v>0.10328284258596571</v>
+      </c>
+      <c r="E145">
+        <v>-9.6472435000789433E-2</v>
+      </c>
+      <c r="F145">
+        <v>9.4964230071051578E-2</v>
+      </c>
+      <c r="G145">
+        <v>-2.666504285709359E-2</v>
+      </c>
+      <c r="H145">
+        <v>-7.1543121859577443E-3</v>
+      </c>
+      <c r="I145">
+        <v>0.1031788362543105</v>
+      </c>
+      <c r="J145">
+        <v>-2.4082785985785171E-2</v>
+      </c>
+      <c r="K145">
+        <v>-6.0611914371323378E-2</v>
+      </c>
+      <c r="L145">
+        <v>0.20557334177504341</v>
+      </c>
+      <c r="M145">
+        <v>-9.8491851456240689E-2</v>
+      </c>
+      <c r="N145">
+        <v>0.11810216069702591</v>
+      </c>
+      <c r="O145">
+        <v>4.118552661466373E-2</v>
+      </c>
+      <c r="P145">
+        <v>2.976893604684373E-2</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>235</v>
+      </c>
+      <c r="C146">
+        <v>-0.14789979398492981</v>
+      </c>
+      <c r="D146">
+        <v>3.8906947908792157E-2</v>
+      </c>
+      <c r="E146">
+        <v>-0.19115986529966281</v>
+      </c>
+      <c r="F146">
+        <v>3.435468286401875E-2</v>
+      </c>
+      <c r="G146">
+        <v>-0.28738109330512113</v>
+      </c>
+      <c r="H146">
+        <v>-0.29096058203863812</v>
+      </c>
+      <c r="I146">
+        <v>3.8795143042819669E-2</v>
+      </c>
+      <c r="J146">
+        <v>-0.43131973479859231</v>
+      </c>
+      <c r="K146">
+        <v>-0.48968411620615809</v>
+      </c>
+      <c r="L146">
+        <v>-3.8468175199593488E-2</v>
+      </c>
+      <c r="M146">
+        <v>-0.18812573917501491</v>
+      </c>
+      <c r="N146">
+        <v>0.13367331565020721</v>
+      </c>
+      <c r="O146">
+        <v>0.15858474369787071</v>
+      </c>
+      <c r="P146">
+        <v>0.28729584810650138</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="C147">
-        <v>-0.53563560927520759</v>
+        <v>-8.0026498076416763E-3</v>
       </c>
       <c r="D147">
-        <v>-0.65612370339736603</v>
+        <v>3.7029922632575228E-2</v>
       </c>
       <c r="E147">
-        <v>-0.65419723664875162</v>
+        <v>0.18884634805526401</v>
       </c>
       <c r="F147">
-        <v>-0.65218106426904032</v>
+        <v>-1.2603203377977381E-2</v>
       </c>
       <c r="G147">
-        <v>-0.65202651631583397</v>
+        <v>-3.137620941279478E-2</v>
       </c>
       <c r="H147">
-        <v>-0.94331768866556731</v>
+        <v>-3.6806834411222233E-2</v>
       </c>
       <c r="I147">
-        <v>-0.65606345953469192</v>
+        <v>3.7131165354998552E-2</v>
       </c>
       <c r="J147">
-        <v>0.9985831264767252</v>
+        <v>-0.15402824744456539</v>
       </c>
       <c r="K147">
-        <v>0.99999982727020476</v>
+        <v>-0.1513077617590034</v>
       </c>
       <c r="L147">
-        <v>0.8998022285401186</v>
+        <v>-5.2320583714583049E-2</v>
       </c>
       <c r="M147">
-        <v>-0.65413077362450123</v>
+        <v>0.18875814577970379</v>
       </c>
       <c r="N147">
-        <v>0.76104847875286163</v>
+        <v>-8.6411832509650455E-2</v>
       </c>
       <c r="O147">
-        <v>0.89434314372759127</v>
+        <v>-0.1010956430563177</v>
       </c>
       <c r="P147">
-        <v>0.80266412568737788</v>
+        <v>-5.8784058178981587E-2</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>239</v>
+      </c>
+      <c r="C148">
+        <v>-7.9098907170580563E-3</v>
+      </c>
+      <c r="D148">
+        <v>1.8071221704700449E-2</v>
+      </c>
+      <c r="E148">
+        <v>0.13418829863359899</v>
+      </c>
+      <c r="F148">
+        <v>-1.886336459873009E-2</v>
+      </c>
+      <c r="G148">
+        <v>-3.3275676597653701E-2</v>
+      </c>
+      <c r="H148">
+        <v>-3.5910174686899027E-2</v>
+      </c>
+      <c r="I148">
+        <v>1.8135112077890311E-2</v>
+      </c>
+      <c r="J148">
+        <v>-0.13194293945199709</v>
+      </c>
+      <c r="K148">
+        <v>-0.1313238917832811</v>
+      </c>
+      <c r="L148">
+        <v>-3.066653404925284E-2</v>
+      </c>
+      <c r="M148">
+        <v>0.13408910688478359</v>
+      </c>
+      <c r="N148">
+        <v>-5.7631921730438747E-2</v>
+      </c>
+      <c r="O148">
+        <v>-7.8823576503040185E-2</v>
+      </c>
+      <c r="P148">
+        <v>-5.2133907678499722E-2</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+      <c r="C149">
+        <v>-9.7845842220846847E-3</v>
+      </c>
+      <c r="D149">
+        <v>2.416424356686624E-2</v>
+      </c>
+      <c r="E149">
+        <v>0.148327342212558</v>
+      </c>
+      <c r="F149">
+        <v>-1.6056327683923111E-2</v>
+      </c>
+      <c r="G149">
+        <v>-3.2845002615159311E-2</v>
+      </c>
+      <c r="H149">
+        <v>-3.6117511776444601E-2</v>
+      </c>
+      <c r="I149">
+        <v>2.4238487308150761E-2</v>
+      </c>
+      <c r="J149">
+        <v>-0.13949835113084019</v>
+      </c>
+      <c r="K149">
+        <v>-0.13799826483497271</v>
+      </c>
+      <c r="L149">
+        <v>-3.9486638333570939E-2</v>
+      </c>
+      <c r="M149">
+        <v>0.14822973332585779</v>
+      </c>
+      <c r="N149">
+        <v>-6.6648769265727034E-2</v>
+      </c>
+      <c r="O149">
+        <v>-8.5687951878006874E-2</v>
+      </c>
+      <c r="P149">
+        <v>-5.5545888901358198E-2</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>259</v>
+      </c>
+      <c r="C150">
+        <v>-0.1219750594802846</v>
+      </c>
+      <c r="D150">
+        <v>2.3624973350455891E-2</v>
+      </c>
+      <c r="E150">
+        <v>-0.27437351215215477</v>
+      </c>
+      <c r="F150">
+        <v>7.1586817523653631E-2</v>
+      </c>
+      <c r="G150">
+        <v>-0.32679424730514078</v>
+      </c>
+      <c r="H150">
+        <v>0.146079675034337</v>
+      </c>
+      <c r="I150">
+        <v>2.3374492939527199E-2</v>
+      </c>
+      <c r="J150">
+        <v>0.49693142247580152</v>
+      </c>
+      <c r="K150">
+        <v>0.46868778775153458</v>
+      </c>
+      <c r="L150">
+        <v>7.173920120820744E-2</v>
+      </c>
+      <c r="M150">
+        <v>-0.27491826053595081</v>
+      </c>
+      <c r="N150">
+        <v>0.2417695814669005</v>
+      </c>
+      <c r="O150">
+        <v>0.17523796336159519</v>
+      </c>
+      <c r="P150">
+        <v>-0.12662150518671611</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>260</v>
+      </c>
+      <c r="C151">
+        <v>-0.1083607620516973</v>
+      </c>
+      <c r="D151">
+        <v>0.24782778713615999</v>
+      </c>
+      <c r="E151">
+        <v>0.19848500809559841</v>
+      </c>
+      <c r="F151">
+        <v>0.21269092158328859</v>
+      </c>
+      <c r="G151">
+        <v>0.2253909326761506</v>
+      </c>
+      <c r="H151">
+        <v>0.2204592141034899</v>
+      </c>
+      <c r="I151">
+        <v>0.24794333091832271</v>
+      </c>
+      <c r="J151">
+        <v>-0.13407896233758829</v>
+      </c>
+      <c r="K151">
+        <v>-0.1309273543670309</v>
+      </c>
+      <c r="L151">
+        <v>-1.8249423736908198E-2</v>
+      </c>
+      <c r="M151">
+        <v>0.1982638165353264</v>
+      </c>
+      <c r="N151">
+        <v>-0.20841294041224459</v>
+      </c>
+      <c r="O151">
+        <v>-7.665816822297554E-2</v>
+      </c>
+      <c r="P151">
+        <v>0.13702315971099099</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C152">
-        <v>0.1632547585048445</v>
+        <v>-9.827108893578998E-2</v>
       </c>
       <c r="D152">
-        <v>0.1837260465168033</v>
+        <v>-3.4046147085243707E-2</v>
       </c>
       <c r="E152">
-        <v>0.68356057785796209</v>
+        <v>-6.2677896182176937E-2</v>
       </c>
       <c r="F152">
-        <v>4.1146383459772638E-2</v>
+        <v>-1.740262678012764E-2</v>
       </c>
       <c r="G152">
-        <v>4.73123786432095E-3</v>
+        <v>0.26280213208443792</v>
       </c>
       <c r="H152">
-        <v>-6.5929364177298305E-2</v>
+        <v>0.27802204313366907</v>
       </c>
       <c r="I152">
-        <v>0.18415839583889279</v>
+        <v>-3.3914744574373032E-2</v>
       </c>
       <c r="J152">
-        <v>-0.31251202229314329</v>
+        <v>-0.12526271877024531</v>
       </c>
       <c r="K152">
-        <v>-0.30579314849872508</v>
+        <v>-0.18044420893324409</v>
       </c>
       <c r="L152">
-        <v>5.3213068590880437E-2</v>
+        <v>-0.13564876779053561</v>
       </c>
       <c r="M152">
-        <v>0.68422534539106616</v>
+        <v>-6.3001483686213555E-2</v>
       </c>
       <c r="N152">
-        <v>-0.30274425714302128</v>
+        <v>-0.201513156942077</v>
       </c>
       <c r="O152">
-        <v>-0.28319894562761999</v>
+        <v>-0.2177765130747025</v>
       </c>
       <c r="P152">
-        <v>2.4342719919127571E-2</v>
+        <v>-4.5341159596340462E-2</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="B153" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="C153">
-        <v>6.5393237317716457E-2</v>
+        <v>-6.3848469919037976E-2</v>
       </c>
       <c r="D153">
-        <v>6.9589360634381911E-2</v>
+        <v>-4.5025433244086553E-2</v>
       </c>
       <c r="E153">
-        <v>0.3906754758241498</v>
+        <v>-6.7309585542430855E-2</v>
       </c>
       <c r="F153">
-        <v>-3.3303656801775203E-2</v>
+        <v>-3.2091555347743737E-2</v>
       </c>
       <c r="G153">
-        <v>-4.9548131081274101E-2</v>
+        <v>4.6900895347978588E-2</v>
       </c>
       <c r="H153">
-        <v>-5.7362094425376597E-2</v>
+        <v>5.733224290500865E-2</v>
       </c>
       <c r="I153">
-        <v>6.9730791237508166E-2</v>
+        <v>-4.4951543945160093E-2</v>
       </c>
       <c r="J153">
-        <v>-0.11330296668642741</v>
+        <v>-0.15492355424813861</v>
       </c>
       <c r="K153">
-        <v>-0.122330229214535</v>
+        <v>-3.867359544604039E-2</v>
       </c>
       <c r="L153">
-        <v>0.16861088788279821</v>
+        <v>-7.6780779219935452E-2</v>
       </c>
       <c r="M153">
-        <v>0.39057015594374972</v>
+        <v>-6.7401449688802961E-2</v>
       </c>
       <c r="N153">
-        <v>-4.1564020571717111E-2</v>
+        <v>-0.28079046724230272</v>
       </c>
       <c r="O153">
-        <v>-6.6256395926282324E-2</v>
+        <v>-0.25350432631723852</v>
       </c>
       <c r="P153">
-        <v>0.12477715761384579</v>
+        <v>1.165100649598633E-2</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C154">
-        <v>8.92382587890896E-2</v>
+        <v>-0.1109526914840024</v>
       </c>
       <c r="D154">
-        <v>0.24886545529280171</v>
+        <v>-0.1042080335589441</v>
       </c>
       <c r="E154">
-        <v>0.63630184878725482</v>
+        <v>-0.12709850798558439</v>
       </c>
       <c r="F154">
-        <v>0.1180505456529399</v>
+        <v>-8.2388702615090154E-2</v>
       </c>
       <c r="G154">
-        <v>0.40609357608193641</v>
+        <v>-0.1186569809104091</v>
       </c>
       <c r="H154">
-        <v>6.9274582629949644E-3</v>
+        <v>-0.10771915281519021</v>
       </c>
       <c r="I154">
-        <v>0.24925850142976361</v>
+        <v>-0.1041123050363278</v>
       </c>
       <c r="J154">
-        <v>-0.34756591799266978</v>
+        <v>-0.40136316391622839</v>
       </c>
       <c r="K154">
-        <v>-0.35980605497025658</v>
+        <v>-0.41040986319290629</v>
       </c>
       <c r="L154">
-        <v>2.9730999138022761E-2</v>
+        <v>-6.3513609210874428E-2</v>
       </c>
       <c r="M154">
-        <v>0.63673745244404778</v>
+        <v>-0.1270099114062114</v>
       </c>
       <c r="N154">
-        <v>-0.3921072780058516</v>
+        <v>-0.1576908630588251</v>
       </c>
       <c r="O154">
-        <v>-0.36620099163874831</v>
+        <v>-0.18989463530496409</v>
       </c>
       <c r="P154">
-        <v>2.3613233699938119E-2</v>
+        <v>8.1127880353041734E-2</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>264</v>
+      </c>
+      <c r="C155">
+        <v>-0.1226795888951292</v>
+      </c>
+      <c r="D155">
+        <v>-6.5275587453600126E-2</v>
+      </c>
+      <c r="E155">
+        <v>-9.6044641602117259E-2</v>
+      </c>
+      <c r="F155">
+        <v>-4.694536547382528E-2</v>
+      </c>
+      <c r="G155">
+        <v>-0.1103773554811983</v>
+      </c>
+      <c r="H155">
+        <v>-0.10511887760097639</v>
+      </c>
+      <c r="I155">
+        <v>-6.5147152259828131E-2</v>
+      </c>
+      <c r="J155">
+        <v>-0.38529679860684279</v>
+      </c>
+      <c r="K155">
+        <v>-0.40901208905211989</v>
+      </c>
+      <c r="L155">
+        <v>-2.3281284515887929E-2</v>
+      </c>
+      <c r="M155">
+        <v>-9.5880154270893608E-2</v>
+      </c>
+      <c r="N155">
+        <v>-0.16497587985226619</v>
+      </c>
+      <c r="O155">
+        <v>-0.1737748888669379</v>
+      </c>
+      <c r="P155">
+        <v>0.1271272577209015</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="C156">
-        <v>0.22313812117557141</v>
+        <v>-0.11935786393888891</v>
       </c>
       <c r="D156">
-        <v>2.2665752822241959E-2</v>
+        <v>-6.7420376342182953E-2</v>
       </c>
       <c r="E156">
-        <v>0.11367346483202111</v>
+        <v>-9.5626226812609294E-2</v>
       </c>
       <c r="F156">
-        <v>3.5846440394312173E-2</v>
+        <v>-4.8807980730914927E-2</v>
       </c>
       <c r="G156">
-        <v>2.085588606377918E-2</v>
+        <v>-8.7643118288950647E-2</v>
       </c>
       <c r="H156">
-        <v>-5.7903630362639548E-2</v>
+        <v>-8.1946965573975628E-2</v>
       </c>
       <c r="I156">
-        <v>2.2753380758984809E-2</v>
+        <v>-6.7292427095946003E-2</v>
       </c>
       <c r="J156">
-        <v>-0.2217968710177893</v>
+        <v>-0.37681874999611559</v>
       </c>
       <c r="K156">
-        <v>-0.21874263668068231</v>
+        <v>-0.4013922121792049</v>
       </c>
       <c r="L156">
-        <v>0.1341625547016006</v>
+        <v>-2.3993763200476002E-2</v>
       </c>
       <c r="M156">
-        <v>0.1147801287082683</v>
+        <v>-9.5487515298848538E-2</v>
       </c>
       <c r="N156">
-        <v>-0.1225042009333011</v>
+        <v>-0.16916299381772659</v>
       </c>
       <c r="O156">
-        <v>-0.1132483748430126</v>
+        <v>-0.17800284191963739</v>
       </c>
       <c r="P156">
-        <v>8.7341841206282619E-2</v>
+        <v>0.127544983460153</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>-0.1126325098181962</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>4.8940217935807918E-2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0.27354028757299392</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>-2.2541763687338359E-2</v>
       </c>
       <c r="G157">
-        <v>0.99999999999999989</v>
+        <v>-9.2501404393355094E-2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>-9.996464235984355E-2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>4.9311688333217557E-2</v>
       </c>
       <c r="J157">
-        <v>-1</v>
+        <v>-0.42313646650919751</v>
       </c>
       <c r="K157">
-        <v>-1</v>
+        <v>-0.42614353554068962</v>
       </c>
       <c r="L157">
-        <v>-0.99999999999999989</v>
+        <v>-0.1046455794304849</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0.27367308258779161</v>
       </c>
       <c r="N157">
-        <v>-1</v>
+        <v>-0.33409081991500222</v>
       </c>
       <c r="O157">
-        <v>-1</v>
+        <v>-0.32526620548629692</v>
       </c>
       <c r="P157">
-        <v>1</v>
+        <v>4.0083538380774143E-2</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>267</v>
+      </c>
+      <c r="C158">
+        <v>-0.1239061096813876</v>
+      </c>
+      <c r="D158">
+        <v>-7.5622660718634771E-2</v>
+      </c>
+      <c r="E158">
+        <v>-0.1057308681476669</v>
+      </c>
+      <c r="F158">
+        <v>-5.6117341284759439E-2</v>
+      </c>
+      <c r="G158">
+        <v>-0.1198778246287282</v>
+      </c>
+      <c r="H158">
+        <v>-0.1131960417034335</v>
+      </c>
+      <c r="I158">
+        <v>-7.5499777135082741E-2</v>
+      </c>
+      <c r="J158">
+        <v>-0.36855545265558692</v>
+      </c>
+      <c r="K158">
+        <v>-0.40655474035416722</v>
+      </c>
+      <c r="L158">
+        <v>-3.9790431723022122E-2</v>
+      </c>
+      <c r="M158">
+        <v>-0.1055746290510151</v>
+      </c>
+      <c r="N158">
+        <v>-0.14305776228385589</v>
+      </c>
+      <c r="O158">
+        <v>-0.16178838398960699</v>
+      </c>
+      <c r="P158">
+        <v>0.1092130254780907</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>268</v>
+      </c>
+      <c r="C159">
+        <v>-0.12293169875154369</v>
+      </c>
+      <c r="D159">
+        <v>-6.4562033560513765E-2</v>
+      </c>
+      <c r="E159">
+        <v>-9.5329687438701294E-2</v>
+      </c>
+      <c r="F159">
+        <v>-4.6324533849482867E-2</v>
+      </c>
+      <c r="G159">
+        <v>-0.1096491742988077</v>
+      </c>
+      <c r="H159">
+        <v>-0.10448384851240219</v>
+      </c>
+      <c r="I159">
+        <v>-6.4433405829071505E-2</v>
+      </c>
+      <c r="J159">
+        <v>-0.38652660364640601</v>
+      </c>
+      <c r="K159">
+        <v>-0.41080748686291729</v>
+      </c>
+      <c r="L159">
+        <v>-2.3258886119929489E-2</v>
+      </c>
+      <c r="M159">
+        <v>-9.5164862642650533E-2</v>
+      </c>
+      <c r="N159">
+        <v>-0.1659300776884168</v>
+      </c>
+      <c r="O159">
+        <v>-0.17423686796660079</v>
+      </c>
+      <c r="P159">
+        <v>0.12731188091943421</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="C160">
-        <v>-0.25965465625650991</v>
+        <v>-0.1973284149347552</v>
       </c>
       <c r="D160">
-        <v>-4.6329710553946579E-2</v>
+        <v>1.299164345583011E-2</v>
       </c>
       <c r="E160">
-        <v>-6.3533965483283342E-2</v>
+        <v>-0.13571667124327011</v>
       </c>
       <c r="F160">
-        <v>-0.25981316956049361</v>
+        <v>4.1346504560160702E-2</v>
       </c>
       <c r="G160">
-        <v>-0.42311920456367808</v>
+        <v>-0.1278912661616407</v>
       </c>
       <c r="H160">
-        <v>-0.15597083125652869</v>
+        <v>-0.116923810529142</v>
       </c>
       <c r="I160">
-        <v>-4.6379256173863903E-2</v>
+        <v>1.3079042165022771E-2</v>
       </c>
       <c r="J160">
-        <v>-7.0196479504800041E-2</v>
+        <v>-0.28746328455688841</v>
       </c>
       <c r="K160">
-        <v>0.1581203423823615</v>
+        <v>-0.30750590422298107</v>
       </c>
       <c r="L160">
-        <v>0.22683450835286631</v>
+        <v>-3.675908902885288E-2</v>
       </c>
       <c r="M160">
-        <v>-6.4398784314397314E-2</v>
+        <v>-0.13562423466557469</v>
       </c>
       <c r="N160">
-        <v>0.39471223121930538</v>
+        <v>-0.1153036835857342</v>
       </c>
       <c r="O160">
-        <v>0.42267417478512148</v>
+        <v>-0.1545447280436511</v>
       </c>
       <c r="P160">
-        <v>0.42761530631090577</v>
+        <v>0.10341508160894319</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="B161" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="C161">
-        <v>-0.21577430307206921</v>
+        <v>-0.1229568249302968</v>
       </c>
       <c r="D161">
-        <v>0.32253309553095227</v>
+        <v>-6.4834151330928486E-2</v>
       </c>
       <c r="E161">
-        <v>0.21314914645388419</v>
+        <v>-9.5606054994469114E-2</v>
       </c>
       <c r="F161">
-        <v>0.2552479554257322</v>
+        <v>-4.6557837008223892E-2</v>
       </c>
       <c r="G161">
-        <v>-0.10642686136956581</v>
+        <v>-0.10992694383939421</v>
       </c>
       <c r="H161">
-        <v>0.1278819415792484</v>
+        <v>-0.10472710216865271</v>
       </c>
       <c r="I161">
-        <v>0.3228714434913586</v>
+        <v>-6.470557557787239E-2</v>
       </c>
       <c r="J161">
-        <v>-0.52059032680955497</v>
+        <v>-0.38610849446939738</v>
       </c>
       <c r="K161">
-        <v>-0.44925752675838287</v>
+        <v>-0.41091366949858982</v>
       </c>
       <c r="L161">
-        <v>-0.41204131428875562</v>
+        <v>-2.3747612217107861E-2</v>
       </c>
       <c r="M161">
-        <v>0.2128928799717531</v>
+        <v>-9.5441289241140773E-2</v>
       </c>
       <c r="N161">
-        <v>-0.1150971659902216</v>
+        <v>-0.1650671833460878</v>
       </c>
       <c r="O161">
-        <v>-1.937302869503205E-2</v>
+        <v>-0.1736546195388334</v>
       </c>
       <c r="P161">
-        <v>0.29187424957981001</v>
+        <v>0.1269970855082351</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="C162">
-        <v>-0.22111197421436091</v>
+        <v>-0.1880586372525668</v>
       </c>
       <c r="D162">
-        <v>-1.322105616261078E-3</v>
+        <v>7.6581001202606663E-2</v>
       </c>
       <c r="E162">
-        <v>-9.0854991872386017E-3</v>
+        <v>-6.7418099570299025E-2</v>
       </c>
       <c r="F162">
-        <v>-0.23369288773653951</v>
+        <v>7.6045460865822548E-2</v>
       </c>
       <c r="G162">
-        <v>-0.36724093986233181</v>
+        <v>-0.21628096075114031</v>
       </c>
       <c r="H162">
-        <v>-2.2136059261683799E-2</v>
+        <v>-0.1891759048689283</v>
       </c>
       <c r="I162">
-        <v>-1.4093724028329279E-3</v>
+        <v>7.6493855995913726E-2</v>
       </c>
       <c r="J162">
-        <v>-0.30823664590574529</v>
+        <v>0.13653167669675861</v>
       </c>
       <c r="K162">
-        <v>-0.13872268587734229</v>
+        <v>0.1143489498999522</v>
       </c>
       <c r="L162">
-        <v>-0.21023934489769391</v>
+        <v>1.5362200838148481E-2</v>
       </c>
       <c r="M162">
-        <v>-9.8641326885303086E-3</v>
+        <v>-6.765285790842912E-2</v>
       </c>
       <c r="N162">
-        <v>0.2218827255651114</v>
+        <v>0.40965728269539448</v>
       </c>
       <c r="O162">
-        <v>0.26852248808751339</v>
+        <v>0.28707935067148732</v>
       </c>
       <c r="P162">
-        <v>0.42131278392994831</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>182</v>
-      </c>
-      <c r="C168">
-        <v>-8.1290968566529842E-2</v>
-      </c>
-      <c r="D168">
-        <v>-0.13533492183513071</v>
-      </c>
-      <c r="E168">
-        <v>-0.33106037505044089</v>
-      </c>
-      <c r="F168">
-        <v>-9.2039596817789809E-2</v>
-      </c>
-      <c r="G168">
-        <v>1.6911377999250049E-2</v>
-      </c>
-      <c r="H168">
-        <v>9.5605364051492697E-2</v>
-      </c>
-      <c r="I168">
-        <v>-0.13564520548017411</v>
-      </c>
-      <c r="J168">
-        <v>0.43272100112412121</v>
-      </c>
-      <c r="K168">
-        <v>0.42408188570341498</v>
-      </c>
-      <c r="L168">
-        <v>-1.3879716436605001E-2</v>
-      </c>
-      <c r="M168">
-        <v>-0.33210124724019119</v>
-      </c>
-      <c r="N168">
-        <v>0.30853018766130857</v>
-      </c>
-      <c r="O168">
-        <v>0.25078644355296431</v>
-      </c>
-      <c r="P168">
-        <v>-7.9752077034741329E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>183</v>
-      </c>
-      <c r="C169">
-        <v>-9.7079332314099653E-2</v>
-      </c>
-      <c r="D169">
-        <v>-8.2500398905417077E-2</v>
-      </c>
-      <c r="E169">
-        <v>-0.27475604354177929</v>
-      </c>
-      <c r="F169">
-        <v>-4.4396195653660132E-2</v>
-      </c>
-      <c r="G169">
-        <v>3.86490500636519E-2</v>
-      </c>
-      <c r="H169">
-        <v>0.10356775786775541</v>
-      </c>
-      <c r="I169">
-        <v>-8.273544009241697E-2</v>
-      </c>
-      <c r="J169">
-        <v>0.37036322569111452</v>
-      </c>
-      <c r="K169">
-        <v>0.39520422232617258</v>
-      </c>
-      <c r="L169">
-        <v>-8.819621099855849E-3</v>
-      </c>
-      <c r="M169">
-        <v>-0.27563474648025471</v>
-      </c>
-      <c r="N169">
-        <v>0.26679927742717657</v>
-      </c>
-      <c r="O169">
-        <v>0.20657609194685961</v>
-      </c>
-      <c r="P169">
-        <v>-2.8805431003911131E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>184</v>
-      </c>
-      <c r="C170">
-        <v>5.6077831928709902E-2</v>
-      </c>
-      <c r="D170">
-        <v>-0.3028538468812027</v>
-      </c>
-      <c r="E170">
-        <v>-0.3072477439228356</v>
-      </c>
-      <c r="F170">
-        <v>-0.27039390219126008</v>
-      </c>
-      <c r="G170">
-        <v>-0.46861935283694672</v>
-      </c>
-      <c r="H170">
-        <v>0.10322803845888751</v>
-      </c>
-      <c r="I170">
-        <v>-0.30311463435415292</v>
-      </c>
-      <c r="J170">
-        <v>0.53131112882885645</v>
-      </c>
-      <c r="K170">
-        <v>0.54572972902361261</v>
-      </c>
-      <c r="L170">
-        <v>4.5345177067338913E-2</v>
-      </c>
-      <c r="M170">
-        <v>-0.3080459553331224</v>
-      </c>
-      <c r="N170">
-        <v>0.47866375692971891</v>
-      </c>
-      <c r="O170">
-        <v>0.39527187397427149</v>
-      </c>
-      <c r="P170">
-        <v>-3.9572504695729377E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>191</v>
-      </c>
-      <c r="C177">
-        <v>-0.20173177397794179</v>
-      </c>
-      <c r="D177">
-        <v>0.15191114183448751</v>
-      </c>
-      <c r="E177">
-        <v>0.25265658385283141</v>
-      </c>
-      <c r="F177">
-        <v>9.5329693389979528E-2</v>
-      </c>
-      <c r="G177">
-        <v>0.2866373327598325</v>
-      </c>
-      <c r="H177">
-        <v>-0.30915004578301608</v>
-      </c>
-      <c r="I177">
-        <v>0.1521738154292861</v>
-      </c>
-      <c r="J177">
-        <v>-0.35733136606122229</v>
-      </c>
-      <c r="K177">
-        <v>-0.36604454959000371</v>
-      </c>
-      <c r="L177">
-        <v>3.8925353289614731E-2</v>
-      </c>
-      <c r="M177">
-        <v>0.2527217121620895</v>
-      </c>
-      <c r="N177">
-        <v>-0.25008210552938082</v>
-      </c>
-      <c r="O177">
-        <v>-0.1831692460457521</v>
-      </c>
-      <c r="P177">
-        <v>-1.0024346479416021E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>192</v>
-      </c>
-      <c r="C178">
-        <v>-0.2462338511934318</v>
-      </c>
-      <c r="D178">
-        <v>0.13256181120616689</v>
-      </c>
-      <c r="E178">
-        <v>0.25479928824738712</v>
-      </c>
-      <c r="F178">
-        <v>7.5540362431983948E-2</v>
-      </c>
-      <c r="G178">
-        <v>0.30086201209860258</v>
-      </c>
-      <c r="H178">
-        <v>-0.36977239012889412</v>
-      </c>
-      <c r="I178">
-        <v>0.13290362100310449</v>
-      </c>
-      <c r="J178">
-        <v>-0.37217210463515771</v>
-      </c>
-      <c r="K178">
-        <v>-0.39531394040268969</v>
-      </c>
-      <c r="L178">
-        <v>4.0210743466522543E-2</v>
-      </c>
-      <c r="M178">
-        <v>0.25491130297945708</v>
-      </c>
-      <c r="N178">
-        <v>-0.27817180774919242</v>
-      </c>
-      <c r="O178">
-        <v>-0.22043332192456269</v>
-      </c>
-      <c r="P178">
-        <v>-5.188657407491571E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>197</v>
-      </c>
-      <c r="C183">
-        <v>0.23885897181737939</v>
-      </c>
-      <c r="D183">
-        <v>-1.4121390902819461E-2</v>
-      </c>
-      <c r="E183">
-        <v>5.7883088406916597E-2</v>
-      </c>
-      <c r="F183">
-        <v>1.082783398834994E-2</v>
-      </c>
-      <c r="G183">
-        <v>2.6534124497053359E-2</v>
-      </c>
-      <c r="H183">
-        <v>-4.764030017602832E-2</v>
-      </c>
-      <c r="I183">
-        <v>-1.406090001233364E-2</v>
-      </c>
-      <c r="J183">
-        <v>-0.14015935990515199</v>
-      </c>
-      <c r="K183">
-        <v>-0.1463400620665013</v>
-      </c>
-      <c r="L183">
-        <v>0.17150332599996479</v>
-      </c>
-      <c r="M183">
-        <v>5.8960162121487372E-2</v>
-      </c>
-      <c r="N183">
-        <v>-7.8762378089473076E-2</v>
-      </c>
-      <c r="O183">
-        <v>-8.4885193314756552E-2</v>
-      </c>
-      <c r="P183">
-        <v>8.9526747166133347E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>198</v>
-      </c>
-      <c r="C184">
-        <v>0.1095736995294387</v>
-      </c>
-      <c r="D184">
-        <v>-0.1740129763470919</v>
-      </c>
-      <c r="E184">
-        <v>-0.15117465168293609</v>
-      </c>
-      <c r="F184">
-        <v>-0.15406003977712471</v>
-      </c>
-      <c r="G184">
-        <v>-8.4420308569960554E-3</v>
-      </c>
-      <c r="H184">
-        <v>1.8591878703031368E-2</v>
-      </c>
-      <c r="I184">
-        <v>-0.17413450618499149</v>
-      </c>
-      <c r="J184">
-        <v>0.31935659064989991</v>
-      </c>
-      <c r="K184">
-        <v>0.26974216744693669</v>
-      </c>
-      <c r="L184">
-        <v>-1.131968202710971E-2</v>
-      </c>
-      <c r="M184">
-        <v>-0.1514759248910689</v>
-      </c>
-      <c r="N184">
-        <v>9.2955179163576054E-2</v>
-      </c>
-      <c r="O184">
-        <v>3.3449276961335789E-2</v>
-      </c>
-      <c r="P184">
-        <v>-0.11055955829396261</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>199</v>
-      </c>
-      <c r="C185">
-        <v>1.026287739444694E-2</v>
-      </c>
-      <c r="D185">
-        <v>-3.1309653054617582E-3</v>
-      </c>
-      <c r="E185">
-        <v>8.2214701837293361E-2</v>
-      </c>
-      <c r="F185">
-        <v>-2.6956762088111329E-2</v>
-      </c>
-      <c r="G185">
-        <v>-3.2984649391263443E-2</v>
-      </c>
-      <c r="H185">
-        <v>-3.5047282834581549E-2</v>
-      </c>
-      <c r="I185">
-        <v>-3.1172609397050462E-3</v>
-      </c>
-      <c r="J185">
-        <v>-0.1079415128978474</v>
-      </c>
-      <c r="K185">
-        <v>-0.10946865061739219</v>
-      </c>
-      <c r="L185">
-        <v>-4.8251282988322989E-3</v>
-      </c>
-      <c r="M185">
-        <v>8.212997635766961E-2</v>
-      </c>
-      <c r="N185">
-        <v>-2.5625467439904299E-2</v>
-      </c>
-      <c r="O185">
-        <v>-5.3260210544844672E-2</v>
-      </c>
-      <c r="P185">
-        <v>-4.1548052216155477E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>202</v>
-      </c>
-      <c r="C188">
-        <v>7.3883018057933472E-2</v>
-      </c>
-      <c r="D188">
-        <v>-9.7972252575952948E-2</v>
-      </c>
-      <c r="E188">
-        <v>-6.7107976168273298E-2</v>
-      </c>
-      <c r="F188">
-        <v>-8.5160851202189927E-2</v>
-      </c>
-      <c r="G188">
-        <v>-2.8667861316078909E-2</v>
-      </c>
-      <c r="H188">
-        <v>-5.5136197311114667E-4</v>
-      </c>
-      <c r="I188">
-        <v>-9.8041329137417879E-2</v>
-      </c>
-      <c r="J188">
-        <v>0.40687308274738743</v>
-      </c>
-      <c r="K188">
-        <v>0.2316674509664835</v>
-      </c>
-      <c r="L188">
-        <v>0.46284179702460498</v>
-      </c>
-      <c r="M188">
-        <v>-6.7143198840495702E-2</v>
-      </c>
-      <c r="N188">
-        <v>0.2580587106950829</v>
-      </c>
-      <c r="O188">
-        <v>0.12422321310729451</v>
-      </c>
-      <c r="P188">
-        <v>8.0245731028117051E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>203</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <v>-1</v>
-      </c>
-      <c r="K189">
-        <v>-1</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="N189">
-        <v>1</v>
-      </c>
-      <c r="O189">
-        <v>-1</v>
-      </c>
-      <c r="P189">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>204</v>
-      </c>
-      <c r="C190">
-        <v>-2.1699577627427639E-2</v>
-      </c>
-      <c r="D190">
-        <v>-3.5165561728394627E-2</v>
-      </c>
-      <c r="E190">
-        <v>-0.2854844994096295</v>
-      </c>
-      <c r="F190">
-        <v>3.5902883548482728E-2</v>
-      </c>
-      <c r="G190">
-        <v>-0.2732151828896292</v>
-      </c>
-      <c r="H190">
-        <v>0.60034118127726321</v>
-      </c>
-      <c r="I190">
-        <v>-3.5301630133260833E-2</v>
-      </c>
-      <c r="J190">
-        <v>0.43716203272892767</v>
-      </c>
-      <c r="K190">
-        <v>0.49678549671208339</v>
-      </c>
-      <c r="L190">
-        <v>0.29934282423714959</v>
-      </c>
-      <c r="M190">
-        <v>-0.28549142084741241</v>
-      </c>
-      <c r="N190">
-        <v>0.1036579975363762</v>
-      </c>
-      <c r="O190">
-        <v>-0.16486586685635099</v>
-      </c>
-      <c r="P190">
-        <v>-0.40296308584341439</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>205</v>
-      </c>
-      <c r="C191">
-        <v>-5.6681247812325447E-2</v>
-      </c>
-      <c r="D191">
-        <v>1.9095471961926461E-2</v>
-      </c>
-      <c r="E191">
-        <v>-0.25819306104208462</v>
-      </c>
-      <c r="F191">
-        <v>8.5114089112040103E-2</v>
-      </c>
-      <c r="G191">
-        <v>-0.2453651245986351</v>
-      </c>
-      <c r="H191">
-        <v>0.19633930337910321</v>
-      </c>
-      <c r="I191">
-        <v>1.8966096598426251E-2</v>
-      </c>
-      <c r="J191">
-        <v>0.75043004350402642</v>
-      </c>
-      <c r="K191">
-        <v>0.70822657743299411</v>
-      </c>
-      <c r="L191">
-        <v>0.69539122491575189</v>
-      </c>
-      <c r="M191">
-        <v>-0.25820282820807589</v>
-      </c>
-      <c r="N191">
-        <v>0.44238877528925852</v>
-      </c>
-      <c r="O191">
-        <v>0.33633661443226398</v>
-      </c>
-      <c r="P191">
-        <v>-0.36008153465001408</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>208</v>
-      </c>
-      <c r="C194">
-        <v>-0.11332901485638661</v>
-      </c>
-      <c r="D194">
-        <v>-4.2689777328155348E-2</v>
-      </c>
-      <c r="E194">
-        <v>-6.8222519424317035E-2</v>
-      </c>
-      <c r="F194">
-        <v>-6.7321582659810378E-2</v>
-      </c>
-      <c r="G194">
-        <v>-2.9801706462830998E-3</v>
-      </c>
-      <c r="H194">
-        <v>7.2566150426181947E-2</v>
-      </c>
-      <c r="I194">
-        <v>-4.2885455475067683E-2</v>
-      </c>
-      <c r="J194">
-        <v>0.37700929574403291</v>
-      </c>
-      <c r="K194">
-        <v>0.34440874182700831</v>
-      </c>
-      <c r="L194">
-        <v>-1.670513913679216E-3</v>
-      </c>
-      <c r="M194">
-        <v>-6.9374843639955011E-2</v>
-      </c>
-      <c r="N194">
-        <v>0.28001973295154159</v>
-      </c>
-      <c r="O194">
-        <v>0.28854648795297622</v>
-      </c>
-      <c r="P194">
-        <v>2.901262242865946E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C195">
-        <v>-7.0591710707074359E-2</v>
-      </c>
-      <c r="D195">
-        <v>-9.7758858462875978E-2</v>
-      </c>
-      <c r="E195">
-        <v>-9.3407384192766313E-2</v>
-      </c>
-      <c r="F195">
-        <v>-0.11489105626382549</v>
-      </c>
-      <c r="G195">
-        <v>5.7979065842184074E-3</v>
-      </c>
-      <c r="H195">
-        <v>7.6938448907634641E-2</v>
-      </c>
-      <c r="I195">
-        <v>-9.7969066300153326E-2</v>
-      </c>
-      <c r="J195">
-        <v>0.28532779153437399</v>
-      </c>
-      <c r="K195">
-        <v>0.26750376171747309</v>
-      </c>
-      <c r="L195">
-        <v>-6.989775407036275E-2</v>
-      </c>
-      <c r="M195">
-        <v>-9.4482106336903335E-2</v>
-      </c>
-      <c r="N195">
-        <v>0.25345015779787211</v>
-      </c>
-      <c r="O195">
-        <v>0.23786878383836341</v>
-      </c>
-      <c r="P195">
-        <v>-4.517153752872257E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C196">
-        <v>-0.1078595234224419</v>
-      </c>
-      <c r="D196">
-        <v>2.869789663811834E-2</v>
-      </c>
-      <c r="E196">
-        <v>-3.0118150433564129E-2</v>
-      </c>
-      <c r="F196">
-        <v>1.050871473149992E-2</v>
-      </c>
-      <c r="G196">
-        <v>5.1110134984285759E-2</v>
-      </c>
-      <c r="H196">
-        <v>0.10365154637790459</v>
-      </c>
-      <c r="I196">
-        <v>2.85443795768929E-2</v>
-      </c>
-      <c r="J196">
-        <v>0.31683090415803111</v>
-      </c>
-      <c r="K196">
-        <v>0.28506449729744449</v>
-      </c>
-      <c r="L196">
-        <v>-4.4538771041776982E-2</v>
-      </c>
-      <c r="M196">
-        <v>-3.099081667776123E-2</v>
-      </c>
-      <c r="N196">
-        <v>0.20282342668999301</v>
-      </c>
-      <c r="O196">
-        <v>0.2132558595480579</v>
-      </c>
-      <c r="P196">
-        <v>1.4235094584308791E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" t="s">
-        <v>211</v>
-      </c>
-      <c r="C197">
-        <v>-6.4668824290122669E-3</v>
-      </c>
-      <c r="D197">
-        <v>-0.4883210217401534</v>
-      </c>
-      <c r="E197">
-        <v>-0.50374514671448223</v>
-      </c>
-      <c r="F197">
-        <v>-0.61752269246269187</v>
-      </c>
-      <c r="G197">
-        <v>-0.42162745348690389</v>
-      </c>
-      <c r="H197">
-        <v>-0.25177572870808612</v>
-      </c>
-      <c r="I197">
-        <v>-0.48828716929484922</v>
-      </c>
-      <c r="J197">
-        <v>0.59905550519482897</v>
-      </c>
-      <c r="K197">
-        <v>0.6602963094451767</v>
-      </c>
-      <c r="L197">
-        <v>8.0526564955886004E-2</v>
-      </c>
-      <c r="M197">
-        <v>-0.50333260873060737</v>
-      </c>
-      <c r="N197">
-        <v>0.39467393049318489</v>
-      </c>
-      <c r="O197">
-        <v>0.39470294996493033</v>
-      </c>
-      <c r="P197">
-        <v>0.29628071301397552</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" t="s">
-        <v>212</v>
-      </c>
-      <c r="C198">
-        <v>-0.1618946323423969</v>
-      </c>
-      <c r="D198">
-        <v>1.487285259430372E-3</v>
-      </c>
-      <c r="E198">
-        <v>-0.17939439930691131</v>
-      </c>
-      <c r="F198">
-        <v>-6.4971137482881622E-2</v>
-      </c>
-      <c r="G198">
-        <v>-0.14032991164114439</v>
-      </c>
-      <c r="H198">
-        <v>-0.1207012723791526</v>
-      </c>
-      <c r="I198">
-        <v>1.457121018804079E-3</v>
-      </c>
-      <c r="J198">
-        <v>-4.7505797703956708E-2</v>
-      </c>
-      <c r="K198">
-        <v>-9.4325939841703871E-2</v>
-      </c>
-      <c r="L198">
-        <v>0.224552518449639</v>
-      </c>
-      <c r="M198">
-        <v>-0.17977847994943091</v>
-      </c>
-      <c r="N198">
-        <v>0.14827563330198609</v>
-      </c>
-      <c r="O198">
-        <v>7.9017285211824634E-2</v>
-      </c>
-      <c r="P198">
-        <v>8.7026785193631703E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>213</v>
-      </c>
-      <c r="C199">
-        <v>-1.943817527720269E-2</v>
-      </c>
-      <c r="D199">
-        <v>-1.7357582743805781E-2</v>
-      </c>
-      <c r="E199">
-        <v>-4.4073779973731249E-2</v>
-      </c>
-      <c r="F199">
-        <v>-2.2026630833884179E-2</v>
-      </c>
-      <c r="G199">
-        <v>-5.1180668714562678E-2</v>
-      </c>
-      <c r="H199">
-        <v>-4.4614338015064189E-2</v>
-      </c>
-      <c r="I199">
-        <v>-1.7403861168617221E-2</v>
-      </c>
-      <c r="J199">
-        <v>-0.1029545682852302</v>
-      </c>
-      <c r="K199">
-        <v>-0.1122520393423774</v>
-      </c>
-      <c r="L199">
-        <v>-6.3130651290425208E-2</v>
-      </c>
-      <c r="M199">
-        <v>-4.4962232884136567E-2</v>
-      </c>
-      <c r="N199">
-        <v>7.7221980562346224E-3</v>
-      </c>
-      <c r="O199">
-        <v>-3.6704571050663243E-2</v>
-      </c>
-      <c r="P199">
-        <v>-8.2795280910928915E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>214</v>
-      </c>
-      <c r="C200">
-        <v>-2.8093108792268659E-2</v>
-      </c>
-      <c r="D200">
-        <v>-4.6032311020536593E-2</v>
-      </c>
-      <c r="E200">
-        <v>-3.919334956349451E-2</v>
-      </c>
-      <c r="F200">
-        <v>-8.5540565861488546E-2</v>
-      </c>
-      <c r="G200">
-        <v>-6.7655369360647422E-2</v>
-      </c>
-      <c r="H200">
-        <v>-7.641289358284048E-2</v>
-      </c>
-      <c r="I200">
-        <v>-4.6333077857941489E-2</v>
-      </c>
-      <c r="J200">
-        <v>-9.5294192229481156E-2</v>
-      </c>
-      <c r="K200">
-        <v>-0.1009765224946944</v>
-      </c>
-      <c r="L200">
-        <v>3.1889759781209247E-2</v>
-      </c>
-      <c r="M200">
-        <v>-4.0863381981808958E-2</v>
-      </c>
-      <c r="N200">
-        <v>-1.429019495162513E-2</v>
-      </c>
-      <c r="O200">
-        <v>-7.4731634220926241E-2</v>
-      </c>
-      <c r="P200">
-        <v>-9.3466473548180828E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>215</v>
-      </c>
-      <c r="C201">
-        <v>-4.3478271604733748E-2</v>
-      </c>
-      <c r="D201">
-        <v>-2.169110057631965E-2</v>
-      </c>
-      <c r="E201">
-        <v>-4.5845251722650492E-2</v>
-      </c>
-      <c r="F201">
-        <v>-5.6251324250320887E-2</v>
-      </c>
-      <c r="G201">
-        <v>-5.3913995978245158E-2</v>
-      </c>
-      <c r="H201">
-        <v>-4.7060800467693523E-2</v>
-      </c>
-      <c r="I201">
-        <v>-2.1998584157848281E-2</v>
-      </c>
-      <c r="J201">
-        <v>-0.12506492437518091</v>
-      </c>
-      <c r="K201">
-        <v>-0.13528650146722879</v>
-      </c>
-      <c r="L201">
-        <v>-7.2885635767837256E-2</v>
-      </c>
-      <c r="M201">
-        <v>-4.6757852281872493E-2</v>
-      </c>
-      <c r="N201">
-        <v>-7.0346265403998702E-3</v>
-      </c>
-      <c r="O201">
-        <v>-5.6072521224424229E-2</v>
-      </c>
-      <c r="P201">
-        <v>-9.2590640099668761E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>216</v>
-      </c>
-      <c r="C202">
-        <v>1.6917590448400278E-2</v>
-      </c>
-      <c r="D202">
-        <v>-3.8450614048322777E-2</v>
-      </c>
-      <c r="E202">
-        <v>-0.32346124979971758</v>
-      </c>
-      <c r="F202">
-        <v>-6.1678140032068188E-2</v>
-      </c>
-      <c r="G202">
-        <v>-1.3370981930634089E-2</v>
-      </c>
-      <c r="H202">
-        <v>4.8665326249792688E-2</v>
-      </c>
-      <c r="I202">
-        <v>-3.8750912705601298E-2</v>
-      </c>
-      <c r="J202">
-        <v>0.49316979940651351</v>
-      </c>
-      <c r="K202">
-        <v>0.53402093524318406</v>
-      </c>
-      <c r="L202">
-        <v>0.20256312292485781</v>
-      </c>
-      <c r="M202">
-        <v>-0.32910982635649899</v>
-      </c>
-      <c r="N202">
-        <v>0.51987674711091925</v>
-      </c>
-      <c r="O202">
-        <v>0.42117227772946553</v>
-      </c>
-      <c r="P202">
-        <v>0.1228605518127579</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>217</v>
-      </c>
-      <c r="C203">
-        <v>-6.7941355978425336E-2</v>
-      </c>
-      <c r="D203">
-        <v>-9.9648355300695435E-2</v>
-      </c>
-      <c r="E203">
-        <v>-0.14601521376136811</v>
-      </c>
-      <c r="F203">
-        <v>-0.130345054472809</v>
-      </c>
-      <c r="G203">
-        <v>-0.1050349903558742</v>
-      </c>
-      <c r="H203">
-        <v>-9.1574699280091126E-2</v>
-      </c>
-      <c r="I203">
-        <v>-9.965946429263646E-2</v>
-      </c>
-      <c r="J203">
-        <v>-8.606897600941775E-2</v>
-      </c>
-      <c r="K203">
-        <v>-0.12756114829024101</v>
-      </c>
-      <c r="L203">
-        <v>0.13978392692117969</v>
-      </c>
-      <c r="M203">
-        <v>-0.14623616876818721</v>
-      </c>
-      <c r="N203">
-        <v>0.16332688202251361</v>
-      </c>
-      <c r="O203">
-        <v>0.11964125921895161</v>
-      </c>
-      <c r="P203">
-        <v>8.7227885146851161E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" t="s">
-        <v>218</v>
-      </c>
-      <c r="C204">
-        <v>-5.1065154656816672E-2</v>
-      </c>
-      <c r="D204">
-        <v>-7.2634981071327834E-2</v>
-      </c>
-      <c r="E204">
-        <v>-0.1060384536276021</v>
-      </c>
-      <c r="F204">
-        <v>-0.10097344354405779</v>
-      </c>
-      <c r="G204">
-        <v>-8.135482884313798E-2</v>
-      </c>
-      <c r="H204">
-        <v>-7.0908762064941872E-2</v>
-      </c>
-      <c r="I204">
-        <v>-7.2723365025662845E-2</v>
-      </c>
-      <c r="J204">
-        <v>-6.105904428779086E-2</v>
-      </c>
-      <c r="K204">
-        <v>-8.8885458863325092E-2</v>
-      </c>
-      <c r="L204">
-        <v>0.22727442420328869</v>
-      </c>
-      <c r="M204">
-        <v>-0.10642515665665619</v>
-      </c>
-      <c r="N204">
-        <v>0.1289255562354093</v>
-      </c>
-      <c r="O204">
-        <v>4.6638000330059153E-2</v>
-      </c>
-      <c r="P204">
-        <v>8.5511324743275857E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>219</v>
-      </c>
-      <c r="C205">
-        <v>-2.4467641241994839E-2</v>
-      </c>
-      <c r="D205">
-        <v>-4.6662974035643262E-2</v>
-      </c>
-      <c r="E205">
-        <v>-3.5579580178129212E-2</v>
-      </c>
-      <c r="F205">
-        <v>-8.4454795785420797E-2</v>
-      </c>
-      <c r="G205">
-        <v>-6.3987508872267423E-2</v>
-      </c>
-      <c r="H205">
-        <v>-6.5820028352050405E-2</v>
-      </c>
-      <c r="I205">
-        <v>-4.6966490025224378E-2</v>
-      </c>
-      <c r="J205">
-        <v>-9.9406512744724396E-2</v>
-      </c>
-      <c r="K205">
-        <v>-0.1030392851654168</v>
-      </c>
-      <c r="L205">
-        <v>-1.49306794214904E-2</v>
-      </c>
-      <c r="M205">
-        <v>-3.7258529191234832E-2</v>
-      </c>
-      <c r="N205">
-        <v>-2.1772801907847372E-2</v>
-      </c>
-      <c r="O205">
-        <v>-7.7068824231547262E-2</v>
-      </c>
-      <c r="P205">
-        <v>-9.7683083348660577E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>220</v>
-      </c>
-      <c r="C206">
-        <v>0.51576981210219397</v>
-      </c>
-      <c r="D206">
-        <v>-0.45350185119440339</v>
-      </c>
-      <c r="E206">
-        <v>-7.5945494938872498E-5</v>
-      </c>
-      <c r="F206">
-        <v>-0.44890559338893432</v>
-      </c>
-      <c r="G206">
-        <v>0.112629347851917</v>
-      </c>
-      <c r="H206">
-        <v>0.1156051112267665</v>
-      </c>
-      <c r="I206">
-        <v>-0.45344442362577991</v>
-      </c>
-      <c r="J206">
-        <v>0.48803595749982281</v>
-      </c>
-      <c r="K206">
-        <v>0.45552895381167852</v>
-      </c>
-      <c r="L206">
-        <v>-0.11602268112804021</v>
-      </c>
-      <c r="M206">
-        <v>-2.428856455533509E-3</v>
-      </c>
-      <c r="N206">
-        <v>0.30013038644679851</v>
-      </c>
-      <c r="O206">
-        <v>0.28033463827136851</v>
-      </c>
-      <c r="P206">
-        <v>-3.0160313768591299E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>221</v>
-      </c>
-      <c r="C207">
-        <v>0.16036645599822891</v>
-      </c>
-      <c r="D207">
-        <v>0.14187532572495221</v>
-      </c>
-      <c r="E207">
-        <v>0.2228495824021903</v>
-      </c>
-      <c r="F207">
-        <v>0.1417826584309565</v>
-      </c>
-      <c r="G207">
-        <v>0.28234645064275382</v>
-      </c>
-      <c r="H207">
-        <v>0.28385011088975459</v>
-      </c>
-      <c r="I207">
-        <v>0.14158315847916059</v>
-      </c>
-      <c r="J207">
-        <v>0.40422236661797822</v>
-      </c>
-      <c r="K207">
-        <v>0.48272777907518949</v>
-      </c>
-      <c r="L207">
-        <v>5.2491526685027642E-2</v>
-      </c>
-      <c r="M207">
-        <v>0.2202994774392931</v>
-      </c>
-      <c r="N207">
-        <v>7.2514314623440629E-2</v>
-      </c>
-      <c r="O207">
-        <v>4.96214765095052E-2</v>
-      </c>
-      <c r="P207">
-        <v>-7.2992433462265055E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" t="s">
-        <v>222</v>
-      </c>
-      <c r="C208">
-        <v>0.35303527419624559</v>
-      </c>
-      <c r="D208">
-        <v>-0.11594928054950659</v>
-      </c>
-      <c r="E208">
-        <v>1.435212142175434E-2</v>
-      </c>
-      <c r="F208">
-        <v>-0.35782407395290072</v>
-      </c>
-      <c r="G208">
-        <v>-3.5363295397710139E-2</v>
-      </c>
-      <c r="H208">
-        <v>5.9047129154927977E-2</v>
-      </c>
-      <c r="I208">
-        <v>-0.1164865486563115</v>
-      </c>
-      <c r="J208">
-        <v>0.18091140331279379</v>
-      </c>
-      <c r="K208">
-        <v>0.42841990122911078</v>
-      </c>
-      <c r="L208">
-        <v>0.36302627566256879</v>
-      </c>
-      <c r="M208">
-        <v>1.4236263915631771E-2</v>
-      </c>
-      <c r="N208">
-        <v>0.11234068579961171</v>
-      </c>
-      <c r="O208">
-        <v>0.17759276617204089</v>
-      </c>
-      <c r="P208">
-        <v>-0.45687747120238892</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" t="s">
-        <v>223</v>
-      </c>
-      <c r="C209">
-        <v>-0.28918349041759928</v>
-      </c>
-      <c r="D209">
-        <v>-1.613821924710172E-3</v>
-      </c>
-      <c r="E209">
-        <v>-0.13656464743083679</v>
-      </c>
-      <c r="F209">
-        <v>-1.8330144131308269E-2</v>
-      </c>
-      <c r="G209">
-        <v>-1.581471903769173E-2</v>
-      </c>
-      <c r="H209">
-        <v>8.2413697931062332E-2</v>
-      </c>
-      <c r="I209">
-        <v>-1.74338626176253E-3</v>
-      </c>
-      <c r="J209">
-        <v>0.30907575954409777</v>
-      </c>
-      <c r="K209">
-        <v>0.29666312585069332</v>
-      </c>
-      <c r="L209">
-        <v>-0.1026912020412271</v>
-      </c>
-      <c r="M209">
-        <v>-0.13796994643645921</v>
-      </c>
-      <c r="N209">
-        <v>0.16454003498798911</v>
-      </c>
-      <c r="O209">
-        <v>0.15842466564878549</v>
-      </c>
-      <c r="P209">
-        <v>-7.1784457992536063E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" t="s">
-        <v>224</v>
-      </c>
-      <c r="C210">
-        <v>1.2102017590268179E-2</v>
-      </c>
-      <c r="D210">
-        <v>1.908221170298852E-2</v>
-      </c>
-      <c r="E210">
-        <v>-0.1011842885571422</v>
-      </c>
-      <c r="F210">
-        <v>3.8717210873810921E-2</v>
-      </c>
-      <c r="G210">
-        <v>7.2645693462206215E-2</v>
-      </c>
-      <c r="H210">
-        <v>9.2713282514353137E-2</v>
-      </c>
-      <c r="I210">
-        <v>1.891622341125504E-2</v>
-      </c>
-      <c r="J210">
-        <v>0.27747684903801689</v>
-      </c>
-      <c r="K210">
-        <v>0.28677001192276652</v>
-      </c>
-      <c r="L210">
-        <v>1.456883665465609E-2</v>
-      </c>
-      <c r="M210">
-        <v>-0.1015344692111943</v>
-      </c>
-      <c r="N210">
-        <v>0.146292960444661</v>
-      </c>
-      <c r="O210">
-        <v>0.1883088359443372</v>
-      </c>
-      <c r="P210">
-        <v>-8.7924348048464801E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" t="s">
-        <v>225</v>
-      </c>
-      <c r="C211">
-        <v>-0.2116541017671334</v>
-      </c>
-      <c r="D211">
-        <v>-8.2147249636011291E-2</v>
-      </c>
-      <c r="E211">
-        <v>-9.8166355100389513E-2</v>
-      </c>
-      <c r="F211">
-        <v>-0.1073236659949775</v>
-      </c>
-      <c r="G211">
-        <v>-0.56948264905110524</v>
-      </c>
-      <c r="H211">
-        <v>-1.0789028520473601E-2</v>
-      </c>
-      <c r="I211">
-        <v>-8.2208559661667402E-2</v>
-      </c>
-      <c r="J211">
-        <v>0.32482142268792641</v>
-      </c>
-      <c r="K211">
-        <v>0.30728887610926459</v>
-      </c>
-      <c r="L211">
-        <v>-0.15274625599221231</v>
-      </c>
-      <c r="M211">
-        <v>-9.9302023027795519E-2</v>
-      </c>
-      <c r="N211">
-        <v>0.1489225718800935</v>
-      </c>
-      <c r="O211">
-        <v>0.12185500108720269</v>
-      </c>
-      <c r="P211">
-        <v>-0.1060879310264904</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" t="s">
-        <v>226</v>
-      </c>
-      <c r="C212">
-        <v>-1</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>1</v>
-      </c>
-      <c r="I212">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="J212">
-        <v>-1</v>
-      </c>
-      <c r="K212">
-        <v>-1</v>
-      </c>
-      <c r="L212">
-        <v>-1</v>
-      </c>
-      <c r="M212">
-        <v>1</v>
-      </c>
-      <c r="N212">
-        <v>-1</v>
-      </c>
-      <c r="O212">
-        <v>-1</v>
-      </c>
-      <c r="P212">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" t="s">
-        <v>227</v>
-      </c>
-      <c r="C213">
-        <v>3.0959349755780549E-4</v>
-      </c>
-      <c r="D213">
-        <v>0.13722867808606889</v>
-      </c>
-      <c r="E213">
-        <v>0.28316087346388091</v>
-      </c>
-      <c r="F213">
-        <v>0.1080323758632228</v>
-      </c>
-      <c r="G213">
-        <v>-2.4669212204557301E-2</v>
-      </c>
-      <c r="H213">
-        <v>-0.1041312572322608</v>
-      </c>
-      <c r="I213">
-        <v>0.1376631257750067</v>
-      </c>
-      <c r="J213">
-        <v>-0.4849472204196878</v>
-      </c>
-      <c r="K213">
-        <v>-0.454873538131574</v>
-      </c>
-      <c r="L213">
-        <v>1.6925953432748289E-2</v>
-      </c>
-      <c r="M213">
-        <v>0.28430912478732923</v>
-      </c>
-      <c r="N213">
-        <v>-0.31639668700098972</v>
-      </c>
-      <c r="O213">
-        <v>-0.23761685755556181</v>
-      </c>
-      <c r="P213">
-        <v>9.3463495702823779E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" t="s">
-        <v>233</v>
-      </c>
-      <c r="C219">
-        <v>2.714453500868881E-3</v>
-      </c>
-      <c r="D219">
-        <v>8.6071561496115889E-2</v>
-      </c>
-      <c r="E219">
-        <v>0.19078502232716271</v>
-      </c>
-      <c r="F219">
-        <v>6.8007188908465924E-2</v>
-      </c>
-      <c r="G219">
-        <v>-2.7874296468673489E-2</v>
-      </c>
-      <c r="H219">
-        <v>-8.5603648562178419E-2</v>
-      </c>
-      <c r="I219">
-        <v>8.6379585272319245E-2</v>
-      </c>
-      <c r="J219">
-        <v>-0.34135789457252258</v>
-      </c>
-      <c r="K219">
-        <v>-0.33124377883085238</v>
-      </c>
-      <c r="L219">
-        <v>0.12784386991777361</v>
-      </c>
-      <c r="M219">
-        <v>0.19163356600312911</v>
-      </c>
-      <c r="N219">
-        <v>-0.18708740003136781</v>
-      </c>
-      <c r="O219">
-        <v>-0.15250322274294639</v>
-      </c>
-      <c r="P219">
-        <v>0.1060548105216883</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" t="s">
-        <v>234</v>
-      </c>
-      <c r="C220">
-        <v>-0.1183223280293393</v>
-      </c>
-      <c r="D220">
-        <v>0.10328284258596571</v>
-      </c>
-      <c r="E220">
-        <v>-9.6472435000789433E-2</v>
-      </c>
-      <c r="F220">
-        <v>9.4964230071051578E-2</v>
-      </c>
-      <c r="G220">
-        <v>-2.666504285709359E-2</v>
-      </c>
-      <c r="H220">
-        <v>-7.1543121859577443E-3</v>
-      </c>
-      <c r="I220">
-        <v>0.1031788362543105</v>
-      </c>
-      <c r="J220">
-        <v>-2.4082785985785171E-2</v>
-      </c>
-      <c r="K220">
-        <v>-6.0611914371323378E-2</v>
-      </c>
-      <c r="L220">
-        <v>0.20557334177504341</v>
-      </c>
-      <c r="M220">
-        <v>-9.8491851456240689E-2</v>
-      </c>
-      <c r="N220">
-        <v>0.11810216069702591</v>
-      </c>
-      <c r="O220">
-        <v>4.118552661466373E-2</v>
-      </c>
-      <c r="P220">
-        <v>2.976893604684373E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>235</v>
-      </c>
-      <c r="C221">
-        <v>-0.14789979398492981</v>
-      </c>
-      <c r="D221">
-        <v>3.8906947908792157E-2</v>
-      </c>
-      <c r="E221">
-        <v>-0.19115986529966281</v>
-      </c>
-      <c r="F221">
-        <v>3.435468286401875E-2</v>
-      </c>
-      <c r="G221">
-        <v>-0.28738109330512113</v>
-      </c>
-      <c r="H221">
-        <v>-0.29096058203863812</v>
-      </c>
-      <c r="I221">
-        <v>3.8795143042819669E-2</v>
-      </c>
-      <c r="J221">
-        <v>-0.43131973479859231</v>
-      </c>
-      <c r="K221">
-        <v>-0.48968411620615809</v>
-      </c>
-      <c r="L221">
-        <v>-3.8468175199593488E-2</v>
-      </c>
-      <c r="M221">
-        <v>-0.18812573917501491</v>
-      </c>
-      <c r="N221">
-        <v>0.13367331565020721</v>
-      </c>
-      <c r="O221">
-        <v>0.15858474369787071</v>
-      </c>
-      <c r="P221">
-        <v>0.28729584810650138</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" t="s">
-        <v>237</v>
-      </c>
-      <c r="C223">
-        <v>-8.0026498076416763E-3</v>
-      </c>
-      <c r="D223">
-        <v>3.7029922632575228E-2</v>
-      </c>
-      <c r="E223">
-        <v>0.18884634805526401</v>
-      </c>
-      <c r="F223">
-        <v>-1.2603203377977381E-2</v>
-      </c>
-      <c r="G223">
-        <v>-3.137620941279478E-2</v>
-      </c>
-      <c r="H223">
-        <v>-3.6806834411222233E-2</v>
-      </c>
-      <c r="I223">
-        <v>3.7131165354998552E-2</v>
-      </c>
-      <c r="J223">
-        <v>-0.15402824744456539</v>
-      </c>
-      <c r="K223">
-        <v>-0.1513077617590034</v>
-      </c>
-      <c r="L223">
-        <v>-5.2320583714583049E-2</v>
-      </c>
-      <c r="M223">
-        <v>0.18875814577970379</v>
-      </c>
-      <c r="N223">
-        <v>-8.6411832509650455E-2</v>
-      </c>
-      <c r="O223">
-        <v>-0.1010956430563177</v>
-      </c>
-      <c r="P223">
-        <v>-5.8784058178981587E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" t="s">
-        <v>239</v>
-      </c>
-      <c r="C225">
-        <v>-7.9098907170580563E-3</v>
-      </c>
-      <c r="D225">
-        <v>1.8071221704700449E-2</v>
-      </c>
-      <c r="E225">
-        <v>0.13418829863359899</v>
-      </c>
-      <c r="F225">
-        <v>-1.886336459873009E-2</v>
-      </c>
-      <c r="G225">
-        <v>-3.3275676597653701E-2</v>
-      </c>
-      <c r="H225">
-        <v>-3.5910174686899027E-2</v>
-      </c>
-      <c r="I225">
-        <v>1.8135112077890311E-2</v>
-      </c>
-      <c r="J225">
-        <v>-0.13194293945199709</v>
-      </c>
-      <c r="K225">
-        <v>-0.1313238917832811</v>
-      </c>
-      <c r="L225">
-        <v>-3.066653404925284E-2</v>
-      </c>
-      <c r="M225">
-        <v>0.13408910688478359</v>
-      </c>
-      <c r="N225">
-        <v>-5.7631921730438747E-2</v>
-      </c>
-      <c r="O225">
-        <v>-7.8823576503040185E-2</v>
-      </c>
-      <c r="P225">
-        <v>-5.2133907678499722E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>241</v>
-      </c>
-      <c r="C227">
-        <v>-9.7845842220846847E-3</v>
-      </c>
-      <c r="D227">
-        <v>2.416424356686624E-2</v>
-      </c>
-      <c r="E227">
-        <v>0.148327342212558</v>
-      </c>
-      <c r="F227">
-        <v>-1.6056327683923111E-2</v>
-      </c>
-      <c r="G227">
-        <v>-3.2845002615159311E-2</v>
-      </c>
-      <c r="H227">
-        <v>-3.6117511776444601E-2</v>
-      </c>
-      <c r="I227">
-        <v>2.4238487308150761E-2</v>
-      </c>
-      <c r="J227">
-        <v>-0.13949835113084019</v>
-      </c>
-      <c r="K227">
-        <v>-0.13799826483497271</v>
-      </c>
-      <c r="L227">
-        <v>-3.9486638333570939E-2</v>
-      </c>
-      <c r="M227">
-        <v>0.14822973332585779</v>
-      </c>
-      <c r="N227">
-        <v>-6.6648769265727034E-2</v>
-      </c>
-      <c r="O227">
-        <v>-8.5687951878006874E-2</v>
-      </c>
-      <c r="P227">
-        <v>-5.5545888901358198E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>259</v>
-      </c>
-      <c r="C245">
-        <v>-0.1219750594802846</v>
-      </c>
-      <c r="D245">
-        <v>2.3624973350455891E-2</v>
-      </c>
-      <c r="E245">
-        <v>-0.27437351215215477</v>
-      </c>
-      <c r="F245">
-        <v>7.1586817523653631E-2</v>
-      </c>
-      <c r="G245">
-        <v>-0.32679424730514078</v>
-      </c>
-      <c r="H245">
-        <v>0.146079675034337</v>
-      </c>
-      <c r="I245">
-        <v>2.3374492939527199E-2</v>
-      </c>
-      <c r="J245">
-        <v>0.49693142247580152</v>
-      </c>
-      <c r="K245">
-        <v>0.46868778775153458</v>
-      </c>
-      <c r="L245">
-        <v>7.173920120820744E-2</v>
-      </c>
-      <c r="M245">
-        <v>-0.27491826053595081</v>
-      </c>
-      <c r="N245">
-        <v>0.2417695814669005</v>
-      </c>
-      <c r="O245">
-        <v>0.17523796336159519</v>
-      </c>
-      <c r="P245">
-        <v>-0.12662150518671611</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>260</v>
-      </c>
-      <c r="C246">
-        <v>-0.1083607620516973</v>
-      </c>
-      <c r="D246">
-        <v>0.24782778713615999</v>
-      </c>
-      <c r="E246">
-        <v>0.19848500809559841</v>
-      </c>
-      <c r="F246">
-        <v>0.21269092158328859</v>
-      </c>
-      <c r="G246">
-        <v>0.2253909326761506</v>
-      </c>
-      <c r="H246">
-        <v>0.2204592141034899</v>
-      </c>
-      <c r="I246">
-        <v>0.24794333091832271</v>
-      </c>
-      <c r="J246">
-        <v>-0.13407896233758829</v>
-      </c>
-      <c r="K246">
-        <v>-0.1309273543670309</v>
-      </c>
-      <c r="L246">
-        <v>-1.8249423736908198E-2</v>
-      </c>
-      <c r="M246">
-        <v>0.1982638165353264</v>
-      </c>
-      <c r="N246">
-        <v>-0.20841294041224459</v>
-      </c>
-      <c r="O246">
-        <v>-7.665816822297554E-2</v>
-      </c>
-      <c r="P246">
-        <v>0.13702315971099099</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>261</v>
-      </c>
-      <c r="C247">
-        <v>-9.827108893578998E-2</v>
-      </c>
-      <c r="D247">
-        <v>-3.4046147085243707E-2</v>
-      </c>
-      <c r="E247">
-        <v>-6.2677896182176937E-2</v>
-      </c>
-      <c r="F247">
-        <v>-1.740262678012764E-2</v>
-      </c>
-      <c r="G247">
-        <v>0.26280213208443792</v>
-      </c>
-      <c r="H247">
-        <v>0.27802204313366907</v>
-      </c>
-      <c r="I247">
-        <v>-3.3914744574373032E-2</v>
-      </c>
-      <c r="J247">
-        <v>-0.12526271877024531</v>
-      </c>
-      <c r="K247">
-        <v>-0.18044420893324409</v>
-      </c>
-      <c r="L247">
-        <v>-0.13564876779053561</v>
-      </c>
-      <c r="M247">
-        <v>-6.3001483686213555E-2</v>
-      </c>
-      <c r="N247">
-        <v>-0.201513156942077</v>
-      </c>
-      <c r="O247">
-        <v>-0.2177765130747025</v>
-      </c>
-      <c r="P247">
-        <v>-4.5341159596340462E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>262</v>
-      </c>
-      <c r="C248">
-        <v>-6.3848469919037976E-2</v>
-      </c>
-      <c r="D248">
-        <v>-4.5025433244086553E-2</v>
-      </c>
-      <c r="E248">
-        <v>-6.7309585542430855E-2</v>
-      </c>
-      <c r="F248">
-        <v>-3.2091555347743737E-2</v>
-      </c>
-      <c r="G248">
-        <v>4.6900895347978588E-2</v>
-      </c>
-      <c r="H248">
-        <v>5.733224290500865E-2</v>
-      </c>
-      <c r="I248">
-        <v>-4.4951543945160093E-2</v>
-      </c>
-      <c r="J248">
-        <v>-0.15492355424813861</v>
-      </c>
-      <c r="K248">
-        <v>-3.867359544604039E-2</v>
-      </c>
-      <c r="L248">
-        <v>-7.6780779219935452E-2</v>
-      </c>
-      <c r="M248">
-        <v>-6.7401449688802961E-2</v>
-      </c>
-      <c r="N248">
-        <v>-0.28079046724230272</v>
-      </c>
-      <c r="O248">
-        <v>-0.25350432631723852</v>
-      </c>
-      <c r="P248">
-        <v>1.165100649598633E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>263</v>
-      </c>
-      <c r="C249">
-        <v>-0.1109526914840024</v>
-      </c>
-      <c r="D249">
-        <v>-0.1042080335589441</v>
-      </c>
-      <c r="E249">
-        <v>-0.12709850798558439</v>
-      </c>
-      <c r="F249">
-        <v>-8.2388702615090154E-2</v>
-      </c>
-      <c r="G249">
-        <v>-0.1186569809104091</v>
-      </c>
-      <c r="H249">
-        <v>-0.10771915281519021</v>
-      </c>
-      <c r="I249">
-        <v>-0.1041123050363278</v>
-      </c>
-      <c r="J249">
-        <v>-0.40136316391622839</v>
-      </c>
-      <c r="K249">
-        <v>-0.41040986319290629</v>
-      </c>
-      <c r="L249">
-        <v>-6.3513609210874428E-2</v>
-      </c>
-      <c r="M249">
-        <v>-0.1270099114062114</v>
-      </c>
-      <c r="N249">
-        <v>-0.1576908630588251</v>
-      </c>
-      <c r="O249">
-        <v>-0.18989463530496409</v>
-      </c>
-      <c r="P249">
-        <v>8.1127880353041734E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>264</v>
-      </c>
-      <c r="C250">
-        <v>-0.1226795888951292</v>
-      </c>
-      <c r="D250">
-        <v>-6.5275587453600126E-2</v>
-      </c>
-      <c r="E250">
-        <v>-9.6044641602117259E-2</v>
-      </c>
-      <c r="F250">
-        <v>-4.694536547382528E-2</v>
-      </c>
-      <c r="G250">
-        <v>-0.1103773554811983</v>
-      </c>
-      <c r="H250">
-        <v>-0.10511887760097639</v>
-      </c>
-      <c r="I250">
-        <v>-6.5147152259828131E-2</v>
-      </c>
-      <c r="J250">
-        <v>-0.38529679860684279</v>
-      </c>
-      <c r="K250">
-        <v>-0.40901208905211989</v>
-      </c>
-      <c r="L250">
-        <v>-2.3281284515887929E-2</v>
-      </c>
-      <c r="M250">
-        <v>-9.5880154270893608E-2</v>
-      </c>
-      <c r="N250">
-        <v>-0.16497587985226619</v>
-      </c>
-      <c r="O250">
-        <v>-0.1737748888669379</v>
-      </c>
-      <c r="P250">
-        <v>0.1271272577209015</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>265</v>
-      </c>
-      <c r="C251">
-        <v>-0.11935786393888891</v>
-      </c>
-      <c r="D251">
-        <v>-6.7420376342182953E-2</v>
-      </c>
-      <c r="E251">
-        <v>-9.5626226812609294E-2</v>
-      </c>
-      <c r="F251">
-        <v>-4.8807980730914927E-2</v>
-      </c>
-      <c r="G251">
-        <v>-8.7643118288950647E-2</v>
-      </c>
-      <c r="H251">
-        <v>-8.1946965573975628E-2</v>
-      </c>
-      <c r="I251">
-        <v>-6.7292427095946003E-2</v>
-      </c>
-      <c r="J251">
-        <v>-0.37681874999611559</v>
-      </c>
-      <c r="K251">
-        <v>-0.4013922121792049</v>
-      </c>
-      <c r="L251">
-        <v>-2.3993763200476002E-2</v>
-      </c>
-      <c r="M251">
-        <v>-9.5487515298848538E-2</v>
-      </c>
-      <c r="N251">
-        <v>-0.16916299381772659</v>
-      </c>
-      <c r="O251">
-        <v>-0.17800284191963739</v>
-      </c>
-      <c r="P251">
-        <v>0.127544983460153</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>266</v>
-      </c>
-      <c r="C252">
-        <v>-0.1126325098181962</v>
-      </c>
-      <c r="D252">
-        <v>4.8940217935807918E-2</v>
-      </c>
-      <c r="E252">
-        <v>0.27354028757299392</v>
-      </c>
-      <c r="F252">
-        <v>-2.2541763687338359E-2</v>
-      </c>
-      <c r="G252">
-        <v>-9.2501404393355094E-2</v>
-      </c>
-      <c r="H252">
-        <v>-9.996464235984355E-2</v>
-      </c>
-      <c r="I252">
-        <v>4.9311688333217557E-2</v>
-      </c>
-      <c r="J252">
-        <v>-0.42313646650919751</v>
-      </c>
-      <c r="K252">
-        <v>-0.42614353554068962</v>
-      </c>
-      <c r="L252">
-        <v>-0.1046455794304849</v>
-      </c>
-      <c r="M252">
-        <v>0.27367308258779161</v>
-      </c>
-      <c r="N252">
-        <v>-0.33409081991500222</v>
-      </c>
-      <c r="O252">
-        <v>-0.32526620548629692</v>
-      </c>
-      <c r="P252">
-        <v>4.0083538380774143E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>267</v>
-      </c>
-      <c r="C253">
-        <v>-0.1239061096813876</v>
-      </c>
-      <c r="D253">
-        <v>-7.5622660718634771E-2</v>
-      </c>
-      <c r="E253">
-        <v>-0.1057308681476669</v>
-      </c>
-      <c r="F253">
-        <v>-5.6117341284759439E-2</v>
-      </c>
-      <c r="G253">
-        <v>-0.1198778246287282</v>
-      </c>
-      <c r="H253">
-        <v>-0.1131960417034335</v>
-      </c>
-      <c r="I253">
-        <v>-7.5499777135082741E-2</v>
-      </c>
-      <c r="J253">
-        <v>-0.36855545265558692</v>
-      </c>
-      <c r="K253">
-        <v>-0.40655474035416722</v>
-      </c>
-      <c r="L253">
-        <v>-3.9790431723022122E-2</v>
-      </c>
-      <c r="M253">
-        <v>-0.1055746290510151</v>
-      </c>
-      <c r="N253">
-        <v>-0.14305776228385589</v>
-      </c>
-      <c r="O253">
-        <v>-0.16178838398960699</v>
-      </c>
-      <c r="P253">
-        <v>0.1092130254780907</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>268</v>
-      </c>
-      <c r="C254">
-        <v>-0.12293169875154369</v>
-      </c>
-      <c r="D254">
-        <v>-6.4562033560513765E-2</v>
-      </c>
-      <c r="E254">
-        <v>-9.5329687438701294E-2</v>
-      </c>
-      <c r="F254">
-        <v>-4.6324533849482867E-2</v>
-      </c>
-      <c r="G254">
-        <v>-0.1096491742988077</v>
-      </c>
-      <c r="H254">
-        <v>-0.10448384851240219</v>
-      </c>
-      <c r="I254">
-        <v>-6.4433405829071505E-2</v>
-      </c>
-      <c r="J254">
-        <v>-0.38652660364640601</v>
-      </c>
-      <c r="K254">
-        <v>-0.41080748686291729</v>
-      </c>
-      <c r="L254">
-        <v>-2.3258886119929489E-2</v>
-      </c>
-      <c r="M254">
-        <v>-9.5164862642650533E-2</v>
-      </c>
-      <c r="N254">
-        <v>-0.1659300776884168</v>
-      </c>
-      <c r="O254">
-        <v>-0.17423686796660079</v>
-      </c>
-      <c r="P254">
-        <v>0.12731188091943421</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>269</v>
-      </c>
-      <c r="C255">
-        <v>-0.1973284149347552</v>
-      </c>
-      <c r="D255">
-        <v>1.299164345583011E-2</v>
-      </c>
-      <c r="E255">
-        <v>-0.13571667124327011</v>
-      </c>
-      <c r="F255">
-        <v>4.1346504560160702E-2</v>
-      </c>
-      <c r="G255">
-        <v>-0.1278912661616407</v>
-      </c>
-      <c r="H255">
-        <v>-0.116923810529142</v>
-      </c>
-      <c r="I255">
-        <v>1.3079042165022771E-2</v>
-      </c>
-      <c r="J255">
-        <v>-0.28746328455688841</v>
-      </c>
-      <c r="K255">
-        <v>-0.30750590422298107</v>
-      </c>
-      <c r="L255">
-        <v>-3.675908902885288E-2</v>
-      </c>
-      <c r="M255">
-        <v>-0.13562423466557469</v>
-      </c>
-      <c r="N255">
-        <v>-0.1153036835857342</v>
-      </c>
-      <c r="O255">
-        <v>-0.1545447280436511</v>
-      </c>
-      <c r="P255">
-        <v>0.10341508160894319</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>270</v>
-      </c>
-      <c r="C256">
-        <v>-0.1229568249302968</v>
-      </c>
-      <c r="D256">
-        <v>-6.4834151330928486E-2</v>
-      </c>
-      <c r="E256">
-        <v>-9.5606054994469114E-2</v>
-      </c>
-      <c r="F256">
-        <v>-4.6557837008223892E-2</v>
-      </c>
-      <c r="G256">
-        <v>-0.10992694383939421</v>
-      </c>
-      <c r="H256">
-        <v>-0.10472710216865271</v>
-      </c>
-      <c r="I256">
-        <v>-6.470557557787239E-2</v>
-      </c>
-      <c r="J256">
-        <v>-0.38610849446939738</v>
-      </c>
-      <c r="K256">
-        <v>-0.41091366949858982</v>
-      </c>
-      <c r="L256">
-        <v>-2.3747612217107861E-2</v>
-      </c>
-      <c r="M256">
-        <v>-9.5441289241140773E-2</v>
-      </c>
-      <c r="N256">
-        <v>-0.1650671833460878</v>
-      </c>
-      <c r="O256">
-        <v>-0.1736546195388334</v>
-      </c>
-      <c r="P256">
-        <v>0.1269970855082351</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>271</v>
-      </c>
-      <c r="C257">
-        <v>-0.1880586372525668</v>
-      </c>
-      <c r="D257">
-        <v>7.6581001202606663E-2</v>
-      </c>
-      <c r="E257">
-        <v>-6.7418099570299025E-2</v>
-      </c>
-      <c r="F257">
-        <v>7.6045460865822548E-2</v>
-      </c>
-      <c r="G257">
-        <v>-0.21628096075114031</v>
-      </c>
-      <c r="H257">
-        <v>-0.1891759048689283</v>
-      </c>
-      <c r="I257">
-        <v>7.6493855995913726E-2</v>
-      </c>
-      <c r="J257">
-        <v>0.13653167669675861</v>
-      </c>
-      <c r="K257">
-        <v>0.1143489498999522</v>
-      </c>
-      <c r="L257">
-        <v>1.5362200838148481E-2</v>
-      </c>
-      <c r="M257">
-        <v>-6.765285790842912E-2</v>
-      </c>
-      <c r="N257">
-        <v>0.40965728269539448</v>
-      </c>
-      <c r="O257">
-        <v>0.28707935067148732</v>
-      </c>
-      <c r="P257">
         <v>0.1879425581051026</v>
       </c>
     </row>
